--- a/Workbook_Model_Testing.xlsx
+++ b/Workbook_Model_Testing.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v3" sheetId="1" r:id="rId1"/>
+    <sheet name="v4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>t_0_100</t>
   </si>
@@ -76,12 +77,18 @@
   <si>
     <t xml:space="preserve">k </t>
   </si>
+  <si>
+    <t>f_app</t>
+  </si>
+  <si>
+    <t>g_app</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +152,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -235,8 +264,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -246,8 +284,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -280,58 +322,108 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,14 +721,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -710,7 +802,7 @@
       <c r="I3" s="9">
         <v>0.2432</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2">
@@ -719,16 +811,16 @@
       <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="21">
         <v>26.9</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="22">
         <v>20.100000000000001</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="22">
         <v>13.7</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="23">
         <v>0.23</v>
       </c>
     </row>
@@ -736,7 +828,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>1E-3</v>
       </c>
       <c r="C4" s="2">
@@ -760,7 +852,7 @@
       <c r="I4" s="2">
         <v>0.28620000000000001</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="2">
@@ -771,7 +863,7 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5" s="2">
@@ -800,7 +892,7 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>0.01</v>
       </c>
       <c r="C6" s="2">
@@ -829,7 +921,7 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>0.1</v>
       </c>
       <c r="C7" s="2">
@@ -858,7 +950,7 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>0.2</v>
       </c>
       <c r="C8" s="4">
@@ -887,16 +979,16 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="D9" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="16">
         <v>0.1</v>
       </c>
       <c r="F9" s="3">
@@ -919,7 +1011,7 @@
       <c r="B10" s="3">
         <v>0.05</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>0.01</v>
       </c>
       <c r="D10" s="2">
@@ -948,7 +1040,7 @@
       <c r="B11" s="3">
         <v>0.05</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>0.02</v>
       </c>
       <c r="D11" s="2">
@@ -974,16 +1066,16 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="B12" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="19">
         <v>0.03</v>
       </c>
-      <c r="D12" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="18">
         <v>0.1</v>
       </c>
       <c r="F12" s="5">
@@ -1003,16 +1095,16 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>0.1</v>
       </c>
       <c r="F13" s="3">
@@ -1038,7 +1130,7 @@
       <c r="C14" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>0.01</v>
       </c>
       <c r="E14" s="2">
@@ -1067,7 +1159,7 @@
       <c r="C15" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>0.1</v>
       </c>
       <c r="E15" s="2">
@@ -1090,16 +1182,16 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="B16" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>0.2</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>0.1</v>
       </c>
       <c r="F16" s="5">
@@ -1128,7 +1220,7 @@
       <c r="D17" s="2">
         <v>0.05</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>0.01</v>
       </c>
       <c r="F17" s="3">
@@ -1157,7 +1249,7 @@
       <c r="D18" s="2">
         <v>0.05</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>0.05</v>
       </c>
       <c r="F18" s="3">
@@ -1186,7 +1278,7 @@
       <c r="D19" s="2">
         <v>0.05</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>0.2</v>
       </c>
       <c r="F19" s="3">
@@ -1215,7 +1307,7 @@
       <c r="D20" s="2">
         <v>0.05</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>0.3</v>
       </c>
       <c r="F20" s="3">
@@ -1335,4 +1427,1066 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="30">
+        <v>100</v>
+      </c>
+      <c r="F3" s="30">
+        <v>20</v>
+      </c>
+      <c r="G3" s="31">
+        <v>39</v>
+      </c>
+      <c r="H3" s="30">
+        <v>62</v>
+      </c>
+      <c r="I3" s="30">
+        <v>69</v>
+      </c>
+      <c r="J3" s="32">
+        <v>0.47877999999999998</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="16">
+        <v>4</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="33">
+        <v>26.9</v>
+      </c>
+      <c r="Q3" s="34">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="R3" s="34">
+        <v>13.7</v>
+      </c>
+      <c r="S3" s="35">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="16">
+        <v>100</v>
+      </c>
+      <c r="F4" s="16">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15">
+        <v>41</v>
+      </c>
+      <c r="H4" s="16">
+        <v>61</v>
+      </c>
+      <c r="I4" s="16">
+        <v>69</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.40434999999999999</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15">
+        <v>38</v>
+      </c>
+      <c r="H5" s="16">
+        <v>66</v>
+      </c>
+      <c r="I5" s="16">
+        <v>68</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="14">
+        <v>30</v>
+      </c>
+      <c r="G6" s="15">
+        <v>32</v>
+      </c>
+      <c r="H6" s="16">
+        <v>50</v>
+      </c>
+      <c r="I6" s="16">
+        <v>46</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.53971999999999998</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14">
+        <v>40</v>
+      </c>
+      <c r="G7" s="15">
+        <v>28</v>
+      </c>
+      <c r="H7" s="16">
+        <v>42</v>
+      </c>
+      <c r="I7" s="16">
+        <v>34</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.51932999999999996</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="40">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="15">
+        <v>30</v>
+      </c>
+      <c r="H8" s="40">
+        <v>39</v>
+      </c>
+      <c r="I8" s="40">
+        <v>35</v>
+      </c>
+      <c r="J8" s="40">
+        <v>0.43192999999999998</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15">
+        <v>21</v>
+      </c>
+      <c r="H9" s="16">
+        <v>28</v>
+      </c>
+      <c r="I9" s="16">
+        <v>34</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.21797</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15">
+        <v>23</v>
+      </c>
+      <c r="H10" s="16">
+        <v>36</v>
+      </c>
+      <c r="I10" s="16">
+        <v>34</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.38973000000000002</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="40">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="40">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>30</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>31</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>32</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>33</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>35</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Workbook_Model_Testing.xlsx
+++ b/Workbook_Model_Testing.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-27320" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v3" sheetId="1" r:id="rId1"/>
     <sheet name="v4" sheetId="2" r:id="rId2"/>
+    <sheet name="v7" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>t_0_100</t>
   </si>
@@ -83,12 +84,30 @@
   <si>
     <t>g_app</t>
   </si>
+  <si>
+    <t>K_1</t>
+  </si>
+  <si>
+    <t>K_2</t>
+  </si>
+  <si>
+    <t>K_3</t>
+  </si>
+  <si>
+    <t>K_4</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,13 +193,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -274,7 +305,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -288,8 +319,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -358,12 +393,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,6 +421,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,29 +448,108 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -721,10 +844,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1433,140 +1556,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="39"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="26"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="16"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="28" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="29">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="28">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="28">
         <v>100</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="28">
         <v>20</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <v>39</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <v>62</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="28">
         <v>69</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="30">
         <v>0.47877999999999998</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="25" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="16">
         <v>4</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="31">
         <v>26.9</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="32">
         <v>20.100000000000001</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="32">
         <v>13.7</v>
       </c>
-      <c r="S3" s="35">
+      <c r="S3" s="33">
         <v>0.23</v>
       </c>
     </row>
@@ -1601,19 +1724,19 @@
       <c r="J4" s="16">
         <v>0.40434999999999999</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27" t="s">
+      <c r="K4" s="24"/>
+      <c r="L4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="16">
         <v>0.5</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
@@ -1636,15 +1759,15 @@
         <v>68</v>
       </c>
       <c r="J5" s="16"/>
-      <c r="K5" s="26"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
@@ -1671,15 +1794,15 @@
       <c r="J6" s="16">
         <v>0.53971999999999998</v>
       </c>
-      <c r="K6" s="26"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -1706,48 +1829,48 @@
       <c r="J7" s="16">
         <v>0.51932999999999996</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="40">
+      <c r="A8" s="35">
         <v>5</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="15">
         <v>30</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="35">
         <v>39</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="35">
         <v>35</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="35">
         <v>0.43192999999999998</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
@@ -1772,15 +1895,15 @@
       <c r="J9" s="16">
         <v>0.21797</v>
       </c>
-      <c r="K9" s="26"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -1805,15 +1928,15 @@
       <c r="J10" s="16">
         <v>0.38973000000000002</v>
       </c>
-      <c r="K10" s="26"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -1828,38 +1951,38 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="26"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="40">
+      <c r="A12" s="35">
         <v>9</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -1874,15 +1997,15 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="26"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -1897,15 +2020,15 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="26"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
@@ -1920,38 +2043,38 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="26"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="40">
+      <c r="A16" s="35">
         <v>13</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="26"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
@@ -1966,15 +2089,15 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="26"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
@@ -1989,15 +2112,15 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="26"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
@@ -2012,15 +2135,15 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="26"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
@@ -2035,15 +2158,15 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="26"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
@@ -2058,15 +2181,15 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="26"/>
+      <c r="K21" s="24"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
@@ -2081,15 +2204,15 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="26"/>
+      <c r="K22" s="24"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
@@ -2104,15 +2227,15 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="26"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
@@ -2127,15 +2250,15 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="26"/>
+      <c r="K24" s="24"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
@@ -2150,15 +2273,15 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="26"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
@@ -2173,15 +2296,15 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="26"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
@@ -2196,15 +2319,15 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="26"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
@@ -2219,15 +2342,15 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="26"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
@@ -2242,15 +2365,15 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="26"/>
+      <c r="K29" s="24"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
@@ -2265,15 +2388,15 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="26"/>
+      <c r="K30" s="24"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
@@ -2288,15 +2411,15 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="26"/>
+      <c r="K31" s="24"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
@@ -2311,15 +2434,15 @@
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="26"/>
+      <c r="K32" s="24"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
@@ -2334,15 +2457,15 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="26"/>
+      <c r="K33" s="24"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
@@ -2357,15 +2480,15 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="26"/>
+      <c r="K34" s="24"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
@@ -2380,15 +2503,15 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="26"/>
+      <c r="K35" s="24"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
@@ -2403,15 +2526,15 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="26"/>
+      <c r="K36" s="24"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
@@ -2426,15 +2549,15 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="26"/>
+      <c r="K37" s="24"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
@@ -2449,15 +2572,15 @@
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="26"/>
+      <c r="K38" s="24"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
@@ -2472,15 +2595,15 @@
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="26"/>
+      <c r="K39" s="24"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2489,4 +2612,1519 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="46"/>
+      <c r="P2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="28">
+        <v>150</v>
+      </c>
+      <c r="D3" s="28">
+        <v>80</v>
+      </c>
+      <c r="E3" s="28">
+        <v>300</v>
+      </c>
+      <c r="F3" s="28">
+        <v>150</v>
+      </c>
+      <c r="G3" s="28">
+        <v>10</v>
+      </c>
+      <c r="H3" s="28">
+        <v>25</v>
+      </c>
+      <c r="I3" s="28">
+        <v>25</v>
+      </c>
+      <c r="J3" s="43">
+        <v>44</v>
+      </c>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44">
+        <v>51</v>
+      </c>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44">
+        <v>55</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="48">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="31">
+        <v>26.9</v>
+      </c>
+      <c r="U3" s="32">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="V3" s="32">
+        <v>13.7</v>
+      </c>
+      <c r="W3" s="33">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="3">
+        <v>26</v>
+      </c>
+      <c r="K4" s="49">
+        <f>J4/$J$3*100</f>
+        <v>59.090909090909093</v>
+      </c>
+      <c r="L4" s="2">
+        <v>38</v>
+      </c>
+      <c r="M4" s="50">
+        <f>L4/$L$3*100</f>
+        <v>74.509803921568633</v>
+      </c>
+      <c r="N4" s="2">
+        <v>55</v>
+      </c>
+      <c r="O4" s="50">
+        <f>N4/$N$3*100</f>
+        <v>100</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="Q4" s="51">
+        <f>P4/$P$3*100</f>
+        <v>13.593092760681868</v>
+      </c>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="3">
+        <v>52</v>
+      </c>
+      <c r="K5" s="49">
+        <f t="shared" ref="K5:K19" si="0">J5/$J$3*100</f>
+        <v>118.18181818181819</v>
+      </c>
+      <c r="L5" s="2">
+        <v>63</v>
+      </c>
+      <c r="M5" s="50">
+        <f t="shared" ref="M5:M19" si="1">L5/$L$3*100</f>
+        <v>123.52941176470588</v>
+      </c>
+      <c r="N5" s="2">
+        <v>57</v>
+      </c>
+      <c r="O5" s="50">
+        <f t="shared" ref="O5:O19" si="2">N5/$N$3*100</f>
+        <v>103.63636363636364</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="Q5" s="51">
+        <f t="shared" ref="Q5:Q19" si="3">P5/$P$3*100</f>
+        <v>157.13969448749171</v>
+      </c>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14">
+        <v>100</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="3">
+        <v>40</v>
+      </c>
+      <c r="K6" s="49">
+        <f t="shared" si="0"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="L6" s="2">
+        <v>45</v>
+      </c>
+      <c r="M6" s="50">
+        <f t="shared" si="1"/>
+        <v>88.235294117647058</v>
+      </c>
+      <c r="N6" s="2">
+        <v>55</v>
+      </c>
+      <c r="O6" s="50">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="Q6" s="50">
+        <f t="shared" si="3"/>
+        <v>57.560327651095868</v>
+      </c>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14">
+        <v>200</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="3">
+        <v>45</v>
+      </c>
+      <c r="K7" s="49">
+        <f t="shared" si="0"/>
+        <v>102.27272727272727</v>
+      </c>
+      <c r="L7" s="2">
+        <v>56</v>
+      </c>
+      <c r="M7" s="50">
+        <f t="shared" si="1"/>
+        <v>109.80392156862746</v>
+      </c>
+      <c r="N7" s="2">
+        <v>56</v>
+      </c>
+      <c r="O7" s="50">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="Q7" s="50">
+        <f t="shared" si="3"/>
+        <v>129.17865840159399</v>
+      </c>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
+        <v>40</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="3">
+        <v>60</v>
+      </c>
+      <c r="K8" s="49">
+        <f t="shared" si="0"/>
+        <v>136.36363636363635</v>
+      </c>
+      <c r="L8" s="52">
+        <v>72</v>
+      </c>
+      <c r="M8" s="50">
+        <f t="shared" si="1"/>
+        <v>141.1764705882353</v>
+      </c>
+      <c r="N8" s="52">
+        <v>58</v>
+      </c>
+      <c r="O8" s="50">
+        <f t="shared" si="2"/>
+        <v>105.45454545454544</v>
+      </c>
+      <c r="P8" s="52">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="Q8" s="50">
+        <f t="shared" si="3"/>
+        <v>155.67854770865623</v>
+      </c>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>120</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="3">
+        <v>35</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" si="0"/>
+        <v>79.545454545454547</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44</v>
+      </c>
+      <c r="M9" s="50">
+        <f t="shared" si="1"/>
+        <v>86.274509803921575</v>
+      </c>
+      <c r="N9" s="2">
+        <v>55</v>
+      </c>
+      <c r="O9" s="50">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="Q9" s="50">
+        <f t="shared" si="3"/>
+        <v>65.043170245738324</v>
+      </c>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
+        <v>200</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="3">
+        <v>41</v>
+      </c>
+      <c r="K10" s="49">
+        <f t="shared" si="0"/>
+        <v>93.181818181818173</v>
+      </c>
+      <c r="L10" s="2">
+        <v>47</v>
+      </c>
+      <c r="M10" s="50">
+        <f t="shared" si="1"/>
+        <v>92.156862745098039</v>
+      </c>
+      <c r="N10" s="2">
+        <v>55</v>
+      </c>
+      <c r="O10" s="50">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.3175</v>
+      </c>
+      <c r="Q10" s="50">
+        <f t="shared" si="3"/>
+        <v>70.290015497011296</v>
+      </c>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
+        <v>400</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="3">
+        <v>45</v>
+      </c>
+      <c r="K11" s="49">
+        <f t="shared" si="0"/>
+        <v>102.27272727272727</v>
+      </c>
+      <c r="L11" s="2">
+        <v>55</v>
+      </c>
+      <c r="M11" s="50">
+        <f t="shared" si="1"/>
+        <v>107.84313725490196</v>
+      </c>
+      <c r="N11" s="2">
+        <v>56</v>
+      </c>
+      <c r="O11" s="50">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.54990000000000006</v>
+      </c>
+      <c r="Q11" s="50">
+        <f t="shared" si="3"/>
+        <v>121.74009298206776</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36">
+        <v>100</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="3">
+        <v>51</v>
+      </c>
+      <c r="K12" s="49">
+        <f t="shared" si="0"/>
+        <v>115.90909090909092</v>
+      </c>
+      <c r="L12" s="52">
+        <v>63</v>
+      </c>
+      <c r="M12" s="50">
+        <f t="shared" si="1"/>
+        <v>123.52941176470588</v>
+      </c>
+      <c r="N12" s="52">
+        <v>58</v>
+      </c>
+      <c r="O12" s="50">
+        <f t="shared" si="2"/>
+        <v>105.45454545454544</v>
+      </c>
+      <c r="P12" s="52">
+        <v>0.54559999999999997</v>
+      </c>
+      <c r="Q12" s="50">
+        <f t="shared" si="3"/>
+        <v>120.78813371706885</v>
+      </c>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
+        <v>200</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="3">
+        <v>39</v>
+      </c>
+      <c r="K13" s="49">
+        <f t="shared" si="0"/>
+        <v>88.63636363636364</v>
+      </c>
+      <c r="L13" s="2">
+        <v>46</v>
+      </c>
+      <c r="M13" s="50">
+        <f t="shared" si="1"/>
+        <v>90.196078431372555</v>
+      </c>
+      <c r="N13" s="2">
+        <v>55</v>
+      </c>
+      <c r="O13" s="50">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="Q13" s="50">
+        <f t="shared" si="3"/>
+        <v>85.875581137923405</v>
+      </c>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <v>8</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="3">
+        <v>41</v>
+      </c>
+      <c r="K14" s="49">
+        <f t="shared" si="0"/>
+        <v>93.181818181818173</v>
+      </c>
+      <c r="L14" s="2">
+        <v>48</v>
+      </c>
+      <c r="M14" s="50">
+        <f t="shared" si="1"/>
+        <v>94.117647058823522</v>
+      </c>
+      <c r="N14" s="2">
+        <v>55</v>
+      </c>
+      <c r="O14" s="50">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="Q14" s="50">
+        <f t="shared" si="3"/>
+        <v>93.092760681868498</v>
+      </c>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="3">
+        <v>46</v>
+      </c>
+      <c r="K15" s="49">
+        <f t="shared" si="0"/>
+        <v>104.54545454545455</v>
+      </c>
+      <c r="L15" s="2">
+        <v>55</v>
+      </c>
+      <c r="M15" s="50">
+        <f t="shared" si="1"/>
+        <v>107.84313725490196</v>
+      </c>
+      <c r="N15" s="2">
+        <v>56</v>
+      </c>
+      <c r="O15" s="50">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.48049999999999998</v>
+      </c>
+      <c r="Q15" s="50">
+        <f t="shared" si="3"/>
+        <v>106.37591321673676</v>
+      </c>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36">
+        <v>10</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="3">
+        <v>41</v>
+      </c>
+      <c r="K16" s="49">
+        <f t="shared" si="0"/>
+        <v>93.181818181818173</v>
+      </c>
+      <c r="L16" s="52">
+        <v>47</v>
+      </c>
+      <c r="M16" s="50">
+        <f t="shared" si="1"/>
+        <v>92.156862745098039</v>
+      </c>
+      <c r="N16" s="52">
+        <v>55</v>
+      </c>
+      <c r="O16" s="50">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P16" s="55">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="Q16" s="50">
+        <f t="shared" si="3"/>
+        <v>69.559442107593526</v>
+      </c>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="14">
+        <v>50</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="3">
+        <v>45</v>
+      </c>
+      <c r="K17" s="49">
+        <f t="shared" si="0"/>
+        <v>102.27272727272727</v>
+      </c>
+      <c r="L17" s="2">
+        <v>58</v>
+      </c>
+      <c r="M17" s="50">
+        <f t="shared" si="1"/>
+        <v>113.72549019607843</v>
+      </c>
+      <c r="N17" s="2">
+        <v>56</v>
+      </c>
+      <c r="O17" s="50">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P17" s="53">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="Q17" s="50">
+        <f t="shared" si="3"/>
+        <v>139.16316139030332</v>
+      </c>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
+        <v>10</v>
+      </c>
+      <c r="J18" s="54">
+        <v>54</v>
+      </c>
+      <c r="K18" s="49">
+        <f t="shared" si="0"/>
+        <v>122.72727272727273</v>
+      </c>
+      <c r="L18" s="53">
+        <v>89</v>
+      </c>
+      <c r="M18" s="50">
+        <f t="shared" si="1"/>
+        <v>174.50980392156862</v>
+      </c>
+      <c r="N18" s="53">
+        <v>138</v>
+      </c>
+      <c r="O18" s="51">
+        <f t="shared" si="2"/>
+        <v>250.90909090909093</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.39479999999999998</v>
+      </c>
+      <c r="Q18" s="50">
+        <f t="shared" si="3"/>
+        <v>87.403143679433242</v>
+      </c>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14">
+        <v>50</v>
+      </c>
+      <c r="J19" s="54">
+        <v>37</v>
+      </c>
+      <c r="K19" s="49">
+        <f t="shared" si="0"/>
+        <v>84.090909090909093</v>
+      </c>
+      <c r="L19" s="53">
+        <v>39</v>
+      </c>
+      <c r="M19" s="50">
+        <f t="shared" si="1"/>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="N19" s="53">
+        <v>30</v>
+      </c>
+      <c r="O19" s="51">
+        <f t="shared" si="2"/>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.5181</v>
+      </c>
+      <c r="Q19" s="50">
+        <f t="shared" si="3"/>
+        <v>114.70002213858757</v>
+      </c>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>30</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>31</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>32</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>33</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>35</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K4:K19 M4:M19 O4:O19 Q4:Q19">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Workbook_Model_Testing.xlsx
+++ b/Workbook_Model_Testing.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-27320" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v3" sheetId="1" r:id="rId1"/>
     <sheet name="v4" sheetId="2" r:id="rId2"/>
     <sheet name="v7" sheetId="3" r:id="rId3"/>
+    <sheet name="v8" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
   <si>
     <t>t_0_100</t>
   </si>
@@ -99,13 +100,20 @@
   <si>
     <t>alpha</t>
   </si>
+  <si>
+    <t>Twitch-tetanus ratio</t>
+  </si>
+  <si>
+    <t>FR_half</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -324,7 +332,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -430,6 +438,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,6 +495,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,33 +508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +530,17 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -531,8 +564,14 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -546,8 +585,140 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -844,10 +1015,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1564,17 +1735,17 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="42"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -2618,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2629,20 +2800,20 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="41"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="15"/>
       <c r="K1" s="35"/>
       <c r="L1" s="16"/>
@@ -2684,22 +2855,22 @@
       <c r="I2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="M2" s="60"/>
+      <c r="N2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="40" t="s">
+      <c r="O2" s="60"/>
+      <c r="P2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="40"/>
+      <c r="Q2" s="53"/>
       <c r="R2" s="34"/>
       <c r="S2" s="24"/>
       <c r="T2" s="26" t="s">
@@ -2743,23 +2914,23 @@
       <c r="I3" s="28">
         <v>25</v>
       </c>
-      <c r="J3" s="43">
-        <v>44</v>
-      </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44">
-        <v>51</v>
-      </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44">
+      <c r="J3" s="57">
+        <v>42</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58">
+        <v>46</v>
+      </c>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58">
         <v>55</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="48">
-        <v>0.45169999999999999</v>
-      </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="47"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="56">
+        <v>0.28554000000000002</v>
+      </c>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="39"/>
       <c r="S3" s="24" t="s">
         <v>12</v>
       </c>
@@ -2791,32 +2962,32 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="3">
-        <v>26</v>
-      </c>
-      <c r="K4" s="49">
+        <v>24</v>
+      </c>
+      <c r="K4" s="40">
         <f>J4/$J$3*100</f>
-        <v>59.090909090909093</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="L4" s="2">
-        <v>38</v>
-      </c>
-      <c r="M4" s="50">
+        <v>37</v>
+      </c>
+      <c r="M4" s="41">
         <f>L4/$L$3*100</f>
-        <v>74.509803921568633</v>
+        <v>80.434782608695656</v>
       </c>
       <c r="N4" s="2">
         <v>55</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="41">
         <f>N4/$N$3*100</f>
         <v>100</v>
       </c>
-      <c r="P4" s="2">
-        <v>6.1400000000000003E-2</v>
-      </c>
-      <c r="Q4" s="51">
+      <c r="P4" s="46">
+        <v>2.75E-2</v>
+      </c>
+      <c r="Q4" s="42">
         <f>P4/$P$3*100</f>
-        <v>13.593092760681868</v>
+        <v>9.6308748336485248</v>
       </c>
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
@@ -2840,32 +3011,32 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="3">
-        <v>52</v>
-      </c>
-      <c r="K5" s="49">
+        <v>54</v>
+      </c>
+      <c r="K5" s="40">
         <f t="shared" ref="K5:K19" si="0">J5/$J$3*100</f>
-        <v>118.18181818181819</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="L5" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="50">
+        <v>57</v>
+      </c>
+      <c r="M5" s="41">
         <f t="shared" ref="M5:M19" si="1">L5/$L$3*100</f>
-        <v>123.52941176470588</v>
+        <v>123.91304347826086</v>
       </c>
       <c r="N5" s="2">
-        <v>57</v>
-      </c>
-      <c r="O5" s="50">
+        <v>56</v>
+      </c>
+      <c r="O5" s="41">
         <f t="shared" ref="O5:O19" si="2">N5/$N$3*100</f>
-        <v>103.63636363636364</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.70979999999999999</v>
-      </c>
-      <c r="Q5" s="51">
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P5" s="46">
+        <v>0.5736</v>
+      </c>
+      <c r="Q5" s="42">
         <f t="shared" ref="Q5:Q19" si="3">P5/$P$3*100</f>
-        <v>157.13969448749171</v>
+        <v>200.8825383483925</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
@@ -2889,32 +3060,32 @@
       <c r="H6" s="16"/>
       <c r="I6" s="14"/>
       <c r="J6" s="3">
+        <v>37</v>
+      </c>
+      <c r="K6" s="40">
+        <f t="shared" si="0"/>
+        <v>88.095238095238088</v>
+      </c>
+      <c r="L6" s="2">
         <v>40</v>
       </c>
-      <c r="K6" s="49">
-        <f t="shared" si="0"/>
-        <v>90.909090909090907</v>
-      </c>
-      <c r="L6" s="2">
-        <v>45</v>
-      </c>
-      <c r="M6" s="50">
+      <c r="M6" s="41">
         <f t="shared" si="1"/>
-        <v>88.235294117647058</v>
+        <v>86.956521739130437</v>
       </c>
       <c r="N6" s="2">
         <v>55</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="41">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="P6" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="Q6" s="50">
+      <c r="P6" s="46">
+        <v>0.13447000000000001</v>
+      </c>
+      <c r="Q6" s="41">
         <f t="shared" si="3"/>
-        <v>57.560327651095868</v>
+        <v>47.093226868389714</v>
       </c>
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
@@ -2940,30 +3111,30 @@
       <c r="J7" s="3">
         <v>45</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="40">
         <f t="shared" si="0"/>
-        <v>102.27272727272727</v>
+        <v>107.14285714285714</v>
       </c>
       <c r="L7" s="2">
-        <v>56</v>
-      </c>
-      <c r="M7" s="50">
+        <v>50</v>
+      </c>
+      <c r="M7" s="41">
         <f t="shared" si="1"/>
-        <v>109.80392156862746</v>
+        <v>108.69565217391303</v>
       </c>
       <c r="N7" s="2">
-        <v>56</v>
-      </c>
-      <c r="O7" s="50">
+        <v>55</v>
+      </c>
+      <c r="O7" s="41">
         <f t="shared" si="2"/>
-        <v>101.81818181818181</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.58350000000000002</v>
-      </c>
-      <c r="Q7" s="50">
+        <v>100</v>
+      </c>
+      <c r="P7" s="46">
+        <v>0.42202000000000001</v>
+      </c>
+      <c r="Q7" s="41">
         <f t="shared" si="3"/>
-        <v>129.17865840159399</v>
+        <v>147.79715626532183</v>
       </c>
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
@@ -2987,32 +3158,32 @@
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="3">
-        <v>60</v>
-      </c>
-      <c r="K8" s="49">
+        <v>62</v>
+      </c>
+      <c r="K8" s="40">
         <f t="shared" si="0"/>
-        <v>136.36363636363635</v>
-      </c>
-      <c r="L8" s="52">
-        <v>72</v>
-      </c>
-      <c r="M8" s="50">
+        <v>147.61904761904762</v>
+      </c>
+      <c r="L8" s="43">
+        <v>65</v>
+      </c>
+      <c r="M8" s="41">
         <f t="shared" si="1"/>
-        <v>141.1764705882353</v>
-      </c>
-      <c r="N8" s="52">
-        <v>58</v>
-      </c>
-      <c r="O8" s="50">
+        <v>141.30434782608697</v>
+      </c>
+      <c r="N8" s="43">
+        <v>56</v>
+      </c>
+      <c r="O8" s="41">
         <f t="shared" si="2"/>
-        <v>105.45454545454544</v>
-      </c>
-      <c r="P8" s="52">
-        <v>0.70320000000000005</v>
-      </c>
-      <c r="Q8" s="50">
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P8" s="47">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="Q8" s="41">
         <f t="shared" si="3"/>
-        <v>155.67854770865623</v>
+        <v>197.80065840162499</v>
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
@@ -3036,32 +3207,32 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="3">
-        <v>35</v>
-      </c>
-      <c r="K9" s="49">
+        <v>32</v>
+      </c>
+      <c r="K9" s="40">
         <f t="shared" si="0"/>
-        <v>79.545454545454547</v>
+        <v>76.19047619047619</v>
       </c>
       <c r="L9" s="2">
-        <v>44</v>
-      </c>
-      <c r="M9" s="50">
+        <v>40</v>
+      </c>
+      <c r="M9" s="41">
         <f t="shared" si="1"/>
-        <v>86.274509803921575</v>
+        <v>86.956521739130437</v>
       </c>
       <c r="N9" s="2">
-        <v>55</v>
-      </c>
-      <c r="O9" s="50">
+        <v>54</v>
+      </c>
+      <c r="O9" s="41">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.29380000000000001</v>
-      </c>
-      <c r="Q9" s="50">
+        <v>98.181818181818187</v>
+      </c>
+      <c r="P9" s="46">
+        <v>0.16009000000000001</v>
+      </c>
+      <c r="Q9" s="41">
         <f t="shared" si="3"/>
-        <v>65.043170245738324</v>
+        <v>56.065700077046998</v>
       </c>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
@@ -3078,39 +3249,39 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="3">
-        <v>41</v>
-      </c>
-      <c r="K10" s="49">
+        <v>33</v>
+      </c>
+      <c r="K10" s="40">
         <f t="shared" si="0"/>
-        <v>93.181818181818173</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="L10" s="2">
-        <v>47</v>
-      </c>
-      <c r="M10" s="50">
+        <v>39</v>
+      </c>
+      <c r="M10" s="41">
         <f t="shared" si="1"/>
-        <v>92.156862745098039</v>
+        <v>84.782608695652172</v>
       </c>
       <c r="N10" s="2">
         <v>55</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="41">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="P10" s="2">
-        <v>0.3175</v>
-      </c>
-      <c r="Q10" s="50">
+      <c r="P10" s="46">
+        <v>7.4140999999999999E-2</v>
+      </c>
+      <c r="Q10" s="41">
         <f t="shared" si="3"/>
-        <v>70.290015497011296</v>
+        <v>25.965188765146735</v>
       </c>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
@@ -3127,39 +3298,39 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="3">
-        <v>45</v>
-      </c>
-      <c r="K11" s="49">
+        <v>47</v>
+      </c>
+      <c r="K11" s="40">
         <f t="shared" si="0"/>
-        <v>102.27272727272727</v>
+        <v>111.90476190476191</v>
       </c>
       <c r="L11" s="2">
-        <v>55</v>
-      </c>
-      <c r="M11" s="50">
+        <v>56</v>
+      </c>
+      <c r="M11" s="41">
         <f t="shared" si="1"/>
-        <v>107.84313725490196</v>
+        <v>121.73913043478262</v>
       </c>
       <c r="N11" s="2">
         <v>56</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="41">
         <f t="shared" si="2"/>
         <v>101.81818181818181</v>
       </c>
-      <c r="P11" s="2">
-        <v>0.54990000000000006</v>
-      </c>
-      <c r="Q11" s="50">
+      <c r="P11" s="46">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="Q11" s="41">
         <f t="shared" si="3"/>
-        <v>121.74009298206776</v>
+        <v>205.8555718988583</v>
       </c>
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
@@ -3183,32 +3354,32 @@
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="3">
-        <v>51</v>
-      </c>
-      <c r="K12" s="49">
+        <v>50</v>
+      </c>
+      <c r="K12" s="40">
         <f t="shared" si="0"/>
-        <v>115.90909090909092</v>
-      </c>
-      <c r="L12" s="52">
-        <v>63</v>
-      </c>
-      <c r="M12" s="50">
+        <v>119.04761904761905</v>
+      </c>
+      <c r="L12" s="43">
+        <v>58</v>
+      </c>
+      <c r="M12" s="41">
         <f t="shared" si="1"/>
-        <v>123.52941176470588</v>
-      </c>
-      <c r="N12" s="52">
-        <v>58</v>
-      </c>
-      <c r="O12" s="50">
+        <v>126.08695652173914</v>
+      </c>
+      <c r="N12" s="43">
+        <v>56</v>
+      </c>
+      <c r="O12" s="41">
         <f t="shared" si="2"/>
-        <v>105.45454545454544</v>
-      </c>
-      <c r="P12" s="52">
-        <v>0.54559999999999997</v>
-      </c>
-      <c r="Q12" s="50">
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P12" s="47">
+        <v>0.43601000000000001</v>
+      </c>
+      <c r="Q12" s="41">
         <f t="shared" si="3"/>
-        <v>120.78813371706885</v>
+        <v>152.69664495342158</v>
       </c>
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
@@ -3232,32 +3403,32 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="3">
-        <v>39</v>
-      </c>
-      <c r="K13" s="49">
+        <v>36</v>
+      </c>
+      <c r="K13" s="40">
         <f t="shared" si="0"/>
-        <v>88.63636363636364</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="L13" s="2">
-        <v>46</v>
-      </c>
-      <c r="M13" s="50">
+        <v>41</v>
+      </c>
+      <c r="M13" s="41">
         <f t="shared" si="1"/>
-        <v>90.196078431372555</v>
+        <v>89.130434782608688</v>
       </c>
       <c r="N13" s="2">
         <v>55</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="41">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="P13" s="2">
-        <v>0.38790000000000002</v>
-      </c>
-      <c r="Q13" s="50">
+      <c r="P13" s="46">
+        <v>0.18772</v>
+      </c>
+      <c r="Q13" s="41">
         <f t="shared" si="3"/>
-        <v>85.875581137923405</v>
+        <v>65.7421026826364</v>
       </c>
       <c r="R13" s="24"/>
       <c r="S13" s="24"/>
@@ -3281,32 +3452,32 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="3">
-        <v>41</v>
-      </c>
-      <c r="K14" s="49">
+        <v>39</v>
+      </c>
+      <c r="K14" s="40">
         <f t="shared" si="0"/>
-        <v>93.181818181818173</v>
+        <v>92.857142857142861</v>
       </c>
       <c r="L14" s="2">
-        <v>48</v>
-      </c>
-      <c r="M14" s="50">
+        <v>43</v>
+      </c>
+      <c r="M14" s="41">
         <f t="shared" si="1"/>
-        <v>94.117647058823522</v>
+        <v>93.478260869565219</v>
       </c>
       <c r="N14" s="2">
         <v>55</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="41">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="P14" s="2">
-        <v>0.42049999999999998</v>
-      </c>
-      <c r="Q14" s="50">
+      <c r="P14" s="46">
+        <v>0.24892</v>
+      </c>
+      <c r="Q14" s="41">
         <f t="shared" si="3"/>
-        <v>93.092760681868498</v>
+        <v>87.175176857883301</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
@@ -3330,32 +3501,32 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="3">
-        <v>46</v>
-      </c>
-      <c r="K15" s="49">
+        <v>45</v>
+      </c>
+      <c r="K15" s="40">
         <f t="shared" si="0"/>
-        <v>104.54545454545455</v>
+        <v>107.14285714285714</v>
       </c>
       <c r="L15" s="2">
-        <v>55</v>
-      </c>
-      <c r="M15" s="50">
+        <v>49</v>
+      </c>
+      <c r="M15" s="41">
         <f t="shared" si="1"/>
-        <v>107.84313725490196</v>
+        <v>106.5217391304348</v>
       </c>
       <c r="N15" s="2">
         <v>56</v>
       </c>
-      <c r="O15" s="50">
+      <c r="O15" s="41">
         <f t="shared" si="2"/>
         <v>101.81818181818181</v>
       </c>
-      <c r="P15" s="2">
-        <v>0.48049999999999998</v>
-      </c>
-      <c r="Q15" s="50">
+      <c r="P15" s="46">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="Q15" s="41">
         <f t="shared" si="3"/>
-        <v>106.37591321673676</v>
+        <v>112.59368214610912</v>
       </c>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
@@ -3379,32 +3550,32 @@
       </c>
       <c r="I16" s="35"/>
       <c r="J16" s="3">
-        <v>41</v>
-      </c>
-      <c r="K16" s="49">
+        <v>39</v>
+      </c>
+      <c r="K16" s="40">
         <f t="shared" si="0"/>
-        <v>93.181818181818173</v>
-      </c>
-      <c r="L16" s="52">
-        <v>47</v>
-      </c>
-      <c r="M16" s="50">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="L16" s="43">
+        <v>42</v>
+      </c>
+      <c r="M16" s="41">
         <f t="shared" si="1"/>
-        <v>92.156862745098039</v>
-      </c>
-      <c r="N16" s="52">
-        <v>55</v>
-      </c>
-      <c r="O16" s="50">
+        <v>91.304347826086953</v>
+      </c>
+      <c r="N16" s="43">
+        <v>54</v>
+      </c>
+      <c r="O16" s="41">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="P16" s="55">
-        <v>0.31419999999999998</v>
-      </c>
-      <c r="Q16" s="50">
+        <v>98.181818181818187</v>
+      </c>
+      <c r="P16" s="48">
+        <v>0.17213999999999999</v>
+      </c>
+      <c r="Q16" s="41">
         <f t="shared" si="3"/>
-        <v>69.559442107593526</v>
+        <v>60.285774322336614</v>
       </c>
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
@@ -3430,30 +3601,30 @@
       <c r="J17" s="3">
         <v>45</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="40">
         <f t="shared" si="0"/>
-        <v>102.27272727272727</v>
+        <v>107.14285714285714</v>
       </c>
       <c r="L17" s="2">
-        <v>58</v>
-      </c>
-      <c r="M17" s="50">
+        <v>52</v>
+      </c>
+      <c r="M17" s="41">
         <f t="shared" si="1"/>
-        <v>113.72549019607843</v>
+        <v>113.04347826086956</v>
       </c>
       <c r="N17" s="2">
         <v>56</v>
       </c>
-      <c r="O17" s="50">
+      <c r="O17" s="41">
         <f t="shared" si="2"/>
         <v>101.81818181818181</v>
       </c>
-      <c r="P17" s="53">
-        <v>0.62860000000000005</v>
-      </c>
-      <c r="Q17" s="50">
+      <c r="P17" s="49">
+        <v>0.47515000000000002</v>
+      </c>
+      <c r="Q17" s="41">
         <f t="shared" si="3"/>
-        <v>139.16316139030332</v>
+        <v>166.4040064439308</v>
       </c>
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
@@ -3476,33 +3647,33 @@
       <c r="I18" s="14">
         <v>10</v>
       </c>
-      <c r="J18" s="54">
-        <v>54</v>
-      </c>
-      <c r="K18" s="49">
+      <c r="J18" s="45">
+        <v>50</v>
+      </c>
+      <c r="K18" s="40">
         <f t="shared" si="0"/>
-        <v>122.72727272727273</v>
-      </c>
-      <c r="L18" s="53">
-        <v>89</v>
-      </c>
-      <c r="M18" s="50">
+        <v>119.04761904761905</v>
+      </c>
+      <c r="L18" s="44">
+        <v>84</v>
+      </c>
+      <c r="M18" s="41">
         <f t="shared" si="1"/>
-        <v>174.50980392156862</v>
-      </c>
-      <c r="N18" s="53">
+        <v>182.60869565217391</v>
+      </c>
+      <c r="N18" s="44">
         <v>138</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="42">
         <f t="shared" si="2"/>
         <v>250.90909090909093</v>
       </c>
-      <c r="P18" s="2">
-        <v>0.39479999999999998</v>
-      </c>
-      <c r="Q18" s="50">
+      <c r="P18" s="46">
+        <v>0.22982</v>
+      </c>
+      <c r="Q18" s="41">
         <f t="shared" si="3"/>
-        <v>87.403143679433242</v>
+        <v>80.486096518876508</v>
       </c>
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
@@ -3525,33 +3696,33 @@
       <c r="I19" s="14">
         <v>50</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="45">
         <v>37</v>
       </c>
-      <c r="K19" s="49">
+      <c r="K19" s="40">
         <f t="shared" si="0"/>
-        <v>84.090909090909093</v>
-      </c>
-      <c r="L19" s="53">
-        <v>39</v>
-      </c>
-      <c r="M19" s="50">
+        <v>88.095238095238088</v>
+      </c>
+      <c r="L19" s="44">
+        <v>34</v>
+      </c>
+      <c r="M19" s="41">
         <f t="shared" si="1"/>
-        <v>76.470588235294116</v>
-      </c>
-      <c r="N19" s="53">
-        <v>30</v>
-      </c>
-      <c r="O19" s="51">
+        <v>73.91304347826086</v>
+      </c>
+      <c r="N19" s="44">
+        <v>29</v>
+      </c>
+      <c r="O19" s="42">
         <f t="shared" si="2"/>
-        <v>54.54545454545454</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.5181</v>
-      </c>
-      <c r="Q19" s="50">
+        <v>52.72727272727272</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0.35580000000000001</v>
+      </c>
+      <c r="Q19" s="41">
         <f t="shared" si="3"/>
-        <v>114.70002213858757</v>
+        <v>124.6060096658962</v>
       </c>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
@@ -4102,6 +4273,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="J3:K3"/>
@@ -4110,18 +4284,1777 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K19 M4:M19 O4:O19 Q4:Q19">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="22" max="22" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="54"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="60"/>
+      <c r="P2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="53"/>
+      <c r="T2" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="60"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="28">
+        <v>150</v>
+      </c>
+      <c r="D3" s="28">
+        <v>80</v>
+      </c>
+      <c r="E3" s="28">
+        <v>300</v>
+      </c>
+      <c r="F3" s="28">
+        <v>150</v>
+      </c>
+      <c r="G3" s="28">
+        <v>10</v>
+      </c>
+      <c r="H3" s="28">
+        <v>25</v>
+      </c>
+      <c r="I3" s="28">
+        <v>25</v>
+      </c>
+      <c r="J3" s="57">
+        <v>42</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58">
+        <v>46</v>
+      </c>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58">
+        <v>55</v>
+      </c>
+      <c r="O3" s="58"/>
+      <c r="P3" s="56">
+        <v>0.28554000000000002</v>
+      </c>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56">
+        <v>12</v>
+      </c>
+      <c r="U3" s="56"/>
+      <c r="V3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="31">
+        <v>26.9</v>
+      </c>
+      <c r="X3" s="32">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Y3" s="32">
+        <v>13.7</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="3">
+        <v>24</v>
+      </c>
+      <c r="K4" s="40">
+        <f>J4/$J$3*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="L4" s="2">
+        <v>37</v>
+      </c>
+      <c r="M4" s="41">
+        <f>L4/$L$3*100</f>
+        <v>80.434782608695656</v>
+      </c>
+      <c r="N4" s="2">
+        <v>55</v>
+      </c>
+      <c r="O4" s="41">
+        <f>N4/$N$3*100</f>
+        <v>100</v>
+      </c>
+      <c r="P4" s="46">
+        <v>2.75E-2</v>
+      </c>
+      <c r="Q4" s="42">
+        <f>P4/$P$3*100</f>
+        <v>9.6308748336485248</v>
+      </c>
+      <c r="R4" s="24"/>
+      <c r="S4" s="42">
+        <f>R4/$R$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="24"/>
+      <c r="U4" s="42">
+        <f>T4/$T$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="3">
+        <v>54</v>
+      </c>
+      <c r="K5" s="40">
+        <f t="shared" ref="K5:K19" si="0">J5/$J$3*100</f>
+        <v>128.57142857142858</v>
+      </c>
+      <c r="L5" s="2">
+        <v>57</v>
+      </c>
+      <c r="M5" s="41">
+        <f t="shared" ref="M5:M19" si="1">L5/$L$3*100</f>
+        <v>123.91304347826086</v>
+      </c>
+      <c r="N5" s="2">
+        <v>56</v>
+      </c>
+      <c r="O5" s="41">
+        <f t="shared" ref="O5:O19" si="2">N5/$N$3*100</f>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P5" s="46">
+        <v>0.5736</v>
+      </c>
+      <c r="Q5" s="42">
+        <f t="shared" ref="Q5:U19" si="3">P5/$P$3*100</f>
+        <v>200.8825383483925</v>
+      </c>
+      <c r="R5" s="24"/>
+      <c r="S5" s="42">
+        <f t="shared" ref="S5:S19" si="4">R5/$R$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="24"/>
+      <c r="U5" s="42">
+        <f t="shared" ref="U5:U19" si="5">T5/$T$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14">
+        <v>100</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="3">
+        <v>37</v>
+      </c>
+      <c r="K6" s="40">
+        <f t="shared" si="0"/>
+        <v>88.095238095238088</v>
+      </c>
+      <c r="L6" s="2">
+        <v>40</v>
+      </c>
+      <c r="M6" s="41">
+        <f t="shared" si="1"/>
+        <v>86.956521739130437</v>
+      </c>
+      <c r="N6" s="2">
+        <v>55</v>
+      </c>
+      <c r="O6" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P6" s="46">
+        <v>0.13447000000000001</v>
+      </c>
+      <c r="Q6" s="41">
+        <f t="shared" si="3"/>
+        <v>47.093226868389714</v>
+      </c>
+      <c r="R6" s="24"/>
+      <c r="S6" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="24"/>
+      <c r="U6" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14">
+        <v>200</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="3">
+        <v>45</v>
+      </c>
+      <c r="K7" s="40">
+        <f t="shared" si="0"/>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="L7" s="2">
+        <v>50</v>
+      </c>
+      <c r="M7" s="41">
+        <f t="shared" si="1"/>
+        <v>108.69565217391303</v>
+      </c>
+      <c r="N7" s="2">
+        <v>55</v>
+      </c>
+      <c r="O7" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P7" s="46">
+        <v>0.42202000000000001</v>
+      </c>
+      <c r="Q7" s="41">
+        <f t="shared" si="3"/>
+        <v>147.79715626532183</v>
+      </c>
+      <c r="R7" s="24"/>
+      <c r="S7" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="24"/>
+      <c r="U7" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
+        <v>40</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="3">
+        <v>62</v>
+      </c>
+      <c r="K8" s="40">
+        <f t="shared" si="0"/>
+        <v>147.61904761904762</v>
+      </c>
+      <c r="L8" s="43">
+        <v>65</v>
+      </c>
+      <c r="M8" s="41">
+        <f t="shared" si="1"/>
+        <v>141.30434782608697</v>
+      </c>
+      <c r="N8" s="43">
+        <v>56</v>
+      </c>
+      <c r="O8" s="41">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P8" s="47">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="Q8" s="41">
+        <f t="shared" si="3"/>
+        <v>197.80065840162499</v>
+      </c>
+      <c r="R8" s="24"/>
+      <c r="S8" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="24"/>
+      <c r="U8" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>120</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="3">
+        <v>32</v>
+      </c>
+      <c r="K9" s="40">
+        <f t="shared" si="0"/>
+        <v>76.19047619047619</v>
+      </c>
+      <c r="L9" s="2">
+        <v>40</v>
+      </c>
+      <c r="M9" s="41">
+        <f t="shared" si="1"/>
+        <v>86.956521739130437</v>
+      </c>
+      <c r="N9" s="2">
+        <v>54</v>
+      </c>
+      <c r="O9" s="41">
+        <f t="shared" si="2"/>
+        <v>98.181818181818187</v>
+      </c>
+      <c r="P9" s="46">
+        <v>0.16009000000000001</v>
+      </c>
+      <c r="Q9" s="41">
+        <f t="shared" si="3"/>
+        <v>56.065700077046998</v>
+      </c>
+      <c r="R9" s="24"/>
+      <c r="S9" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="24"/>
+      <c r="U9" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
+        <v>150</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="3">
+        <v>33</v>
+      </c>
+      <c r="K10" s="40">
+        <f t="shared" si="0"/>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="L10" s="2">
+        <v>39</v>
+      </c>
+      <c r="M10" s="41">
+        <f t="shared" si="1"/>
+        <v>84.782608695652172</v>
+      </c>
+      <c r="N10" s="2">
+        <v>55</v>
+      </c>
+      <c r="O10" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P10" s="46">
+        <v>7.4140999999999999E-2</v>
+      </c>
+      <c r="Q10" s="41">
+        <f t="shared" si="3"/>
+        <v>25.965188765146735</v>
+      </c>
+      <c r="R10" s="24"/>
+      <c r="S10" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="24"/>
+      <c r="U10" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
+        <v>600</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="3">
+        <v>47</v>
+      </c>
+      <c r="K11" s="40">
+        <f t="shared" si="0"/>
+        <v>111.90476190476191</v>
+      </c>
+      <c r="L11" s="2">
+        <v>56</v>
+      </c>
+      <c r="M11" s="41">
+        <f t="shared" si="1"/>
+        <v>121.73913043478262</v>
+      </c>
+      <c r="N11" s="2">
+        <v>56</v>
+      </c>
+      <c r="O11" s="41">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P11" s="46">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="Q11" s="41">
+        <f t="shared" si="3"/>
+        <v>205.8555718988583</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="24"/>
+      <c r="U11" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36">
+        <v>100</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="3">
+        <v>50</v>
+      </c>
+      <c r="K12" s="40">
+        <f t="shared" si="0"/>
+        <v>119.04761904761905</v>
+      </c>
+      <c r="L12" s="43">
+        <v>58</v>
+      </c>
+      <c r="M12" s="41">
+        <f t="shared" si="1"/>
+        <v>126.08695652173914</v>
+      </c>
+      <c r="N12" s="43">
+        <v>56</v>
+      </c>
+      <c r="O12" s="41">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P12" s="47">
+        <v>0.43601000000000001</v>
+      </c>
+      <c r="Q12" s="41">
+        <f t="shared" si="3"/>
+        <v>152.69664495342158</v>
+      </c>
+      <c r="R12" s="24"/>
+      <c r="S12" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="24"/>
+      <c r="U12" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
+        <v>200</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="3">
+        <v>36</v>
+      </c>
+      <c r="K13" s="40">
+        <f t="shared" si="0"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="L13" s="2">
+        <v>41</v>
+      </c>
+      <c r="M13" s="41">
+        <f t="shared" si="1"/>
+        <v>89.130434782608688</v>
+      </c>
+      <c r="N13" s="2">
+        <v>55</v>
+      </c>
+      <c r="O13" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P13" s="46">
+        <v>0.18772</v>
+      </c>
+      <c r="Q13" s="41">
+        <f t="shared" si="3"/>
+        <v>65.7421026826364</v>
+      </c>
+      <c r="R13" s="24"/>
+      <c r="S13" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <v>8</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="3">
+        <v>39</v>
+      </c>
+      <c r="K14" s="40">
+        <f t="shared" si="0"/>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="1"/>
+        <v>93.478260869565219</v>
+      </c>
+      <c r="N14" s="2">
+        <v>55</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="P14" s="46">
+        <v>0.24892</v>
+      </c>
+      <c r="Q14" s="41">
+        <f t="shared" si="3"/>
+        <v>87.175176857883301</v>
+      </c>
+      <c r="R14" s="24"/>
+      <c r="S14" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="24"/>
+      <c r="U14" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="3">
+        <v>45</v>
+      </c>
+      <c r="K15" s="40">
+        <f t="shared" si="0"/>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="L15" s="2">
+        <v>49</v>
+      </c>
+      <c r="M15" s="41">
+        <f t="shared" si="1"/>
+        <v>106.5217391304348</v>
+      </c>
+      <c r="N15" s="2">
+        <v>56</v>
+      </c>
+      <c r="O15" s="41">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P15" s="46">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="Q15" s="41">
+        <f t="shared" si="3"/>
+        <v>112.59368214610912</v>
+      </c>
+      <c r="R15" s="24"/>
+      <c r="S15" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="24"/>
+      <c r="U15" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36">
+        <v>10</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="3">
+        <v>39</v>
+      </c>
+      <c r="K16" s="40">
+        <f t="shared" si="0"/>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="L16" s="43">
+        <v>42</v>
+      </c>
+      <c r="M16" s="41">
+        <f t="shared" si="1"/>
+        <v>91.304347826086953</v>
+      </c>
+      <c r="N16" s="43">
+        <v>54</v>
+      </c>
+      <c r="O16" s="41">
+        <f t="shared" si="2"/>
+        <v>98.181818181818187</v>
+      </c>
+      <c r="P16" s="48">
+        <v>0.17213999999999999</v>
+      </c>
+      <c r="Q16" s="41">
+        <f t="shared" si="3"/>
+        <v>60.285774322336614</v>
+      </c>
+      <c r="R16" s="24"/>
+      <c r="S16" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="24"/>
+      <c r="U16" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="14">
+        <v>50</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="3">
+        <v>45</v>
+      </c>
+      <c r="K17" s="40">
+        <f t="shared" si="0"/>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="L17" s="2">
+        <v>52</v>
+      </c>
+      <c r="M17" s="41">
+        <f t="shared" si="1"/>
+        <v>113.04347826086956</v>
+      </c>
+      <c r="N17" s="2">
+        <v>56</v>
+      </c>
+      <c r="O17" s="41">
+        <f t="shared" si="2"/>
+        <v>101.81818181818181</v>
+      </c>
+      <c r="P17" s="49">
+        <v>0.47515000000000002</v>
+      </c>
+      <c r="Q17" s="41">
+        <f t="shared" si="3"/>
+        <v>166.4040064439308</v>
+      </c>
+      <c r="R17" s="24"/>
+      <c r="S17" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="24"/>
+      <c r="U17" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
+        <v>10</v>
+      </c>
+      <c r="J18" s="45">
+        <v>50</v>
+      </c>
+      <c r="K18" s="40">
+        <f t="shared" si="0"/>
+        <v>119.04761904761905</v>
+      </c>
+      <c r="L18" s="44">
+        <v>84</v>
+      </c>
+      <c r="M18" s="41">
+        <f t="shared" si="1"/>
+        <v>182.60869565217391</v>
+      </c>
+      <c r="N18" s="44">
+        <v>138</v>
+      </c>
+      <c r="O18" s="42">
+        <f t="shared" si="2"/>
+        <v>250.90909090909093</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0.22982</v>
+      </c>
+      <c r="Q18" s="41">
+        <f t="shared" si="3"/>
+        <v>80.486096518876508</v>
+      </c>
+      <c r="R18" s="24"/>
+      <c r="S18" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="24"/>
+      <c r="U18" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14">
+        <v>50</v>
+      </c>
+      <c r="J19" s="45">
+        <v>37</v>
+      </c>
+      <c r="K19" s="40">
+        <f t="shared" si="0"/>
+        <v>88.095238095238088</v>
+      </c>
+      <c r="L19" s="44">
+        <v>34</v>
+      </c>
+      <c r="M19" s="41">
+        <f t="shared" si="1"/>
+        <v>73.91304347826086</v>
+      </c>
+      <c r="N19" s="44">
+        <v>29</v>
+      </c>
+      <c r="O19" s="42">
+        <f t="shared" si="2"/>
+        <v>52.72727272727272</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0.35580000000000001</v>
+      </c>
+      <c r="Q19" s="41">
+        <f t="shared" si="3"/>
+        <v>124.6060096658962</v>
+      </c>
+      <c r="R19" s="24"/>
+      <c r="S19" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="24"/>
+      <c r="U19" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>30</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>31</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>32</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>33</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>35</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>36</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K4:K19 M4:M19 O4:O19 Q4:Q19">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4:S19">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U19">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Workbook_Model_Testing.xlsx
+++ b/Workbook_Model_Testing.xlsx
@@ -4304,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Workbook_Model_Testing.xlsx
+++ b/Workbook_Model_Testing.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="v3" sheetId="1" r:id="rId1"/>
     <sheet name="v4" sheetId="2" r:id="rId2"/>
     <sheet name="v7" sheetId="3" r:id="rId3"/>
     <sheet name="v8" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
   <si>
     <t>t_0_100</t>
   </si>
@@ -106,6 +107,18 @@
   <si>
     <t>FR_half</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>f_0.5</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +128,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,8 +220,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +353,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -331,8 +371,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -477,6 +521,66 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,7 +615,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -520,6 +624,8 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -528,9 +634,321 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="125">
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -545,6 +963,378 @@
       <font>
         <strike val="0"/>
         <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -638,18 +1428,307 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -996,7 +2075,7 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,10 +2094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1728,24 +2807,24 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="55"/>
+      <c r="F1" s="75"/>
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -2790,7 +3869,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="A1:XFD1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2800,20 +3879,20 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="54"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="15"/>
       <c r="K1" s="35"/>
       <c r="L1" s="16"/>
@@ -2855,22 +3934,22 @@
       <c r="I2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60" t="s">
+      <c r="J2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60" t="s">
+      <c r="M2" s="80"/>
+      <c r="N2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="53" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="53"/>
+      <c r="Q2" s="73"/>
       <c r="R2" s="34"/>
       <c r="S2" s="24"/>
       <c r="T2" s="26" t="s">
@@ -2914,22 +3993,22 @@
       <c r="I3" s="28">
         <v>25</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="77">
         <v>42</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58">
+      <c r="K3" s="78"/>
+      <c r="L3" s="78">
         <v>46</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58">
+      <c r="M3" s="78"/>
+      <c r="N3" s="78">
         <v>55</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="56">
+      <c r="O3" s="78"/>
+      <c r="P3" s="76">
         <v>0.28554000000000002</v>
       </c>
-      <c r="Q3" s="56"/>
+      <c r="Q3" s="76"/>
       <c r="R3" s="39"/>
       <c r="S3" s="24" t="s">
         <v>12</v>
@@ -4286,13 +5365,13 @@
     <mergeCell ref="N3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K19 M4:M19 O4:O19 Q4:Q19">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4302,10 +5381,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="A1:AA66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4313,22 +5392,20 @@
     <col min="22" max="22" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="54"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="15"/>
       <c r="K1" s="35"/>
       <c r="L1" s="16"/>
@@ -4347,7 +5424,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="37" t="s">
         <v>5</v>
@@ -4358,11 +5435,11 @@
       <c r="D2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>21</v>
+      <c r="E2" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>22</v>
@@ -4373,30 +5450,30 @@
       <c r="I2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60" t="s">
+      <c r="J2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60" t="s">
+      <c r="M2" s="80"/>
+      <c r="N2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="53" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53" t="s">
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="60" t="s">
+      <c r="S2" s="73"/>
+      <c r="T2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="60"/>
+      <c r="U2" s="80"/>
       <c r="V2" s="24"/>
       <c r="W2" s="37" t="s">
         <v>0</v>
@@ -4407,11 +5484,14 @@
       <c r="Y2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="56" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
@@ -4419,19 +5499,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="28">
+        <v>200</v>
+      </c>
+      <c r="D3" s="28">
         <v>150</v>
       </c>
-      <c r="D3" s="28">
-        <v>80</v>
-      </c>
       <c r="E3" s="28">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="F3" s="28">
-        <v>150</v>
+        <v>0.4</v>
       </c>
       <c r="G3" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" s="28">
         <v>25</v>
@@ -4439,30 +5519,30 @@
       <c r="I3" s="28">
         <v>25</v>
       </c>
-      <c r="J3" s="57">
-        <v>42</v>
-      </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58">
-        <v>46</v>
-      </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58">
+      <c r="J3" s="77">
+        <v>29</v>
+      </c>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78">
+        <v>41</v>
+      </c>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78">
         <v>55</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="56">
-        <v>0.28554000000000002</v>
-      </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56">
-        <v>12</v>
-      </c>
-      <c r="U3" s="56"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="76">
+        <v>0.44667000000000001</v>
+      </c>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76">
+        <v>11.9</v>
+      </c>
+      <c r="U3" s="76"/>
       <c r="V3" s="24" t="s">
         <v>12</v>
       </c>
@@ -4478,34 +5558,37 @@
       <c r="Z3" s="33">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="57">
         <v>1E-3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="3">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K4" s="40">
         <f>J4/$J$3*100</f>
-        <v>57.142857142857139</v>
+        <v>37.931034482758619</v>
       </c>
       <c r="L4" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M4" s="41">
         <f>L4/$L$3*100</f>
-        <v>80.434782608695656</v>
+        <v>80.487804878048792</v>
       </c>
       <c r="N4" s="2">
         <v>55</v>
@@ -4515,21 +5598,25 @@
         <v>100</v>
       </c>
       <c r="P4" s="46">
-        <v>2.75E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="Q4" s="42">
         <f>P4/$P$3*100</f>
-        <v>9.6308748336485248</v>
-      </c>
-      <c r="R4" s="24"/>
+        <v>16.567040544473546</v>
+      </c>
+      <c r="R4" s="24">
+        <v>7.8100000000000003E-2</v>
+      </c>
       <c r="S4" s="42">
         <f>R4/$R$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="24"/>
+        <v>17.413600891861762</v>
+      </c>
+      <c r="T4" s="24">
+        <v>42</v>
+      </c>
       <c r="U4" s="42">
         <f>T4/$T$3*100</f>
-        <v>0</v>
+        <v>352.94117647058823</v>
       </c>
       <c r="V4" s="24"/>
       <c r="W4" s="24"/>
@@ -4537,57 +5624,61 @@
       <c r="Y4" s="24"/>
       <c r="Z4" s="24"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="59">
         <v>0.01</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="3">
+        <v>46</v>
+      </c>
+      <c r="K5" s="40">
+        <f t="shared" ref="K5:K39" si="0">J5/$J$3*100</f>
+        <v>158.62068965517241</v>
+      </c>
+      <c r="L5" s="2">
         <v>54</v>
       </c>
-      <c r="K5" s="40">
-        <f t="shared" ref="K5:K19" si="0">J5/$J$3*100</f>
-        <v>128.57142857142858</v>
-      </c>
-      <c r="L5" s="2">
-        <v>57</v>
-      </c>
       <c r="M5" s="41">
-        <f t="shared" ref="M5:M19" si="1">L5/$L$3*100</f>
-        <v>123.91304347826086</v>
+        <f t="shared" ref="M5:M39" si="1">L5/$L$3*100</f>
+        <v>131.70731707317074</v>
       </c>
       <c r="N5" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O5" s="41">
-        <f t="shared" ref="O5:O19" si="2">N5/$N$3*100</f>
-        <v>101.81818181818181</v>
+        <f t="shared" ref="O5:O39" si="2">N5/$N$3*100</f>
+        <v>100</v>
       </c>
       <c r="P5" s="46">
-        <v>0.5736</v>
+        <v>0.73326999999999998</v>
       </c>
       <c r="Q5" s="42">
-        <f t="shared" ref="Q5:U19" si="3">P5/$P$3*100</f>
-        <v>200.8825383483925</v>
-      </c>
-      <c r="R5" s="24"/>
+        <f t="shared" ref="Q5:Q39" si="3">P5/$P$3*100</f>
+        <v>164.16370027089349</v>
+      </c>
+      <c r="R5" s="24">
+        <v>0.73409999999999997</v>
+      </c>
       <c r="S5" s="42">
-        <f t="shared" ref="S5:S19" si="4">R5/$R$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="24"/>
+        <f t="shared" ref="S5:S39" si="4">R5/$R$3*100</f>
+        <v>163.67892976588627</v>
+      </c>
+      <c r="T5" s="24">
+        <v>6.9</v>
+      </c>
       <c r="U5" s="42">
-        <f t="shared" ref="U5:U19" si="5">T5/$T$3*100</f>
-        <v>0</v>
+        <f t="shared" ref="U5:U39" si="5">T5/$T$3*100</f>
+        <v>57.983193277310932</v>
       </c>
       <c r="V5" s="24"/>
       <c r="W5" s="24"/>
@@ -4595,33 +5686,33 @@
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14">
-        <v>100</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61">
+        <v>300</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="40">
-        <f t="shared" si="0"/>
-        <v>88.095238095238088</v>
+        <f>J6/$J$3*100</f>
+        <v>124.13793103448276</v>
       </c>
       <c r="L6" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M6" s="41">
         <f t="shared" si="1"/>
-        <v>86.956521739130437</v>
+        <v>114.63414634146341</v>
       </c>
       <c r="N6" s="2">
         <v>55</v>
@@ -4631,21 +5722,25 @@
         <v>100</v>
       </c>
       <c r="P6" s="46">
-        <v>0.13447000000000001</v>
+        <v>0.62717000000000001</v>
       </c>
       <c r="Q6" s="41">
         <f t="shared" si="3"/>
-        <v>47.093226868389714</v>
-      </c>
-      <c r="R6" s="24"/>
+        <v>140.41014619293887</v>
+      </c>
+      <c r="R6" s="24">
+        <v>0.68230000000000002</v>
+      </c>
       <c r="S6" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="24"/>
+        <v>152.12931995540691</v>
+      </c>
+      <c r="T6" s="24">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="U6" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>73.109243697478988</v>
       </c>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
@@ -4653,57 +5748,61 @@
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14">
-        <v>200</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="62">
+        <v>100</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="3">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K7" s="40">
         <f t="shared" si="0"/>
-        <v>107.14285714285714</v>
+        <v>68.965517241379317</v>
       </c>
       <c r="L7" s="2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M7" s="41">
         <f t="shared" si="1"/>
-        <v>108.69565217391303</v>
+        <v>85.365853658536579</v>
       </c>
       <c r="N7" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O7" s="41">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>98.181818181818187</v>
       </c>
       <c r="P7" s="46">
-        <v>0.42202000000000001</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="Q7" s="41">
         <f t="shared" si="3"/>
-        <v>147.79715626532183</v>
-      </c>
-      <c r="R7" s="24"/>
+        <v>33.767658450310066</v>
+      </c>
+      <c r="R7" s="24">
+        <v>0.15340000000000001</v>
+      </c>
       <c r="S7" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="24"/>
+        <v>34.202898550724633</v>
+      </c>
+      <c r="T7" s="24">
+        <v>22.5</v>
+      </c>
       <c r="U7" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>189.07563025210084</v>
       </c>
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
@@ -4711,57 +5810,61 @@
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36">
-        <v>40</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39">
+        <v>200</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="3">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K8" s="40">
         <f t="shared" si="0"/>
-        <v>147.61904761904762</v>
+        <v>79.310344827586206</v>
       </c>
       <c r="L8" s="43">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M8" s="41">
         <f t="shared" si="1"/>
-        <v>141.30434782608697</v>
+        <v>87.804878048780495</v>
       </c>
       <c r="N8" s="43">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O8" s="41">
         <f t="shared" si="2"/>
-        <v>101.81818181818181</v>
+        <v>100</v>
       </c>
       <c r="P8" s="47">
-        <v>0.56479999999999997</v>
+        <v>0.34639999999999999</v>
       </c>
       <c r="Q8" s="41">
         <f t="shared" si="3"/>
-        <v>197.80065840162499</v>
-      </c>
-      <c r="R8" s="24"/>
+        <v>77.551660062238341</v>
+      </c>
+      <c r="R8" s="24">
+        <v>0.34899999999999998</v>
+      </c>
       <c r="S8" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="24"/>
+        <v>77.8149386845039</v>
+      </c>
+      <c r="T8" s="24">
+        <v>15.8</v>
+      </c>
       <c r="U8" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>132.77310924369746</v>
       </c>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
@@ -4769,57 +5872,61 @@
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14">
-        <v>120</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58">
+        <v>100</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="3">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K9" s="40">
         <f t="shared" si="0"/>
-        <v>76.19047619047619</v>
+        <v>134.48275862068965</v>
       </c>
       <c r="L9" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M9" s="41">
         <f t="shared" si="1"/>
-        <v>86.956521739130437</v>
+        <v>131.70731707317074</v>
       </c>
       <c r="N9" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O9" s="41">
         <f t="shared" si="2"/>
-        <v>98.181818181818187</v>
+        <v>101.81818181818181</v>
       </c>
       <c r="P9" s="46">
-        <v>0.16009000000000001</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="Q9" s="41">
         <f t="shared" si="3"/>
-        <v>56.065700077046998</v>
-      </c>
-      <c r="R9" s="24"/>
+        <v>130.58857769718136</v>
+      </c>
+      <c r="R9" s="24">
+        <v>0.58440000000000003</v>
+      </c>
       <c r="S9" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="24"/>
+        <v>130.30100334448161</v>
+      </c>
+      <c r="T9" s="24">
+        <v>8.1</v>
+      </c>
       <c r="U9" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>68.067226890756288</v>
       </c>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
@@ -4827,57 +5934,61 @@
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14">
-        <v>150</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58">
+        <v>1</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K10" s="40">
         <f t="shared" si="0"/>
-        <v>78.571428571428569</v>
+        <v>127.58620689655173</v>
       </c>
       <c r="L10" s="2">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M10" s="41">
         <f t="shared" si="1"/>
-        <v>84.782608695652172</v>
+        <v>131.70731707317074</v>
       </c>
       <c r="N10" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O10" s="41">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>101.81818181818181</v>
       </c>
       <c r="P10" s="46">
-        <v>7.4140999999999999E-2</v>
+        <v>0.46010000000000001</v>
       </c>
       <c r="Q10" s="41">
         <f t="shared" si="3"/>
-        <v>25.965188765146735</v>
-      </c>
-      <c r="R10" s="24"/>
+        <v>103.00669397989569</v>
+      </c>
+      <c r="R10" s="24">
+        <v>0.48180000000000001</v>
+      </c>
       <c r="S10" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="24"/>
+        <v>107.42474916387961</v>
+      </c>
+      <c r="T10" s="24">
+        <v>10.3</v>
+      </c>
       <c r="U10" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>86.554621848739501</v>
       </c>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
@@ -4885,57 +5996,61 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14">
-        <v>600</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58">
+        <v>3</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="3">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K11" s="40">
         <f t="shared" si="0"/>
-        <v>111.90476190476191</v>
+        <v>89.65517241379311</v>
       </c>
       <c r="L11" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M11" s="41">
         <f t="shared" si="1"/>
-        <v>121.73913043478262</v>
+        <v>90.243902439024396</v>
       </c>
       <c r="N11" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O11" s="41">
         <f t="shared" si="2"/>
-        <v>101.81818181818181</v>
+        <v>100</v>
       </c>
       <c r="P11" s="46">
-        <v>0.58779999999999999</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="Q11" s="41">
         <f t="shared" si="3"/>
-        <v>205.8555718988583</v>
-      </c>
-      <c r="R11" s="24"/>
+        <v>102.49177244945933</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0.45800000000000002</v>
+      </c>
       <c r="S11" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="24"/>
+        <v>102.11817168338908</v>
+      </c>
+      <c r="T11" s="24">
+        <v>12.2</v>
+      </c>
       <c r="U11" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>102.52100840336134</v>
       </c>
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
@@ -4943,57 +6058,61 @@
       <c r="Y11" s="24"/>
       <c r="Z11" s="24"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>9</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36">
-        <v>100</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="3">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K12" s="40">
         <f t="shared" si="0"/>
-        <v>119.04761904761905</v>
+        <v>117.24137931034481</v>
       </c>
       <c r="L12" s="43">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M12" s="41">
         <f t="shared" si="1"/>
-        <v>126.08695652173914</v>
+        <v>109.75609756097562</v>
       </c>
       <c r="N12" s="43">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O12" s="41">
         <f t="shared" si="2"/>
-        <v>101.81818181818181</v>
+        <v>100</v>
       </c>
       <c r="P12" s="47">
-        <v>0.43601000000000001</v>
+        <v>0.57950000000000002</v>
       </c>
       <c r="Q12" s="41">
         <f t="shared" si="3"/>
-        <v>152.69664495342158</v>
-      </c>
-      <c r="R12" s="24"/>
+        <v>129.73783777733001</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0.58079999999999998</v>
+      </c>
       <c r="S12" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="24"/>
+        <v>129.49832775919731</v>
+      </c>
+      <c r="T12" s="24">
+        <v>9.5</v>
+      </c>
       <c r="U12" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>79.831932773109244</v>
       </c>
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
@@ -5001,33 +6120,33 @@
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14">
-        <v>200</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="3">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K13" s="40">
         <f t="shared" si="0"/>
-        <v>85.714285714285708</v>
+        <v>86.206896551724128</v>
       </c>
       <c r="L13" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M13" s="41">
         <f t="shared" si="1"/>
-        <v>89.130434782608688</v>
+        <v>95.121951219512198</v>
       </c>
       <c r="N13" s="2">
         <v>55</v>
@@ -5037,21 +6156,25 @@
         <v>100</v>
       </c>
       <c r="P13" s="46">
-        <v>0.18772</v>
+        <v>0.3372</v>
       </c>
       <c r="Q13" s="41">
         <f t="shared" si="3"/>
-        <v>65.7421026826364</v>
-      </c>
-      <c r="R13" s="24"/>
+        <v>75.491973940492983</v>
+      </c>
+      <c r="R13" s="24">
+        <v>0.33939999999999998</v>
+      </c>
       <c r="S13" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="24"/>
+        <v>75.674470457079153</v>
+      </c>
+      <c r="T13" s="24">
+        <v>14.5</v>
+      </c>
       <c r="U13" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>121.84873949579831</v>
       </c>
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
@@ -5059,33 +6182,33 @@
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>11</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
-        <v>8</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33">
+        <v>3</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="3">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K14" s="40">
         <f t="shared" si="0"/>
-        <v>92.857142857142861</v>
+        <v>82.758620689655174</v>
       </c>
       <c r="L14" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M14" s="41">
         <f t="shared" si="1"/>
-        <v>93.478260869565219</v>
+        <v>90.243902439024396</v>
       </c>
       <c r="N14" s="2">
         <v>55</v>
@@ -5095,21 +6218,25 @@
         <v>100</v>
       </c>
       <c r="P14" s="46">
-        <v>0.24892</v>
+        <v>0.3765</v>
       </c>
       <c r="Q14" s="41">
         <f t="shared" si="3"/>
-        <v>87.175176857883301</v>
-      </c>
-      <c r="R14" s="24"/>
+        <v>84.290415743166093</v>
+      </c>
+      <c r="R14" s="24">
+        <v>0.37990000000000002</v>
+      </c>
       <c r="S14" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="24"/>
+        <v>84.704570791527317</v>
+      </c>
+      <c r="T14" s="24">
+        <v>16.600000000000001</v>
+      </c>
       <c r="U14" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>139.49579831932775</v>
       </c>
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
@@ -5117,57 +6244,61 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
-        <v>12</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33">
+        <v>7</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="3">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K15" s="40">
         <f t="shared" si="0"/>
-        <v>107.14285714285714</v>
+        <v>117.24137931034481</v>
       </c>
       <c r="L15" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M15" s="41">
         <f t="shared" si="1"/>
-        <v>106.5217391304348</v>
+        <v>117.07317073170731</v>
       </c>
       <c r="N15" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O15" s="41">
         <f t="shared" si="2"/>
-        <v>101.81818181818181</v>
+        <v>100</v>
       </c>
       <c r="P15" s="46">
-        <v>0.32150000000000001</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="Q15" s="41">
         <f t="shared" si="3"/>
-        <v>112.59368214610912</v>
-      </c>
-      <c r="R15" s="24"/>
+        <v>114.13347661584616</v>
+      </c>
+      <c r="R15" s="24">
+        <v>0.51100000000000001</v>
+      </c>
       <c r="S15" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="24"/>
+        <v>113.93534002229654</v>
+      </c>
+      <c r="T15" s="24">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="U15" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>78.151260504201687</v>
       </c>
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
@@ -5175,57 +6306,61 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36">
-        <v>10</v>
-      </c>
-      <c r="I16" s="35"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39">
+        <v>5</v>
+      </c>
+      <c r="I16" s="39"/>
       <c r="J16" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K16" s="40">
         <f t="shared" si="0"/>
-        <v>92.857142857142861</v>
+        <v>86.206896551724128</v>
       </c>
       <c r="L16" s="43">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M16" s="41">
         <f t="shared" si="1"/>
-        <v>91.304347826086953</v>
+        <v>90.243902439024396</v>
       </c>
       <c r="N16" s="43">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O16" s="41">
         <f t="shared" si="2"/>
-        <v>98.181818181818187</v>
-      </c>
-      <c r="P16" s="48">
-        <v>0.17213999999999999</v>
+        <v>100</v>
+      </c>
+      <c r="P16" s="51">
+        <v>0.25459999999999999</v>
       </c>
       <c r="Q16" s="41">
         <f t="shared" si="3"/>
-        <v>60.285774322336614</v>
-      </c>
-      <c r="R16" s="24"/>
+        <v>56.999574630040073</v>
+      </c>
+      <c r="R16" s="24">
+        <v>0.25640000000000002</v>
+      </c>
       <c r="S16" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="24"/>
+        <v>57.168338907469341</v>
+      </c>
+      <c r="T16" s="24">
+        <v>16.100000000000001</v>
+      </c>
       <c r="U16" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>135.29411764705884</v>
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
@@ -5237,53 +6372,57 @@
       <c r="A17" s="16">
         <v>14</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="14">
+      <c r="B17" s="64"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33">
         <v>50</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="3">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K17" s="40">
         <f t="shared" si="0"/>
-        <v>107.14285714285714</v>
+        <v>106.89655172413792</v>
       </c>
       <c r="L17" s="2">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M17" s="41">
         <f t="shared" si="1"/>
-        <v>113.04347826086956</v>
+        <v>114.63414634146341</v>
       </c>
       <c r="N17" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="41">
         <f t="shared" si="2"/>
-        <v>101.81818181818181</v>
-      </c>
-      <c r="P17" s="49">
-        <v>0.47515000000000002</v>
+        <v>100</v>
+      </c>
+      <c r="P17" s="52">
+        <v>0.63770000000000004</v>
       </c>
       <c r="Q17" s="41">
         <f t="shared" si="3"/>
-        <v>166.4040064439308</v>
-      </c>
-      <c r="R17" s="24"/>
+        <v>142.76759128663218</v>
+      </c>
+      <c r="R17" s="24">
+        <v>0.63939999999999997</v>
+      </c>
       <c r="S17" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="24"/>
+        <v>142.56410256410254</v>
+      </c>
+      <c r="T17" s="24">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="U17" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>77.310924369747895</v>
       </c>
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
@@ -5295,53 +6434,57 @@
       <c r="A18" s="16">
         <v>15</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14">
-        <v>10</v>
-      </c>
-      <c r="J18" s="45">
-        <v>50</v>
+      <c r="B18" s="64"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33">
+        <v>5</v>
+      </c>
+      <c r="J18" s="53">
+        <v>37</v>
       </c>
       <c r="K18" s="40">
         <f t="shared" si="0"/>
-        <v>119.04761904761905</v>
-      </c>
-      <c r="L18" s="44">
-        <v>84</v>
+        <v>127.58620689655173</v>
+      </c>
+      <c r="L18" s="54">
+        <v>148</v>
       </c>
       <c r="M18" s="41">
         <f t="shared" si="1"/>
-        <v>182.60869565217391</v>
-      </c>
-      <c r="N18" s="44">
-        <v>138</v>
+        <v>360.97560975609758</v>
+      </c>
+      <c r="N18" s="55">
+        <v>276</v>
       </c>
       <c r="O18" s="42">
         <f t="shared" si="2"/>
-        <v>250.90909090909093</v>
+        <v>501.81818181818187</v>
       </c>
       <c r="P18" s="46">
-        <v>0.22982</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="Q18" s="41">
         <f t="shared" si="3"/>
-        <v>80.486096518876508</v>
-      </c>
-      <c r="R18" s="24"/>
+        <v>71.417377482257592</v>
+      </c>
+      <c r="R18" s="24">
+        <v>0.33300000000000002</v>
+      </c>
       <c r="S18" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="24"/>
+        <v>74.247491638795992</v>
+      </c>
+      <c r="T18" s="24">
+        <v>5.4</v>
+      </c>
       <c r="U18" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45.378151260504204</v>
       </c>
       <c r="V18" s="24"/>
       <c r="W18" s="24"/>
@@ -5353,53 +6496,57 @@
       <c r="A19" s="16">
         <v>16</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14">
+      <c r="B19" s="64"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33">
         <v>50</v>
       </c>
-      <c r="J19" s="45">
-        <v>37</v>
+      <c r="J19" s="53">
+        <v>25</v>
       </c>
       <c r="K19" s="40">
         <f t="shared" si="0"/>
-        <v>88.095238095238088</v>
-      </c>
-      <c r="L19" s="44">
-        <v>34</v>
+        <v>86.206896551724128</v>
+      </c>
+      <c r="L19" s="54">
+        <v>32</v>
       </c>
       <c r="M19" s="41">
         <f t="shared" si="1"/>
-        <v>73.91304347826086</v>
-      </c>
-      <c r="N19" s="44">
-        <v>29</v>
+        <v>78.048780487804876</v>
+      </c>
+      <c r="N19" s="55">
+        <v>28</v>
       </c>
       <c r="O19" s="42">
         <f t="shared" si="2"/>
-        <v>52.72727272727272</v>
+        <v>50.909090909090907</v>
       </c>
       <c r="P19" s="46">
-        <v>0.35580000000000001</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="Q19" s="41">
         <f t="shared" si="3"/>
-        <v>124.6060096658962</v>
-      </c>
-      <c r="R19" s="24"/>
+        <v>123.80504623099829</v>
+      </c>
+      <c r="R19" s="24">
+        <v>0.55610000000000004</v>
+      </c>
       <c r="S19" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="24"/>
+        <v>123.99108138238573</v>
+      </c>
+      <c r="T19" s="24">
+        <v>13.9</v>
+      </c>
       <c r="U19" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>116.80672268907564</v>
       </c>
       <c r="V19" s="24"/>
       <c r="W19" s="24"/>
@@ -5411,26 +6558,72 @@
       <c r="A20" s="16">
         <v>17</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
+      <c r="B20" s="64">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="33">
+        <v>200</v>
+      </c>
+      <c r="D20" s="33">
+        <v>110</v>
+      </c>
+      <c r="E20" s="33">
+        <v>2</v>
+      </c>
+      <c r="F20" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="33">
+        <v>4</v>
+      </c>
+      <c r="H20" s="33">
+        <v>40</v>
+      </c>
+      <c r="I20" s="33">
+        <v>70</v>
+      </c>
+      <c r="J20" s="15">
+        <v>19</v>
+      </c>
+      <c r="K20" s="40">
+        <f t="shared" si="0"/>
+        <v>65.517241379310349</v>
+      </c>
+      <c r="L20" s="16">
+        <v>27</v>
+      </c>
+      <c r="M20" s="41">
+        <f t="shared" si="1"/>
+        <v>65.853658536585371</v>
+      </c>
+      <c r="N20" s="16">
+        <v>22</v>
+      </c>
+      <c r="O20" s="41">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="Q20" s="42">
+        <f t="shared" si="3"/>
+        <v>112.23050574249444</v>
+      </c>
+      <c r="R20" s="24">
+        <v>0.50639999999999996</v>
+      </c>
+      <c r="S20" s="42">
+        <f t="shared" si="4"/>
+        <v>112.90969899665551</v>
+      </c>
+      <c r="T20" s="24">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="U20" s="42">
+        <f t="shared" si="5"/>
+        <v>147.89915966386556</v>
+      </c>
       <c r="V20" s="24"/>
       <c r="W20" s="24"/>
       <c r="X20" s="24"/>
@@ -5441,26 +6634,72 @@
       <c r="A21" s="16">
         <v>18</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
+      <c r="B21" s="64">
+        <v>2E-3</v>
+      </c>
+      <c r="C21" s="33">
+        <v>200</v>
+      </c>
+      <c r="D21" s="33">
+        <v>110</v>
+      </c>
+      <c r="E21" s="33">
+        <v>2</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="33">
+        <v>4</v>
+      </c>
+      <c r="H21" s="33">
+        <v>40</v>
+      </c>
+      <c r="I21" s="33">
+        <v>70</v>
+      </c>
+      <c r="J21" s="15">
+        <v>15</v>
+      </c>
+      <c r="K21" s="40">
+        <f t="shared" si="0"/>
+        <v>51.724137931034484</v>
+      </c>
+      <c r="L21" s="16">
+        <v>22</v>
+      </c>
+      <c r="M21" s="41">
+        <f t="shared" si="1"/>
+        <v>53.658536585365859</v>
+      </c>
+      <c r="N21" s="16">
+        <v>21</v>
+      </c>
+      <c r="O21" s="41">
+        <f t="shared" si="2"/>
+        <v>38.181818181818187</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="Q21" s="42">
+        <f t="shared" si="3"/>
+        <v>76.253162289833654</v>
+      </c>
+      <c r="R21" s="24">
+        <v>0.3473</v>
+      </c>
+      <c r="S21" s="42">
+        <f t="shared" si="4"/>
+        <v>77.435897435897445</v>
+      </c>
+      <c r="T21" s="24">
+        <v>23.8</v>
+      </c>
+      <c r="U21" s="42">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
       <c r="V21" s="24"/>
       <c r="W21" s="24"/>
       <c r="X21" s="24"/>
@@ -5471,26 +6710,72 @@
       <c r="A22" s="16">
         <v>19</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
+      <c r="B22" s="64">
+        <v>2E-3</v>
+      </c>
+      <c r="C22" s="33">
+        <v>200</v>
+      </c>
+      <c r="D22" s="33">
+        <v>100</v>
+      </c>
+      <c r="E22" s="33">
+        <v>2</v>
+      </c>
+      <c r="F22" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G22" s="33">
+        <v>4</v>
+      </c>
+      <c r="H22" s="33">
+        <v>40</v>
+      </c>
+      <c r="I22" s="33">
+        <v>70</v>
+      </c>
+      <c r="J22" s="15">
+        <v>16</v>
+      </c>
+      <c r="K22" s="40">
+        <f t="shared" si="0"/>
+        <v>55.172413793103445</v>
+      </c>
+      <c r="L22" s="16">
+        <v>24</v>
+      </c>
+      <c r="M22" s="41">
+        <f t="shared" si="1"/>
+        <v>58.536585365853654</v>
+      </c>
+      <c r="N22" s="16">
+        <v>21</v>
+      </c>
+      <c r="O22" s="41">
+        <f t="shared" si="2"/>
+        <v>38.181818181818187</v>
+      </c>
+      <c r="P22" s="16">
+        <v>0.3604</v>
+      </c>
+      <c r="Q22" s="41">
+        <f t="shared" si="3"/>
+        <v>80.685965030111717</v>
+      </c>
+      <c r="R22" s="24">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="S22" s="42">
+        <f t="shared" si="4"/>
+        <v>74.983277591973234</v>
+      </c>
+      <c r="T22" s="24">
+        <v>21.7</v>
+      </c>
+      <c r="U22" s="42">
+        <f t="shared" si="5"/>
+        <v>182.35294117647058</v>
+      </c>
       <c r="V22" s="24"/>
       <c r="W22" s="24"/>
       <c r="X22" s="24"/>
@@ -5501,26 +6786,72 @@
       <c r="A23" s="16">
         <v>20</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
+      <c r="B23" s="64">
+        <v>2E-3</v>
+      </c>
+      <c r="C23" s="33">
+        <v>250</v>
+      </c>
+      <c r="D23" s="33">
+        <v>120</v>
+      </c>
+      <c r="E23" s="33">
+        <v>2</v>
+      </c>
+      <c r="F23" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="33">
+        <v>4</v>
+      </c>
+      <c r="H23" s="33">
+        <v>40</v>
+      </c>
+      <c r="I23" s="33">
+        <v>70</v>
+      </c>
+      <c r="J23" s="15">
+        <v>16</v>
+      </c>
+      <c r="K23" s="40">
+        <f t="shared" si="0"/>
+        <v>55.172413793103445</v>
+      </c>
+      <c r="L23" s="16">
+        <v>23</v>
+      </c>
+      <c r="M23" s="41">
+        <f t="shared" si="1"/>
+        <v>56.09756097560976</v>
+      </c>
+      <c r="N23" s="16">
+        <v>20</v>
+      </c>
+      <c r="O23" s="41">
+        <f t="shared" si="2"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="P23" s="16">
+        <v>0.434</v>
+      </c>
+      <c r="Q23" s="41">
+        <f t="shared" si="3"/>
+        <v>97.163454004074595</v>
+      </c>
+      <c r="R23" s="24">
+        <v>0.4405</v>
+      </c>
+      <c r="S23" s="42">
+        <f t="shared" si="4"/>
+        <v>98.216276477146039</v>
+      </c>
+      <c r="T23" s="24">
+        <v>21.1</v>
+      </c>
+      <c r="U23" s="42">
+        <f t="shared" si="5"/>
+        <v>177.31092436974791</v>
+      </c>
       <c r="V23" s="24"/>
       <c r="W23" s="24"/>
       <c r="X23" s="24"/>
@@ -5531,26 +6862,72 @@
       <c r="A24" s="16">
         <v>21</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
+      <c r="B24" s="64">
+        <v>2E-3</v>
+      </c>
+      <c r="C24" s="33">
+        <v>300</v>
+      </c>
+      <c r="D24" s="33">
+        <v>120</v>
+      </c>
+      <c r="E24" s="33">
+        <v>2</v>
+      </c>
+      <c r="F24" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="33">
+        <v>4</v>
+      </c>
+      <c r="H24" s="33">
+        <v>40</v>
+      </c>
+      <c r="I24" s="33">
+        <v>70</v>
+      </c>
+      <c r="J24" s="15">
+        <v>17</v>
+      </c>
+      <c r="K24" s="40">
+        <f t="shared" si="0"/>
+        <v>58.620689655172406</v>
+      </c>
+      <c r="L24" s="16">
+        <v>27</v>
+      </c>
+      <c r="M24" s="41">
+        <f t="shared" si="1"/>
+        <v>65.853658536585371</v>
+      </c>
+      <c r="N24" s="16">
+        <v>22</v>
+      </c>
+      <c r="O24" s="41">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="P24" s="16">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="Q24" s="41">
+        <f t="shared" si="3"/>
+        <v>118.14090939619852</v>
+      </c>
+      <c r="R24" s="24">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="S24" s="42">
+        <f t="shared" si="4"/>
+        <v>118.88517279821626</v>
+      </c>
+      <c r="T24" s="24">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="U24" s="42">
+        <f t="shared" si="5"/>
+        <v>152.10084033613447</v>
+      </c>
       <c r="V24" s="24"/>
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
@@ -5561,26 +6938,72 @@
       <c r="A25" s="16">
         <v>22</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
+      <c r="B25" s="64">
+        <v>2E-3</v>
+      </c>
+      <c r="C25" s="33">
+        <v>300</v>
+      </c>
+      <c r="D25" s="33">
+        <v>120</v>
+      </c>
+      <c r="E25" s="33">
+        <v>2</v>
+      </c>
+      <c r="F25" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="33">
+        <v>4</v>
+      </c>
+      <c r="H25" s="33">
+        <v>40</v>
+      </c>
+      <c r="I25" s="33">
+        <v>20</v>
+      </c>
+      <c r="J25" s="15">
+        <v>25</v>
+      </c>
+      <c r="K25" s="40">
+        <f t="shared" si="0"/>
+        <v>86.206896551724128</v>
+      </c>
+      <c r="L25" s="16">
+        <v>48</v>
+      </c>
+      <c r="M25" s="41">
+        <f t="shared" si="1"/>
+        <v>117.07317073170731</v>
+      </c>
+      <c r="N25" s="16">
+        <v>69</v>
+      </c>
+      <c r="O25" s="41">
+        <f t="shared" si="2"/>
+        <v>125.45454545454547</v>
+      </c>
+      <c r="P25" s="16">
+        <v>0.41214000000000001</v>
+      </c>
+      <c r="Q25" s="41">
+        <f t="shared" si="3"/>
+        <v>92.269460675666608</v>
+      </c>
+      <c r="R25" s="24">
+        <v>0.4143</v>
+      </c>
+      <c r="S25" s="42">
+        <f t="shared" si="4"/>
+        <v>92.374581939799327</v>
+      </c>
+      <c r="T25" s="24">
+        <v>12.2</v>
+      </c>
+      <c r="U25" s="42">
+        <f t="shared" si="5"/>
+        <v>102.52100840336134</v>
+      </c>
       <c r="V25" s="24"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
@@ -5591,26 +7014,72 @@
       <c r="A26" s="16">
         <v>23</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
+      <c r="B26" s="64">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="33">
+        <v>300</v>
+      </c>
+      <c r="D26" s="33">
+        <v>120</v>
+      </c>
+      <c r="E26" s="33">
+        <v>2</v>
+      </c>
+      <c r="F26" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G26" s="33">
+        <v>4</v>
+      </c>
+      <c r="H26" s="33">
+        <v>40</v>
+      </c>
+      <c r="I26" s="33">
+        <v>20</v>
+      </c>
+      <c r="J26" s="15">
+        <v>41</v>
+      </c>
+      <c r="K26" s="40">
+        <f t="shared" si="0"/>
+        <v>141.37931034482759</v>
+      </c>
+      <c r="L26" s="16">
+        <v>61</v>
+      </c>
+      <c r="M26" s="41">
+        <f t="shared" si="1"/>
+        <v>148.78048780487805</v>
+      </c>
+      <c r="N26" s="16">
+        <v>69</v>
+      </c>
+      <c r="O26" s="41">
+        <f t="shared" si="2"/>
+        <v>125.45454545454547</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="Q26" s="41">
+        <f t="shared" si="3"/>
+        <v>168.91664987574717</v>
+      </c>
+      <c r="R26" s="24">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="S26" s="42">
+        <f t="shared" si="4"/>
+        <v>168.40579710144928</v>
+      </c>
+      <c r="T26" s="24">
+        <v>6.4</v>
+      </c>
+      <c r="U26" s="42">
+        <f t="shared" si="5"/>
+        <v>53.781512605042018</v>
+      </c>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
@@ -5621,26 +7090,72 @@
       <c r="A27" s="16">
         <v>24</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
+      <c r="B27" s="64">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27" s="33">
+        <v>200</v>
+      </c>
+      <c r="D27" s="33">
+        <v>100</v>
+      </c>
+      <c r="E27" s="33">
+        <v>2</v>
+      </c>
+      <c r="F27" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G27" s="33">
+        <v>4</v>
+      </c>
+      <c r="H27" s="33">
+        <v>20</v>
+      </c>
+      <c r="I27" s="33">
+        <v>20</v>
+      </c>
+      <c r="J27" s="15">
+        <v>36</v>
+      </c>
+      <c r="K27" s="40">
+        <f t="shared" si="0"/>
+        <v>124.13793103448276</v>
+      </c>
+      <c r="L27" s="16">
+        <v>54</v>
+      </c>
+      <c r="M27" s="41">
+        <f t="shared" si="1"/>
+        <v>131.70731707317074</v>
+      </c>
+      <c r="N27" s="16">
+        <v>69</v>
+      </c>
+      <c r="O27" s="41">
+        <f t="shared" si="2"/>
+        <v>125.45454545454547</v>
+      </c>
+      <c r="P27" s="16">
+        <v>0.46970000000000001</v>
+      </c>
+      <c r="Q27" s="41">
+        <f t="shared" si="3"/>
+        <v>105.1559316721517</v>
+      </c>
+      <c r="R27" s="24">
+        <v>0.47089999999999999</v>
+      </c>
+      <c r="S27" s="42">
+        <f t="shared" si="4"/>
+        <v>104.99442586399108</v>
+      </c>
+      <c r="T27" s="24">
+        <v>9.4</v>
+      </c>
+      <c r="U27" s="42">
+        <f t="shared" si="5"/>
+        <v>78.991596638655466</v>
+      </c>
       <c r="V27" s="24"/>
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
@@ -5651,26 +7166,72 @@
       <c r="A28" s="16">
         <v>25</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
+      <c r="B28" s="64">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="33">
+        <v>100</v>
+      </c>
+      <c r="D28" s="33">
+        <v>50</v>
+      </c>
+      <c r="E28" s="33">
+        <v>2</v>
+      </c>
+      <c r="F28" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="33">
+        <v>4</v>
+      </c>
+      <c r="H28" s="33">
+        <v>20</v>
+      </c>
+      <c r="I28" s="33">
+        <v>20</v>
+      </c>
+      <c r="J28" s="15">
+        <v>42</v>
+      </c>
+      <c r="K28" s="40">
+        <f t="shared" si="0"/>
+        <v>144.82758620689654</v>
+      </c>
+      <c r="L28" s="16">
+        <v>62</v>
+      </c>
+      <c r="M28" s="41">
+        <f t="shared" si="1"/>
+        <v>151.21951219512195</v>
+      </c>
+      <c r="N28" s="16">
+        <v>70</v>
+      </c>
+      <c r="O28" s="41">
+        <f t="shared" si="2"/>
+        <v>127.27272727272727</v>
+      </c>
+      <c r="P28" s="16">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="Q28" s="41">
+        <f t="shared" si="3"/>
+        <v>75.872568115163304</v>
+      </c>
+      <c r="R28" s="24">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="S28" s="42">
+        <f t="shared" si="4"/>
+        <v>75.763656633221842</v>
+      </c>
+      <c r="T28" s="24">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U28" s="42">
+        <f t="shared" si="5"/>
+        <v>82.352941176470594</v>
+      </c>
       <c r="V28" s="24"/>
       <c r="W28" s="24"/>
       <c r="X28" s="24"/>
@@ -5681,26 +7242,72 @@
       <c r="A29" s="16">
         <v>26</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
+      <c r="B29" s="64">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="33">
+        <v>100</v>
+      </c>
+      <c r="D29" s="33">
+        <v>50</v>
+      </c>
+      <c r="E29" s="33">
+        <v>2</v>
+      </c>
+      <c r="F29" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="33">
+        <v>4</v>
+      </c>
+      <c r="H29" s="33">
+        <v>10</v>
+      </c>
+      <c r="I29" s="33">
+        <v>15</v>
+      </c>
+      <c r="J29" s="15">
+        <v>42</v>
+      </c>
+      <c r="K29" s="40">
+        <f t="shared" si="0"/>
+        <v>144.82758620689654</v>
+      </c>
+      <c r="L29" s="16">
+        <v>69</v>
+      </c>
+      <c r="M29" s="41">
+        <f t="shared" si="1"/>
+        <v>168.29268292682926</v>
+      </c>
+      <c r="N29" s="16">
+        <v>92</v>
+      </c>
+      <c r="O29" s="41">
+        <f t="shared" si="2"/>
+        <v>167.27272727272725</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="Q29" s="41">
+        <f t="shared" si="3"/>
+        <v>50.395146304878324</v>
+      </c>
+      <c r="R29" s="24">
+        <v>0.2258</v>
+      </c>
+      <c r="S29" s="42">
+        <f t="shared" si="4"/>
+        <v>50.345596432552952</v>
+      </c>
+      <c r="T29" s="24">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="U29" s="42">
+        <f t="shared" si="5"/>
+        <v>81.512605042016801</v>
+      </c>
       <c r="V29" s="24"/>
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
@@ -5711,26 +7318,72 @@
       <c r="A30" s="16">
         <v>27</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
+      <c r="B30" s="64">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="33">
+        <v>50</v>
+      </c>
+      <c r="D30" s="33">
+        <v>30</v>
+      </c>
+      <c r="E30" s="33">
+        <v>2</v>
+      </c>
+      <c r="F30" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="33">
+        <v>4</v>
+      </c>
+      <c r="H30" s="33">
+        <v>10</v>
+      </c>
+      <c r="I30" s="33">
+        <v>15</v>
+      </c>
+      <c r="J30" s="15">
+        <v>45</v>
+      </c>
+      <c r="K30" s="40">
+        <f t="shared" si="0"/>
+        <v>155.17241379310346</v>
+      </c>
+      <c r="L30" s="16">
+        <v>73</v>
+      </c>
+      <c r="M30" s="41">
+        <f t="shared" si="1"/>
+        <v>178.04878048780489</v>
+      </c>
+      <c r="N30" s="16">
+        <v>93</v>
+      </c>
+      <c r="O30" s="41">
+        <f t="shared" si="2"/>
+        <v>169.09090909090909</v>
+      </c>
+      <c r="P30" s="16">
+        <v>0.1047</v>
+      </c>
+      <c r="Q30" s="41">
+        <f t="shared" si="3"/>
+        <v>23.440123581167306</v>
+      </c>
+      <c r="R30" s="24">
+        <v>0.1051</v>
+      </c>
+      <c r="S30" s="42">
+        <f t="shared" si="4"/>
+        <v>23.433667781493867</v>
+      </c>
+      <c r="T30" s="24">
+        <v>11.5</v>
+      </c>
+      <c r="U30" s="42">
+        <f t="shared" si="5"/>
+        <v>96.638655462184872</v>
+      </c>
       <c r="V30" s="24"/>
       <c r="W30" s="24"/>
       <c r="X30" s="24"/>
@@ -5741,26 +7394,72 @@
       <c r="A31" s="16">
         <v>28</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
+      <c r="B31" s="64">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C31" s="33">
+        <v>50</v>
+      </c>
+      <c r="D31" s="33">
+        <v>30</v>
+      </c>
+      <c r="E31" s="33">
+        <v>2</v>
+      </c>
+      <c r="F31" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="33">
+        <v>4</v>
+      </c>
+      <c r="H31" s="33">
+        <v>10</v>
+      </c>
+      <c r="I31" s="33">
+        <v>15</v>
+      </c>
+      <c r="J31" s="15">
+        <v>53</v>
+      </c>
+      <c r="K31" s="40">
+        <f t="shared" si="0"/>
+        <v>182.75862068965517</v>
+      </c>
+      <c r="L31" s="16">
+        <v>79</v>
+      </c>
+      <c r="M31" s="41">
+        <f t="shared" si="1"/>
+        <v>192.6829268292683</v>
+      </c>
+      <c r="N31" s="16">
+        <v>93</v>
+      </c>
+      <c r="O31" s="41">
+        <f t="shared" si="2"/>
+        <v>169.09090909090909</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0.1772</v>
+      </c>
+      <c r="Q31" s="41">
+        <f t="shared" si="3"/>
+        <v>39.671345736225852</v>
+      </c>
+      <c r="R31" s="24">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="S31" s="42">
+        <f t="shared" si="4"/>
+        <v>39.576365663322186</v>
+      </c>
+      <c r="T31" s="24">
+        <v>8.6</v>
+      </c>
+      <c r="U31" s="42">
+        <f t="shared" si="5"/>
+        <v>72.268907563025209</v>
+      </c>
       <c r="V31" s="24"/>
       <c r="W31" s="24"/>
       <c r="X31" s="24"/>
@@ -5771,26 +7470,72 @@
       <c r="A32" s="16">
         <v>29</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
+      <c r="B32" s="64">
+        <v>0.01</v>
+      </c>
+      <c r="C32" s="33">
+        <v>50</v>
+      </c>
+      <c r="D32" s="33">
+        <v>30</v>
+      </c>
+      <c r="E32" s="33">
+        <v>2</v>
+      </c>
+      <c r="F32" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="G32" s="33">
+        <v>4</v>
+      </c>
+      <c r="H32" s="33">
+        <v>10</v>
+      </c>
+      <c r="I32" s="33">
+        <v>15</v>
+      </c>
+      <c r="J32" s="15">
+        <v>66</v>
+      </c>
+      <c r="K32" s="40">
+        <f t="shared" si="0"/>
+        <v>227.58620689655174</v>
+      </c>
+      <c r="L32" s="16">
+        <v>89</v>
+      </c>
+      <c r="M32" s="41">
+        <f t="shared" si="1"/>
+        <v>217.07317073170734</v>
+      </c>
+      <c r="N32" s="16">
+        <v>95</v>
+      </c>
+      <c r="O32" s="41">
+        <f t="shared" si="2"/>
+        <v>172.72727272727272</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0.29770000000000002</v>
+      </c>
+      <c r="Q32" s="41">
+        <f t="shared" si="3"/>
+        <v>66.648756352564533</v>
+      </c>
+      <c r="R32" s="24">
+        <v>0.29780000000000001</v>
+      </c>
+      <c r="S32" s="42">
+        <f t="shared" si="4"/>
+        <v>66.399108138238574</v>
+      </c>
+      <c r="T32" s="24">
+        <v>6.2</v>
+      </c>
+      <c r="U32" s="42">
+        <f t="shared" si="5"/>
+        <v>52.100840336134461</v>
+      </c>
       <c r="V32" s="24"/>
       <c r="W32" s="24"/>
       <c r="X32" s="24"/>
@@ -5801,26 +7546,60 @@
       <c r="A33" s="16">
         <v>30</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
+      <c r="B33" s="64">
+        <v>0.01</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="15">
+        <v>77</v>
+      </c>
+      <c r="K33" s="40">
+        <f t="shared" si="0"/>
+        <v>265.51724137931035</v>
+      </c>
+      <c r="L33" s="16">
+        <v>102</v>
+      </c>
+      <c r="M33" s="41">
+        <f t="shared" si="1"/>
+        <v>248.78048780487805</v>
+      </c>
+      <c r="N33" s="16">
+        <v>98</v>
+      </c>
+      <c r="O33" s="41">
+        <f t="shared" si="2"/>
+        <v>178.18181818181819</v>
+      </c>
+      <c r="P33" s="16">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="Q33" s="41">
+        <f t="shared" si="3"/>
+        <v>98.775382273266615</v>
+      </c>
+      <c r="R33" s="24">
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="S33" s="42">
+        <f t="shared" si="4"/>
+        <v>98.283166109253074</v>
+      </c>
+      <c r="T33" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="U33" s="42">
+        <f t="shared" si="5"/>
+        <v>37.815126050420169</v>
+      </c>
       <c r="V33" s="24"/>
       <c r="W33" s="24"/>
       <c r="X33" s="24"/>
@@ -5831,26 +7610,58 @@
       <c r="A34" s="16">
         <v>31</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33">
+        <v>2</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="15">
+        <v>63</v>
+      </c>
+      <c r="K34" s="40">
+        <f t="shared" si="0"/>
+        <v>217.24137931034483</v>
+      </c>
+      <c r="L34" s="16">
+        <v>83</v>
+      </c>
+      <c r="M34" s="41">
+        <f t="shared" si="1"/>
+        <v>202.4390243902439</v>
+      </c>
+      <c r="N34" s="16">
+        <v>94</v>
+      </c>
+      <c r="O34" s="42">
+        <f t="shared" si="2"/>
+        <v>170.90909090909091</v>
+      </c>
+      <c r="P34" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="Q34" s="41">
+        <f t="shared" si="3"/>
+        <v>85.073991985134427</v>
+      </c>
+      <c r="R34" s="24">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="S34" s="42">
+        <f t="shared" si="4"/>
+        <v>84.793756967670021</v>
+      </c>
+      <c r="T34" s="24">
+        <v>6.9</v>
+      </c>
+      <c r="U34" s="42">
+        <f t="shared" si="5"/>
+        <v>57.983193277310932</v>
+      </c>
       <c r="V34" s="24"/>
       <c r="W34" s="24"/>
       <c r="X34" s="24"/>
@@ -5861,26 +7672,58 @@
       <c r="A35" s="16">
         <v>32</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33">
+        <v>18</v>
+      </c>
+      <c r="J35" s="15">
+        <v>60</v>
+      </c>
+      <c r="K35" s="40">
+        <f t="shared" si="0"/>
+        <v>206.89655172413794</v>
+      </c>
+      <c r="L35" s="16">
+        <v>76</v>
+      </c>
+      <c r="M35" s="41">
+        <f t="shared" si="1"/>
+        <v>185.36585365853659</v>
+      </c>
+      <c r="N35" s="16">
+        <v>80</v>
+      </c>
+      <c r="O35" s="42">
+        <f t="shared" si="2"/>
+        <v>145.45454545454547</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0.39850000000000002</v>
+      </c>
+      <c r="Q35" s="41">
+        <f t="shared" si="3"/>
+        <v>89.215752121252834</v>
+      </c>
+      <c r="R35" s="24">
+        <v>0.3992</v>
+      </c>
+      <c r="S35" s="42">
+        <f t="shared" si="4"/>
+        <v>89.007803790412481</v>
+      </c>
+      <c r="T35" s="24">
+        <v>7.2</v>
+      </c>
+      <c r="U35" s="42">
+        <f t="shared" si="5"/>
+        <v>60.504201680672267</v>
+      </c>
       <c r="V35" s="24"/>
       <c r="W35" s="24"/>
       <c r="X35" s="24"/>
@@ -5891,26 +7734,72 @@
       <c r="A36" s="16">
         <v>33</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
+      <c r="B36" s="64">
+        <v>0.01</v>
+      </c>
+      <c r="C36" s="33">
+        <v>50</v>
+      </c>
+      <c r="D36" s="33">
+        <v>30</v>
+      </c>
+      <c r="E36" s="33">
+        <v>2</v>
+      </c>
+      <c r="F36" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="33">
+        <v>10</v>
+      </c>
+      <c r="I36" s="33">
+        <v>18</v>
+      </c>
+      <c r="J36" s="15">
+        <v>47</v>
+      </c>
+      <c r="K36" s="40">
+        <f t="shared" si="0"/>
+        <v>162.06896551724137</v>
+      </c>
+      <c r="L36" s="16">
+        <v>61</v>
+      </c>
+      <c r="M36" s="41">
+        <f t="shared" si="1"/>
+        <v>148.78048780487805</v>
+      </c>
+      <c r="N36" s="16">
+        <v>77</v>
+      </c>
+      <c r="O36" s="41">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="P36" s="16">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="Q36" s="42">
+        <f t="shared" si="3"/>
+        <v>73.186020999843294</v>
+      </c>
+      <c r="R36" s="24">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S36" s="42">
+        <f t="shared" si="4"/>
+        <v>74.247491638795992</v>
+      </c>
+      <c r="T36" s="24">
+        <v>14.3</v>
+      </c>
+      <c r="U36" s="42">
+        <f t="shared" si="5"/>
+        <v>120.16806722689076</v>
+      </c>
       <c r="V36" s="24"/>
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
@@ -5921,26 +7810,60 @@
       <c r="A37" s="16">
         <v>34</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="15">
+        <v>51</v>
+      </c>
+      <c r="K37" s="40">
+        <f t="shared" si="0"/>
+        <v>175.86206896551724</v>
+      </c>
+      <c r="L37" s="16">
+        <v>63</v>
+      </c>
+      <c r="M37" s="41">
+        <f t="shared" si="1"/>
+        <v>153.65853658536585</v>
+      </c>
+      <c r="N37" s="16">
+        <v>77</v>
+      </c>
+      <c r="O37" s="41">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="P37" s="16">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="Q37" s="42">
+        <f t="shared" si="3"/>
+        <v>105.08876799426869</v>
+      </c>
+      <c r="R37" s="24">
+        <v>0.47320000000000001</v>
+      </c>
+      <c r="S37" s="42">
+        <f t="shared" si="4"/>
+        <v>105.50724637681159</v>
+      </c>
+      <c r="T37" s="24">
+        <v>10.1</v>
+      </c>
+      <c r="U37" s="42">
+        <f t="shared" si="5"/>
+        <v>84.87394957983193</v>
+      </c>
       <c r="V37" s="24"/>
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
@@ -5951,26 +7874,60 @@
       <c r="A38" s="16">
         <v>35</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="33">
+        <v>30</v>
+      </c>
+      <c r="D38" s="33">
+        <v>20</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="15">
+        <v>56</v>
+      </c>
+      <c r="K38" s="40">
+        <f t="shared" si="0"/>
+        <v>193.10344827586206</v>
+      </c>
+      <c r="L38" s="16">
+        <v>72</v>
+      </c>
+      <c r="M38" s="41">
+        <f t="shared" si="1"/>
+        <v>175.60975609756099</v>
+      </c>
+      <c r="N38" s="16">
+        <v>81</v>
+      </c>
+      <c r="O38" s="41">
+        <f t="shared" si="2"/>
+        <v>147.27272727272725</v>
+      </c>
+      <c r="P38" s="16">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="Q38" s="41">
+        <f t="shared" si="3"/>
+        <v>82.588935903463394</v>
+      </c>
+      <c r="R38" s="24">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="S38" s="42">
+        <f t="shared" si="4"/>
+        <v>82.430323299888514</v>
+      </c>
+      <c r="T38" s="24">
+        <v>9.4</v>
+      </c>
+      <c r="U38" s="42">
+        <f t="shared" si="5"/>
+        <v>78.991596638655466</v>
+      </c>
       <c r="V38" s="24"/>
       <c r="W38" s="24"/>
       <c r="X38" s="24"/>
@@ -5981,34 +7938,1277 @@
       <c r="A39" s="16">
         <v>36</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="33">
+        <v>20</v>
+      </c>
+      <c r="D39" s="33">
+        <v>10</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="15">
+        <v>72</v>
+      </c>
+      <c r="K39" s="40">
+        <f t="shared" si="0"/>
+        <v>248.27586206896552</v>
+      </c>
+      <c r="L39" s="16">
+        <v>98</v>
+      </c>
+      <c r="M39" s="41">
+        <f t="shared" si="1"/>
+        <v>239.02439024390242</v>
+      </c>
+      <c r="N39" s="16">
+        <v>102</v>
+      </c>
+      <c r="O39" s="41">
+        <f t="shared" si="2"/>
+        <v>185.45454545454544</v>
+      </c>
+      <c r="P39" s="16">
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="Q39" s="41">
+        <f t="shared" si="3"/>
+        <v>73.096469429332629</v>
+      </c>
+      <c r="R39" s="24">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="S39" s="42">
+        <f t="shared" si="4"/>
+        <v>73.355629877369012</v>
+      </c>
+      <c r="T39" s="24">
+        <v>6.8</v>
+      </c>
+      <c r="U39" s="42">
+        <f t="shared" si="5"/>
+        <v>57.142857142857139</v>
+      </c>
       <c r="V39" s="24"/>
       <c r="W39" s="24"/>
       <c r="X39" s="24"/>
       <c r="Y39" s="24"/>
       <c r="Z39" s="24"/>
     </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>37</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="33">
+        <v>15</v>
+      </c>
+      <c r="D40" s="33">
+        <v>10</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33">
+        <v>4</v>
+      </c>
+      <c r="H40" s="33">
+        <v>5</v>
+      </c>
+      <c r="I40" s="33">
+        <v>18</v>
+      </c>
+      <c r="J40" s="15">
+        <v>73</v>
+      </c>
+      <c r="K40" s="40">
+        <f t="shared" ref="K40:K56" si="6">J40/$J$3*100</f>
+        <v>251.72413793103448</v>
+      </c>
+      <c r="L40" s="16">
+        <v>97</v>
+      </c>
+      <c r="M40" s="41">
+        <f t="shared" ref="M40:M56" si="7">L40/$L$3*100</f>
+        <v>236.58536585365852</v>
+      </c>
+      <c r="N40" s="16">
+        <v>101</v>
+      </c>
+      <c r="O40" s="41">
+        <f t="shared" ref="O40:O56" si="8">N40/$N$3*100</f>
+        <v>183.63636363636365</v>
+      </c>
+      <c r="P40" s="16">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="Q40" s="42">
+        <f t="shared" ref="Q40:Q56" si="9">P40/$P$3*100</f>
+        <v>62.798038820605818</v>
+      </c>
+      <c r="R40" s="24">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="S40" s="42">
+        <f t="shared" ref="S40:S56" si="10">R40/$R$3*100</f>
+        <v>63.076923076923073</v>
+      </c>
+      <c r="T40" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="U40" s="42">
+        <f t="shared" ref="U40:U56" si="11">T40/$T$3*100</f>
+        <v>63.02521008403361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>38</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="33">
+        <v>15</v>
+      </c>
+      <c r="D41" s="33">
+        <v>10</v>
+      </c>
+      <c r="E41" s="33">
+        <v>2.1</v>
+      </c>
+      <c r="F41" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="G41" s="33">
+        <v>4</v>
+      </c>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="15">
+        <v>71</v>
+      </c>
+      <c r="K41" s="40">
+        <f t="shared" si="6"/>
+        <v>244.82758620689654</v>
+      </c>
+      <c r="L41" s="16">
+        <v>92</v>
+      </c>
+      <c r="M41" s="41">
+        <f t="shared" si="7"/>
+        <v>224.39024390243904</v>
+      </c>
+      <c r="N41" s="16">
+        <v>98</v>
+      </c>
+      <c r="O41" s="41">
+        <f t="shared" si="8"/>
+        <v>178.18181818181819</v>
+      </c>
+      <c r="P41" s="16">
+        <v>0.2102</v>
+      </c>
+      <c r="Q41" s="41">
+        <f t="shared" si="9"/>
+        <v>47.059350303355949</v>
+      </c>
+      <c r="R41" s="24">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="S41" s="42">
+        <f t="shared" si="10"/>
+        <v>47.402452619843928</v>
+      </c>
+      <c r="T41" s="24">
+        <v>9.9</v>
+      </c>
+      <c r="U41" s="42">
+        <f t="shared" si="11"/>
+        <v>83.193277310924373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>39</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="M42" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="16"/>
+      <c r="O42" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="24"/>
+      <c r="S42" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="24"/>
+      <c r="U42" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>40</v>
+      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="M43" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="16"/>
+      <c r="O43" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="24"/>
+      <c r="S43" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="24"/>
+      <c r="U43" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>41</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="16"/>
+      <c r="O44" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="24"/>
+      <c r="S44" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="24"/>
+      <c r="U44" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
+        <v>42</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="16"/>
+      <c r="O45" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="24"/>
+      <c r="S45" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="24"/>
+      <c r="U45" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>43</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="16"/>
+      <c r="O46" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="24"/>
+      <c r="S46" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="24"/>
+      <c r="U46" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>44</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="16"/>
+      <c r="M47" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="16"/>
+      <c r="O47" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="24"/>
+      <c r="S47" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="24"/>
+      <c r="U47" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
+        <v>45</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="16"/>
+      <c r="O48" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="24"/>
+      <c r="S48" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="24"/>
+      <c r="U48" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>46</v>
+      </c>
+      <c r="B49" s="64"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="16"/>
+      <c r="O49" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="24"/>
+      <c r="S49" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="24"/>
+      <c r="U49" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>47</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="16"/>
+      <c r="O50" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="24"/>
+      <c r="S50" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="24"/>
+      <c r="U50" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>48</v>
+      </c>
+      <c r="B51" s="64"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="16"/>
+      <c r="O51" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="24"/>
+      <c r="S51" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="24"/>
+      <c r="U51" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>49</v>
+      </c>
+      <c r="B52" s="64"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="M52" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="16"/>
+      <c r="O52" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="24"/>
+      <c r="S52" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="24"/>
+      <c r="U52" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>50</v>
+      </c>
+      <c r="B53" s="64"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="16"/>
+      <c r="O53" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="24"/>
+      <c r="S53" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="24"/>
+      <c r="U53" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>51</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="16"/>
+      <c r="M54" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="16"/>
+      <c r="O54" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="24"/>
+      <c r="S54" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="24"/>
+      <c r="U54" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>52</v>
+      </c>
+      <c r="B55" s="64"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="O55" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="24"/>
+      <c r="S55" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="24"/>
+      <c r="U55" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>53</v>
+      </c>
+      <c r="B56" s="64"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="16"/>
+      <c r="O56" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="24"/>
+      <c r="S56" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="24"/>
+      <c r="U56" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>54</v>
+      </c>
+      <c r="B57" s="64"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="40">
+        <f t="shared" ref="K57:K66" si="12">J57/$J$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="41">
+        <f t="shared" ref="M57:M66" si="13">L57/$L$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="16"/>
+      <c r="O57" s="41">
+        <f t="shared" ref="O57:O66" si="14">N57/$N$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="42">
+        <f t="shared" ref="Q57:Q66" si="15">P57/$P$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="24"/>
+      <c r="S57" s="42">
+        <f t="shared" ref="S57:S66" si="16">R57/$R$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="24"/>
+      <c r="U57" s="42">
+        <f t="shared" ref="U57:U66" si="17">T57/$T$3*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>55</v>
+      </c>
+      <c r="B58" s="64"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="16"/>
+      <c r="O58" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="24"/>
+      <c r="S58" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="24"/>
+      <c r="U58" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>56</v>
+      </c>
+      <c r="B59" s="64"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="M59" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="16"/>
+      <c r="O59" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="24"/>
+      <c r="S59" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="24"/>
+      <c r="U59" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>57</v>
+      </c>
+      <c r="B60" s="64"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="16"/>
+      <c r="O60" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="24"/>
+      <c r="S60" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="24"/>
+      <c r="U60" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>58</v>
+      </c>
+      <c r="B61" s="64"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="16"/>
+      <c r="O61" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="24"/>
+      <c r="S61" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="24"/>
+      <c r="U61" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>59</v>
+      </c>
+      <c r="B62" s="64"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="16"/>
+      <c r="O62" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="24"/>
+      <c r="S62" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="24"/>
+      <c r="U62" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
+        <v>60</v>
+      </c>
+      <c r="B63" s="64"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="16"/>
+      <c r="O63" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="24"/>
+      <c r="S63" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="24"/>
+      <c r="U63" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>61</v>
+      </c>
+      <c r="B64" s="64"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="16"/>
+      <c r="O64" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="24"/>
+      <c r="S64" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="24"/>
+      <c r="U64" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>62</v>
+      </c>
+      <c r="B65" s="64"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="16"/>
+      <c r="M65" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="16"/>
+      <c r="O65" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="24"/>
+      <c r="S65" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="24"/>
+      <c r="U65" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
+        <v>63</v>
+      </c>
+      <c r="B66" s="64"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="16"/>
+      <c r="M66" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="16"/>
+      <c r="O66" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="24"/>
+      <c r="S66" s="42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="24"/>
+      <c r="U66" s="42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
@@ -6018,44 +9218,3486 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K4:K19 M4:M19 O4:O19 Q4:Q19">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="K4:K66 M4:M66 O4:O66 Q4:Q66">
+    <cfRule type="cellIs" dxfId="81" priority="38" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="39" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S19">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="S4:S66">
+    <cfRule type="cellIs" dxfId="78" priority="35" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="36" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="37" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U19">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="U4:U66">
+    <cfRule type="cellIs" dxfId="75" priority="32" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="33" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="34" operator="greaterThan">
       <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B66">
+    <cfRule type="cellIs" dxfId="72" priority="29" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="30" operator="lessThan">
+      <formula>"$B$3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="31" operator="lessThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C31 C33:C66">
+    <cfRule type="cellIs" dxfId="69" priority="27" operator="lessThan">
+      <formula>$C$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="28" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D31 D33:D66">
+    <cfRule type="cellIs" dxfId="67" priority="25" operator="lessThan">
+      <formula>$D$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="26" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E31 E33:E66">
+    <cfRule type="cellIs" dxfId="65" priority="23" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="24" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F31 F33:F66">
+    <cfRule type="cellIs" dxfId="63" priority="21" operator="lessThan">
+      <formula>$F$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="22" operator="greaterThan">
+      <formula>$F$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G31 G33:G66">
+    <cfRule type="cellIs" dxfId="61" priority="19" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="20" operator="greaterThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H31 H33:H66">
+    <cfRule type="cellIs" dxfId="59" priority="17" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="18" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I31 I33:I66">
+    <cfRule type="cellIs" dxfId="57" priority="15" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="16" operator="greaterThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="55" priority="13" operator="lessThan">
+      <formula>$C$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="14" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="lessThan">
+      <formula>$D$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="lessThan">
+      <formula>$F$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThan">
+      <formula>$F$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="greaterThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="74"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="73"/>
+      <c r="U2" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="80"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="28">
+        <v>15</v>
+      </c>
+      <c r="D3" s="28">
+        <v>10</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>2</v>
+      </c>
+      <c r="H3" s="28">
+        <v>100</v>
+      </c>
+      <c r="I3" s="28">
+        <v>5</v>
+      </c>
+      <c r="J3" s="28">
+        <v>18</v>
+      </c>
+      <c r="K3" s="77">
+        <v>29</v>
+      </c>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78">
+        <v>41</v>
+      </c>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78">
+        <v>55</v>
+      </c>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="76">
+        <v>0.44667000000000001</v>
+      </c>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76">
+        <v>11.9</v>
+      </c>
+      <c r="V3" s="76"/>
+      <c r="W3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="31">
+        <v>26.9</v>
+      </c>
+      <c r="Y3" s="32">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>13.7</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="AB3" s="65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="40">
+        <f>K4/$K$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="41">
+        <f>M4/$M$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="41">
+        <f>O4/$O$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="42">
+        <f>Q4/$Q$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="42">
+        <f>S4/$S$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="24"/>
+      <c r="V4" s="42">
+        <f>U4/$U$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="40">
+        <f t="shared" ref="L5:L66" si="0">K5/$K$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="41">
+        <f t="shared" ref="N5:N66" si="1">M5/$M$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="41">
+        <f t="shared" ref="P5:P66" si="2">O5/$O$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="42">
+        <f t="shared" ref="R5:R66" si="3">Q5/$Q$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="24"/>
+      <c r="T5" s="42">
+        <f t="shared" ref="T5:T66" si="4">S5/$S$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="24"/>
+      <c r="V5" s="42">
+        <f t="shared" ref="V5:V66" si="5">U5/$U$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="40">
+        <f>K6/$K$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="24"/>
+      <c r="V6" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="43"/>
+      <c r="N8" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="24"/>
+      <c r="T11" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
+        <v>9</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="24"/>
+      <c r="T12" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="24"/>
+      <c r="V12" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="24"/>
+      <c r="T13" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="24"/>
+      <c r="V13" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>11</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="24"/>
+      <c r="T14" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="24"/>
+      <c r="V14" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="24"/>
+      <c r="T15" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="24"/>
+      <c r="V15" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>13</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="43"/>
+      <c r="N16" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="24"/>
+      <c r="T16" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="24"/>
+      <c r="V16" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>14</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="24"/>
+      <c r="T17" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="24"/>
+      <c r="V17" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>15</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="54"/>
+      <c r="N18" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="55"/>
+      <c r="P18" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="24"/>
+      <c r="T18" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="24"/>
+      <c r="V18" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="54"/>
+      <c r="N19" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="55"/>
+      <c r="P19" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="24"/>
+      <c r="T19" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="24"/>
+      <c r="V19" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>17</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="24"/>
+      <c r="T20" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="24"/>
+      <c r="V20" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>18</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="24"/>
+      <c r="T21" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="24"/>
+      <c r="V21" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>19</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="24"/>
+      <c r="T22" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="24"/>
+      <c r="V22" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>20</v>
+      </c>
+      <c r="B23" s="64"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="24"/>
+      <c r="T23" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="24"/>
+      <c r="V23" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>21</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="24"/>
+      <c r="T24" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="24"/>
+      <c r="V24" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>22</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="16"/>
+      <c r="N25" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="24"/>
+      <c r="T25" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="24"/>
+      <c r="V25" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="24"/>
+      <c r="T26" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="24"/>
+      <c r="V26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>24</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="24"/>
+      <c r="T27" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="24"/>
+      <c r="V27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>25</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="24"/>
+      <c r="T28" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="24"/>
+      <c r="V28" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>26</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="24"/>
+      <c r="T29" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="24"/>
+      <c r="V29" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>27</v>
+      </c>
+      <c r="B30" s="64"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="16"/>
+      <c r="N30" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="24"/>
+      <c r="T30" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="24"/>
+      <c r="V30" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>28</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="16"/>
+      <c r="N31" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="24"/>
+      <c r="T31" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="24"/>
+      <c r="V31" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>29</v>
+      </c>
+      <c r="B32" s="64"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="16"/>
+      <c r="N32" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="24"/>
+      <c r="T32" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="24"/>
+      <c r="V32" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>30</v>
+      </c>
+      <c r="B33" s="64"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="16"/>
+      <c r="N33" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="24"/>
+      <c r="T33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="24"/>
+      <c r="V33" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>31</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="16"/>
+      <c r="N34" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="24"/>
+      <c r="T34" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="24"/>
+      <c r="V34" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>32</v>
+      </c>
+      <c r="B35" s="64"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="16"/>
+      <c r="N35" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="24"/>
+      <c r="T35" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="24"/>
+      <c r="V35" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>33</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="16"/>
+      <c r="N36" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="24"/>
+      <c r="T36" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="24"/>
+      <c r="V36" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>34</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="16"/>
+      <c r="N37" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="24"/>
+      <c r="T37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="24"/>
+      <c r="V37" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>35</v>
+      </c>
+      <c r="B38" s="64"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="16"/>
+      <c r="N38" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="24"/>
+      <c r="T38" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="24"/>
+      <c r="V38" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>36</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="16"/>
+      <c r="N39" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="24"/>
+      <c r="T39" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="24"/>
+      <c r="V39" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>37</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="16"/>
+      <c r="N40" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="16"/>
+      <c r="P40" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="24"/>
+      <c r="T40" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="24"/>
+      <c r="V40" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>38</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="16"/>
+      <c r="N41" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="24"/>
+      <c r="T41" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="24"/>
+      <c r="V41" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>39</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="16"/>
+      <c r="N42" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="16"/>
+      <c r="P42" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="24"/>
+      <c r="T42" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="24"/>
+      <c r="V42" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>40</v>
+      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="16"/>
+      <c r="N43" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="16"/>
+      <c r="P43" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="24"/>
+      <c r="T43" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="24"/>
+      <c r="V43" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>41</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="16"/>
+      <c r="N44" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="16"/>
+      <c r="P44" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="24"/>
+      <c r="T44" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="24"/>
+      <c r="V44" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
+        <v>42</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="16"/>
+      <c r="N45" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="16"/>
+      <c r="P45" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="24"/>
+      <c r="T45" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="24"/>
+      <c r="V45" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>43</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="16"/>
+      <c r="N46" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="16"/>
+      <c r="P46" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="24"/>
+      <c r="T46" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="24"/>
+      <c r="V46" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>44</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="16"/>
+      <c r="N47" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="16"/>
+      <c r="P47" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="24"/>
+      <c r="T47" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="24"/>
+      <c r="V47" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
+        <v>45</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="16"/>
+      <c r="N48" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="16"/>
+      <c r="P48" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="24"/>
+      <c r="T48" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="24"/>
+      <c r="V48" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>46</v>
+      </c>
+      <c r="B49" s="64"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="16"/>
+      <c r="N49" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="16"/>
+      <c r="P49" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="24"/>
+      <c r="T49" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="24"/>
+      <c r="V49" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>47</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="16"/>
+      <c r="N50" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="16"/>
+      <c r="P50" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="24"/>
+      <c r="T50" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="24"/>
+      <c r="V50" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>48</v>
+      </c>
+      <c r="B51" s="64"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="16"/>
+      <c r="N51" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="16"/>
+      <c r="P51" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="24"/>
+      <c r="T51" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="24"/>
+      <c r="V51" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>49</v>
+      </c>
+      <c r="B52" s="64"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="16"/>
+      <c r="N52" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="16"/>
+      <c r="P52" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="24"/>
+      <c r="T52" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="24"/>
+      <c r="V52" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>50</v>
+      </c>
+      <c r="B53" s="64"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="16"/>
+      <c r="N53" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="16"/>
+      <c r="P53" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="24"/>
+      <c r="T53" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="24"/>
+      <c r="V53" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>51</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="16"/>
+      <c r="N54" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="16"/>
+      <c r="P54" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="24"/>
+      <c r="T54" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="24"/>
+      <c r="V54" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>52</v>
+      </c>
+      <c r="B55" s="64"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="16"/>
+      <c r="N55" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="16"/>
+      <c r="P55" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="24"/>
+      <c r="T55" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="24"/>
+      <c r="V55" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>53</v>
+      </c>
+      <c r="B56" s="64"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="16"/>
+      <c r="N56" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="16"/>
+      <c r="P56" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="24"/>
+      <c r="T56" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="24"/>
+      <c r="V56" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>54</v>
+      </c>
+      <c r="B57" s="64"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="16"/>
+      <c r="N57" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="16"/>
+      <c r="P57" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="24"/>
+      <c r="T57" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="24"/>
+      <c r="V57" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>55</v>
+      </c>
+      <c r="B58" s="64"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="16"/>
+      <c r="N58" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="16"/>
+      <c r="P58" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="24"/>
+      <c r="T58" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="24"/>
+      <c r="V58" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>56</v>
+      </c>
+      <c r="B59" s="64"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="16"/>
+      <c r="N59" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="16"/>
+      <c r="P59" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="24"/>
+      <c r="T59" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="24"/>
+      <c r="V59" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>57</v>
+      </c>
+      <c r="B60" s="64"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="16"/>
+      <c r="N60" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="16"/>
+      <c r="P60" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="24"/>
+      <c r="T60" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="24"/>
+      <c r="V60" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>58</v>
+      </c>
+      <c r="B61" s="64"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="16"/>
+      <c r="N61" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="16"/>
+      <c r="P61" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="24"/>
+      <c r="T61" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="24"/>
+      <c r="V61" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>59</v>
+      </c>
+      <c r="B62" s="64"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="16"/>
+      <c r="N62" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="16"/>
+      <c r="P62" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="24"/>
+      <c r="T62" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="24"/>
+      <c r="V62" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
+        <v>60</v>
+      </c>
+      <c r="B63" s="64"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="16"/>
+      <c r="N63" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="16"/>
+      <c r="P63" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="24"/>
+      <c r="T63" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="24"/>
+      <c r="V63" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>61</v>
+      </c>
+      <c r="B64" s="64"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="16"/>
+      <c r="N64" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="16"/>
+      <c r="P64" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="24"/>
+      <c r="T64" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="24"/>
+      <c r="V64" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>62</v>
+      </c>
+      <c r="B65" s="64"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="16"/>
+      <c r="N65" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="16"/>
+      <c r="P65" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="24"/>
+      <c r="T65" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="24"/>
+      <c r="V65" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
+        <v>63</v>
+      </c>
+      <c r="B66" s="64"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="16"/>
+      <c r="N66" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="16"/>
+      <c r="P66" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="24"/>
+      <c r="T66" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="24"/>
+      <c r="V66" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I33:I66">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L66 N4:N66 P4:P66 R4:R66">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T66">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4:V66">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B66">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
+      <formula>"$B$3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="lessThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C31 C33:C66">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
+      <formula>$C$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D31 D33:D66">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+      <formula>$D$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E31 E33:E66">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F31 F33:F66">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+      <formula>$F$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
+      <formula>$F$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H31 G33:H66">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I31">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J31 J33:J66">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+      <formula>$J$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+      <formula>$J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+      <formula>$C$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+      <formula>$D$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>$F$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>$F$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$J$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbook_Model_Testing.xlsx
+++ b/Workbook_Model_Testing.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v3" sheetId="1" r:id="rId1"/>
     <sheet name="v4" sheetId="2" r:id="rId2"/>
     <sheet name="v7" sheetId="3" r:id="rId3"/>
     <sheet name="v8" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="v9" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
   <si>
     <t>t_0_100</t>
   </si>
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -581,6 +581,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,6 +620,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -638,7 +658,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="137">
     <dxf>
       <font>
         <color theme="4"/>
@@ -953,17 +973,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -972,18 +981,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -993,18 +991,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1014,7 +1001,18 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1026,6 +1024,17 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1034,7 +1043,18 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1046,6 +1066,17 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1054,7 +1085,18 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1066,6 +1108,17 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1314,7 +1367,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1324,7 +1377,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1346,17 +1399,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1367,17 +1409,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1386,18 +1417,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1407,18 +1427,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1428,7 +1437,18 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1440,6 +1460,17 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1448,7 +1479,18 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1458,7 +1500,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1468,7 +1510,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1478,7 +1520,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1488,7 +1530,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1498,7 +1540,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1508,7 +1550,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1518,7 +1560,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1528,7 +1570,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1538,7 +1580,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1548,7 +1590,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1558,7 +1600,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1568,7 +1610,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1578,7 +1620,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1588,7 +1630,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1598,7 +1640,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1608,7 +1650,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1618,7 +1660,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1628,7 +1670,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1638,7 +1680,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1648,7 +1690,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1658,7 +1700,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1668,7 +1710,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1678,7 +1720,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1688,7 +1730,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1698,7 +1740,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1718,7 +1760,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1728,7 +1770,78 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -2094,10 +2207,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="71"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
@@ -2814,17 +2927,17 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="73"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="75"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -3879,20 +3992,20 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="74"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="15"/>
       <c r="K1" s="35"/>
       <c r="L1" s="16"/>
@@ -3934,22 +4047,22 @@
       <c r="I2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80" t="s">
+      <c r="J2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80" t="s">
+      <c r="M2" s="82"/>
+      <c r="N2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="73"/>
+      <c r="Q2" s="75"/>
       <c r="R2" s="34"/>
       <c r="S2" s="24"/>
       <c r="T2" s="26" t="s">
@@ -3993,22 +4106,22 @@
       <c r="I3" s="28">
         <v>25</v>
       </c>
-      <c r="J3" s="77">
+      <c r="J3" s="79">
         <v>42</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78">
+      <c r="K3" s="80"/>
+      <c r="L3" s="80">
         <v>46</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78">
+      <c r="M3" s="80"/>
+      <c r="N3" s="80">
         <v>55</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="76">
+      <c r="O3" s="80"/>
+      <c r="P3" s="78">
         <v>0.28554000000000002</v>
       </c>
-      <c r="Q3" s="76"/>
+      <c r="Q3" s="78"/>
       <c r="R3" s="39"/>
       <c r="S3" s="24" t="s">
         <v>12</v>
@@ -5365,13 +5478,13 @@
     <mergeCell ref="N3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K19 M4:M19 O4:O19 Q4:Q19">
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="2" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5383,8 +5496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="A1:AA66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5394,18 +5508,18 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="74"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="15"/>
       <c r="K1" s="35"/>
       <c r="L1" s="16"/>
@@ -5436,10 +5550,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>22</v>
@@ -5450,30 +5564,30 @@
       <c r="I2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80" t="s">
+      <c r="J2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80" t="s">
+      <c r="M2" s="82"/>
+      <c r="N2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="73"/>
-      <c r="T2" s="80" t="s">
+      <c r="S2" s="75"/>
+      <c r="T2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="80"/>
+      <c r="U2" s="82"/>
       <c r="V2" s="24"/>
       <c r="W2" s="37" t="s">
         <v>0</v>
@@ -5519,30 +5633,30 @@
       <c r="I3" s="28">
         <v>25</v>
       </c>
-      <c r="J3" s="77">
+      <c r="J3" s="79">
         <v>29</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78">
+      <c r="K3" s="80"/>
+      <c r="L3" s="80">
         <v>41</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78">
+      <c r="M3" s="80"/>
+      <c r="N3" s="80">
         <v>55</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="76">
+      <c r="O3" s="80"/>
+      <c r="P3" s="78">
         <v>0.44667000000000001</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78">
         <v>0.44850000000000001</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76">
+      <c r="S3" s="78"/>
+      <c r="T3" s="78">
         <v>11.9</v>
       </c>
-      <c r="U3" s="76"/>
+      <c r="U3" s="78"/>
       <c r="V3" s="24" t="s">
         <v>12</v>
       </c>
@@ -7542,7 +7656,7 @@
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>30</v>
       </c>
@@ -7606,7 +7720,7 @@
       <c r="Y33" s="24"/>
       <c r="Z33" s="24"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>31</v>
       </c>
@@ -7668,7 +7782,7 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>32</v>
       </c>
@@ -7730,7 +7844,7 @@
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>33</v>
       </c>
@@ -7806,7 +7920,7 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>34</v>
       </c>
@@ -7870,7 +7984,7 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>35</v>
       </c>
@@ -7934,7 +8048,7 @@
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>36</v>
       </c>
@@ -7998,7 +8112,7 @@
       <c r="Y39" s="24"/>
       <c r="Z39" s="24"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>37</v>
       </c>
@@ -8063,7 +8177,7 @@
         <v>63.02521008403361</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>38</v>
       </c>
@@ -8128,226 +8242,320 @@
         <v>83.193277310924373</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
+    <row r="42" spans="1:27" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="70">
+        <v>0.01</v>
+      </c>
+      <c r="C42" s="71">
+        <v>15</v>
+      </c>
+      <c r="D42" s="71">
+        <v>10</v>
+      </c>
+      <c r="E42" s="71">
+        <v>2.1</v>
+      </c>
+      <c r="F42" s="71">
+        <v>0.18</v>
+      </c>
+      <c r="G42" s="71">
+        <v>2</v>
+      </c>
+      <c r="H42" s="71">
+        <v>5</v>
+      </c>
+      <c r="I42" s="71">
+        <v>18</v>
+      </c>
+      <c r="J42" s="79">
+        <v>71</v>
+      </c>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80">
+        <v>92</v>
+      </c>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80">
+        <v>98</v>
+      </c>
+      <c r="O42" s="80"/>
+      <c r="P42" s="78">
+        <v>0.2102</v>
+      </c>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78">
+        <v>9.9</v>
+      </c>
+      <c r="U42" s="78"/>
+      <c r="V42" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="W42" s="84">
+        <v>26.9</v>
+      </c>
+      <c r="X42" s="85">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Y42" s="85">
+        <v>13.7</v>
+      </c>
+      <c r="Z42" s="86">
+        <v>0.23</v>
+      </c>
+      <c r="AA42" s="87">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
         <v>39</v>
-      </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="16"/>
-      <c r="O42" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="24"/>
-      <c r="S42" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="24"/>
-      <c r="U42" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
-        <v>40</v>
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="D43" s="33">
+        <v>8</v>
+      </c>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
-      <c r="J43" s="15"/>
+      <c r="J43" s="15">
+        <v>77</v>
+      </c>
       <c r="K43" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="16"/>
+        <f>J43/$J$42*100</f>
+        <v>108.45070422535213</v>
+      </c>
+      <c r="L43" s="16">
+        <v>105</v>
+      </c>
       <c r="M43" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="16"/>
+        <f>L43/$L$42*100</f>
+        <v>114.13043478260869</v>
+      </c>
+      <c r="N43" s="16">
+        <v>110</v>
+      </c>
       <c r="O43" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="16"/>
+        <f>N43/$N$42*100</f>
+        <v>112.24489795918366</v>
+      </c>
+      <c r="P43" s="16">
+        <v>0.2346</v>
+      </c>
       <c r="Q43" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="24"/>
+        <f>P43/$P$42*100</f>
+        <v>111.60799238820172</v>
+      </c>
+      <c r="R43" s="24">
+        <v>0.24060000000000001</v>
+      </c>
       <c r="S43" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="24"/>
+        <f>R43/$R$42*100</f>
+        <v>113.17027281279397</v>
+      </c>
+      <c r="T43" s="24">
+        <v>8</v>
+      </c>
       <c r="U43" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+        <f>T43/$T$42*100</f>
+        <v>80.808080808080803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="64"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="D44" s="33">
+        <v>8</v>
+      </c>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="15"/>
+      <c r="I44" s="33">
+        <v>20</v>
+      </c>
+      <c r="J44" s="15">
+        <v>74</v>
+      </c>
       <c r="K44" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="16"/>
+        <f t="shared" ref="K44:K66" si="12">J44/$J$42*100</f>
+        <v>104.22535211267605</v>
+      </c>
+      <c r="L44" s="16">
+        <v>100</v>
+      </c>
       <c r="M44" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="16"/>
+        <f t="shared" ref="M44:M66" si="13">L44/$L$42*100</f>
+        <v>108.69565217391303</v>
+      </c>
+      <c r="N44" s="16">
+        <v>106</v>
+      </c>
       <c r="O44" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="24"/>
+        <f t="shared" ref="O44:O66" si="14">N44/$N$42*100</f>
+        <v>108.16326530612245</v>
+      </c>
+      <c r="P44" s="16">
+        <v>0.2404</v>
+      </c>
+      <c r="Q44" s="42">
+        <f t="shared" ref="Q44:Q66" si="15">P44/$P$42*100</f>
+        <v>114.36726926736442</v>
+      </c>
+      <c r="R44" s="24">
+        <v>0.24690000000000001</v>
+      </c>
       <c r="S44" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="24"/>
+        <f t="shared" ref="S44:S66" si="16">R44/$R$42*100</f>
+        <v>116.13358419567261</v>
+      </c>
+      <c r="T44" s="24">
+        <v>8.1</v>
+      </c>
       <c r="U44" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U44:U66" si="17">T44/$T$42*100</f>
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="64"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="D45" s="33">
+        <v>5</v>
+      </c>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="15"/>
+      <c r="I45" s="33">
+        <v>25</v>
+      </c>
+      <c r="J45" s="15">
+        <v>81</v>
+      </c>
       <c r="K45" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="16"/>
+        <f t="shared" si="12"/>
+        <v>114.08450704225352</v>
+      </c>
+      <c r="L45" s="16">
+        <v>126</v>
+      </c>
       <c r="M45" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="16"/>
+        <f t="shared" si="13"/>
+        <v>136.95652173913044</v>
+      </c>
+      <c r="N45" s="16">
+        <v>146</v>
+      </c>
       <c r="O45" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="24"/>
+        <f t="shared" si="14"/>
+        <v>148.9795918367347</v>
+      </c>
+      <c r="P45" s="16">
+        <v>0.2999</v>
+      </c>
+      <c r="Q45" s="42">
+        <f>P45/$P$42*100</f>
+        <v>142.67364414843007</v>
+      </c>
+      <c r="R45" s="24">
+        <v>0.32940000000000003</v>
+      </c>
       <c r="S45" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="24"/>
+        <f t="shared" si="16"/>
+        <v>154.93885230479773</v>
+      </c>
+      <c r="T45" s="24">
+        <v>5.2</v>
+      </c>
       <c r="U45" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>52.525252525252533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
-        <v>43</v>
-      </c>
-      <c r="B46" s="64"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="64">
+        <v>0.02</v>
+      </c>
       <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="D46" s="33">
+        <v>8</v>
+      </c>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="15"/>
+      <c r="I46" s="33">
+        <v>20</v>
+      </c>
+      <c r="J46" s="15">
+        <v>97</v>
+      </c>
       <c r="K46" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="16"/>
+        <f t="shared" si="12"/>
+        <v>136.61971830985914</v>
+      </c>
+      <c r="L46" s="16">
+        <v>116</v>
+      </c>
       <c r="M46" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="16"/>
+        <f t="shared" si="13"/>
+        <v>126.08695652173914</v>
+      </c>
+      <c r="N46" s="16">
+        <v>111</v>
+      </c>
       <c r="O46" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="16"/>
+        <f t="shared" si="14"/>
+        <v>113.26530612244898</v>
+      </c>
+      <c r="P46" s="16">
+        <v>0.50919999999999999</v>
+      </c>
       <c r="Q46" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="24"/>
+        <f t="shared" si="15"/>
+        <v>242.24548049476687</v>
+      </c>
+      <c r="R46" s="24">
+        <v>0.51449999999999996</v>
+      </c>
       <c r="S46" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="24"/>
+        <f t="shared" si="16"/>
+        <v>242.00376293508933</v>
+      </c>
+      <c r="T46" s="24">
+        <v>4.5</v>
+      </c>
       <c r="U46" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
-        <v>44</v>
-      </c>
-      <c r="B47" s="64"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="64">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
@@ -8355,126 +8563,180 @@
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
-      <c r="J47" s="15"/>
+      <c r="J47" s="15">
+        <v>90</v>
+      </c>
       <c r="K47" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="16"/>
+        <f t="shared" si="12"/>
+        <v>126.7605633802817</v>
+      </c>
+      <c r="L47" s="16">
+        <v>111</v>
+      </c>
       <c r="M47" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="16"/>
+        <f t="shared" si="13"/>
+        <v>120.65217391304348</v>
+      </c>
+      <c r="N47" s="16">
+        <v>109</v>
+      </c>
       <c r="O47" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="24"/>
+        <f t="shared" si="14"/>
+        <v>111.22448979591837</v>
+      </c>
+      <c r="P47" s="16">
+        <v>0.44180000000000003</v>
+      </c>
+      <c r="Q47" s="42">
+        <f t="shared" si="15"/>
+        <v>210.18078020932447</v>
+      </c>
+      <c r="R47" s="24">
+        <v>0.44840000000000002</v>
+      </c>
       <c r="S47" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="24"/>
+        <f t="shared" si="16"/>
+        <v>210.91251175917213</v>
+      </c>
+      <c r="T47" s="24">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="U47" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>51.515151515151516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
-        <v>45</v>
-      </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="64">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C48" s="33">
+        <v>13</v>
+      </c>
+      <c r="D48" s="33">
+        <v>8</v>
+      </c>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="15"/>
+      <c r="I48" s="33">
+        <v>20</v>
+      </c>
+      <c r="J48" s="15">
+        <v>88</v>
+      </c>
       <c r="K48" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="16"/>
+        <f t="shared" si="12"/>
+        <v>123.94366197183098</v>
+      </c>
+      <c r="L48" s="16">
+        <v>108</v>
+      </c>
       <c r="M48" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="16"/>
+        <f t="shared" si="13"/>
+        <v>117.39130434782609</v>
+      </c>
+      <c r="N48" s="16">
+        <v>108</v>
+      </c>
       <c r="O48" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="24"/>
+        <f t="shared" si="14"/>
+        <v>110.20408163265304</v>
+      </c>
+      <c r="P48" s="16">
+        <v>0.37659999999999999</v>
+      </c>
+      <c r="Q48" s="42">
+        <f t="shared" si="15"/>
+        <v>179.16270218839202</v>
+      </c>
+      <c r="R48" s="24">
+        <v>0.38390000000000002</v>
+      </c>
       <c r="S48" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="24"/>
+        <f t="shared" si="16"/>
+        <v>180.57384760112888</v>
+      </c>
+      <c r="T48" s="24">
+        <v>5.7</v>
+      </c>
       <c r="U48" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>57.575757575757578</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
-        <v>46</v>
-      </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="64">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C49" s="33">
+        <v>13</v>
+      </c>
+      <c r="D49" s="33">
+        <v>8</v>
+      </c>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="15"/>
+      <c r="H49" s="33">
+        <v>4</v>
+      </c>
+      <c r="I49" s="33">
+        <v>20</v>
+      </c>
+      <c r="J49" s="15">
+        <v>89</v>
+      </c>
       <c r="K49" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="16"/>
+        <f t="shared" si="12"/>
+        <v>125.35211267605635</v>
+      </c>
+      <c r="L49" s="16">
+        <v>107</v>
+      </c>
       <c r="M49" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="16"/>
+        <f t="shared" si="13"/>
+        <v>116.30434782608697</v>
+      </c>
+      <c r="N49" s="16">
+        <v>108</v>
+      </c>
       <c r="O49" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="16"/>
+        <f t="shared" si="14"/>
+        <v>110.20408163265304</v>
+      </c>
+      <c r="P49" s="16">
+        <v>0.3659</v>
+      </c>
       <c r="Q49" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="24"/>
+        <f t="shared" si="15"/>
+        <v>174.07231208372977</v>
+      </c>
+      <c r="R49" s="24">
+        <v>0.37319999999999998</v>
+      </c>
       <c r="S49" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="24"/>
+        <f t="shared" si="16"/>
+        <v>175.54092191909686</v>
+      </c>
+      <c r="T49" s="24">
+        <v>5.8</v>
+      </c>
       <c r="U49" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>58.585858585858588</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="64"/>
       <c r="C50" s="33"/>
@@ -8486,38 +8748,38 @@
       <c r="I50" s="33"/>
       <c r="J50" s="15"/>
       <c r="K50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N50" s="16"/>
       <c r="O50" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P50" s="16"/>
-      <c r="Q50" s="41">
-        <f t="shared" si="9"/>
+      <c r="Q50" s="42">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R50" s="24"/>
       <c r="S50" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T50" s="24"/>
       <c r="U50" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="64"/>
       <c r="C51" s="33"/>
@@ -8529,38 +8791,38 @@
       <c r="I51" s="33"/>
       <c r="J51" s="15"/>
       <c r="K51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N51" s="16"/>
       <c r="O51" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P51" s="16"/>
-      <c r="Q51" s="41">
-        <f t="shared" si="9"/>
+      <c r="Q51" s="42">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R51" s="24"/>
       <c r="S51" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T51" s="24"/>
       <c r="U51" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="64"/>
       <c r="C52" s="33"/>
@@ -8572,38 +8834,38 @@
       <c r="I52" s="33"/>
       <c r="J52" s="15"/>
       <c r="K52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N52" s="16"/>
       <c r="O52" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P52" s="16"/>
       <c r="Q52" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R52" s="24"/>
       <c r="S52" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T52" s="24"/>
       <c r="U52" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="64"/>
       <c r="C53" s="33"/>
@@ -8615,38 +8877,38 @@
       <c r="I53" s="33"/>
       <c r="J53" s="15"/>
       <c r="K53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N53" s="16"/>
       <c r="O53" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P53" s="16"/>
-      <c r="Q53" s="41">
-        <f t="shared" si="9"/>
+      <c r="Q53" s="42">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R53" s="24"/>
       <c r="S53" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T53" s="24"/>
       <c r="U53" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="64"/>
       <c r="C54" s="33"/>
@@ -8658,38 +8920,38 @@
       <c r="I54" s="33"/>
       <c r="J54" s="15"/>
       <c r="K54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N54" s="16"/>
       <c r="O54" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P54" s="16"/>
       <c r="Q54" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R54" s="24"/>
       <c r="S54" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T54" s="24"/>
       <c r="U54" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="64"/>
       <c r="C55" s="33"/>
@@ -8701,38 +8963,38 @@
       <c r="I55" s="33"/>
       <c r="J55" s="15"/>
       <c r="K55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N55" s="16"/>
       <c r="O55" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P55" s="16"/>
-      <c r="Q55" s="41">
-        <f t="shared" si="9"/>
+      <c r="Q55" s="42">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R55" s="24"/>
       <c r="S55" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T55" s="24"/>
       <c r="U55" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="64"/>
       <c r="C56" s="33"/>
@@ -8744,38 +9006,38 @@
       <c r="I56" s="33"/>
       <c r="J56" s="15"/>
       <c r="K56" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N56" s="16"/>
       <c r="O56" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P56" s="16"/>
-      <c r="Q56" s="41">
-        <f t="shared" si="9"/>
+      <c r="Q56" s="42">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R56" s="24"/>
       <c r="S56" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T56" s="24"/>
       <c r="U56" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="64"/>
       <c r="C57" s="33"/>
@@ -8787,38 +9049,38 @@
       <c r="I57" s="33"/>
       <c r="J57" s="15"/>
       <c r="K57" s="40">
-        <f t="shared" ref="K57:K66" si="12">J57/$J$3*100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="41">
-        <f t="shared" ref="M57:M66" si="13">L57/$L$3*100</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N57" s="16"/>
       <c r="O57" s="41">
-        <f t="shared" ref="O57:O66" si="14">N57/$N$3*100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P57" s="16"/>
       <c r="Q57" s="42">
-        <f t="shared" ref="Q57:Q66" si="15">P57/$P$3*100</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R57" s="24"/>
       <c r="S57" s="42">
-        <f t="shared" ref="S57:S66" si="16">R57/$R$3*100</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T57" s="24"/>
       <c r="U57" s="42">
-        <f t="shared" ref="U57:U66" si="17">T57/$T$3*100</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="64"/>
       <c r="C58" s="33"/>
@@ -8844,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="16"/>
-      <c r="Q58" s="41">
+      <c r="Q58" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -8861,7 +9123,7 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="64"/>
       <c r="C59" s="33"/>
@@ -8887,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="16"/>
-      <c r="Q59" s="41">
+      <c r="Q59" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -8904,7 +9166,7 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="64"/>
       <c r="C60" s="33"/>
@@ -8947,7 +9209,7 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="64"/>
       <c r="C61" s="33"/>
@@ -8973,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="16"/>
-      <c r="Q61" s="41">
+      <c r="Q61" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -8990,7 +9252,7 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="64"/>
       <c r="C62" s="33"/>
@@ -9016,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="16"/>
-      <c r="Q62" s="41">
+      <c r="Q62" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -9033,7 +9295,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="64"/>
       <c r="C63" s="33"/>
@@ -9076,7 +9338,7 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="64"/>
       <c r="C64" s="33"/>
@@ -9102,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="16"/>
-      <c r="Q64" s="41">
+      <c r="Q64" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -9119,7 +9381,7 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="33"/>
@@ -9145,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="16"/>
-      <c r="Q65" s="41">
+      <c r="Q65" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -9162,7 +9424,7 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="64"/>
       <c r="C66" s="33"/>
@@ -9204,12 +9466,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="T2:U2"/>
+  <mergeCells count="20">
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="P2:Q2"/>
@@ -9219,164 +9482,237 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K4:K66 M4:M66 O4:O66 Q4:Q66">
-    <cfRule type="cellIs" dxfId="81" priority="38" operator="greaterThan">
+  <conditionalFormatting sqref="K4:K41 M4:M41 O4:O41 Q4:Q41 K43:K66 M43:M66 O43:O66 Q43:Q66">
+    <cfRule type="cellIs" dxfId="133" priority="55" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="56" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="57" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S66">
-    <cfRule type="cellIs" dxfId="78" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="S4:S41 S43:S66">
+    <cfRule type="cellIs" dxfId="130" priority="52" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="53" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="54" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U66">
-    <cfRule type="cellIs" dxfId="75" priority="32" operator="greaterThan">
+  <conditionalFormatting sqref="U4:U41 U43:U66">
+    <cfRule type="cellIs" dxfId="127" priority="49" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="50" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="51" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B66">
-    <cfRule type="cellIs" dxfId="72" priority="29" operator="greaterThan">
+  <conditionalFormatting sqref="B4:B41 B43:B48 B50:B66">
+    <cfRule type="cellIs" dxfId="124" priority="46" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="47" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="48" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C31 C33:C66">
-    <cfRule type="cellIs" dxfId="69" priority="27" operator="lessThan">
+  <conditionalFormatting sqref="C4:C31 C33:C41 C43:C48 C50:C66">
+    <cfRule type="cellIs" dxfId="121" priority="44" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="45" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D31 D33:D66">
-    <cfRule type="cellIs" dxfId="67" priority="25" operator="lessThan">
+  <conditionalFormatting sqref="D4:D31 D33:D41 D43:D48 D50:D66">
+    <cfRule type="cellIs" dxfId="119" priority="42" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="43" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E31 E33:E66">
-    <cfRule type="cellIs" dxfId="65" priority="23" operator="lessThan">
+  <conditionalFormatting sqref="E4:E31 E33:E41 E43:E48 E50:E66">
+    <cfRule type="cellIs" dxfId="117" priority="40" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="41" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F31 F33:F66">
-    <cfRule type="cellIs" dxfId="63" priority="21" operator="lessThan">
+  <conditionalFormatting sqref="F4:F31 F33:F41 F43:F48 F50:F66">
+    <cfRule type="cellIs" dxfId="115" priority="38" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="39" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G31 G33:G66">
-    <cfRule type="cellIs" dxfId="61" priority="19" operator="lessThan">
+  <conditionalFormatting sqref="G4:G31 G33:G41 G43:G48 G50:G66">
+    <cfRule type="cellIs" dxfId="113" priority="36" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="37" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H31 H33:H66">
-    <cfRule type="cellIs" dxfId="59" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="H4:H31 H33:H41 H43:H48 H50:H66">
+    <cfRule type="cellIs" dxfId="111" priority="34" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="35" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I31 I33:I66">
-    <cfRule type="cellIs" dxfId="57" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="I4:I31 I33:I41 I43:I48 I50:I66">
+    <cfRule type="cellIs" dxfId="109" priority="32" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="33" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="55" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="30" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="31" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="53" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="28" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="29" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="26" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="27" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="24" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="25" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="22" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="23" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="20" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="21" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="18" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="19" operator="greaterThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="lessThan">
+      <formula>"$B$3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="lessThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThan">
+      <formula>$C$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+      <formula>$D$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+      <formula>$F$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
+      <formula>$F$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9384,27 +9720,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
       <c r="H1" s="67"/>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="74"/>
+      <c r="J1" s="76"/>
       <c r="K1" s="15"/>
       <c r="L1" s="35"/>
       <c r="M1" s="16"/>
@@ -9452,30 +9788,30 @@
       <c r="J2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80" t="s">
+      <c r="K2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80" t="s">
+      <c r="N2" s="82"/>
+      <c r="O2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="73" t="s">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73" t="s">
+      <c r="R2" s="75"/>
+      <c r="S2" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="73"/>
-      <c r="U2" s="80" t="s">
+      <c r="T2" s="75"/>
+      <c r="U2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="80"/>
+      <c r="V2" s="82"/>
       <c r="W2" s="24"/>
       <c r="X2" s="68" t="s">
         <v>0</v>
@@ -9524,30 +9860,30 @@
       <c r="J3" s="28">
         <v>18</v>
       </c>
-      <c r="K3" s="77">
-        <v>29</v>
-      </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78">
-        <v>41</v>
-      </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78">
-        <v>55</v>
-      </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="76">
-        <v>0.44667000000000001</v>
-      </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76">
-        <v>0.44850000000000001</v>
-      </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76">
-        <v>11.9</v>
-      </c>
-      <c r="V3" s="76"/>
+      <c r="K3" s="79">
+        <v>70</v>
+      </c>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80">
+        <v>101</v>
+      </c>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80">
+        <v>100</v>
+      </c>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="78">
+        <v>0.441</v>
+      </c>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78">
+        <v>5.9</v>
+      </c>
+      <c r="V3" s="78"/>
       <c r="W3" s="24" t="s">
         <v>12</v>
       </c>
@@ -9571,7 +9907,9 @@
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="57">
+        <v>2E-3</v>
+      </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -10265,36 +10603,50 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="53"/>
+      <c r="J18" s="33">
+        <v>10</v>
+      </c>
+      <c r="K18" s="53">
+        <v>89</v>
+      </c>
       <c r="L18" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="54"/>
+        <v>127.14285714285714</v>
+      </c>
+      <c r="M18" s="54">
+        <v>132</v>
+      </c>
       <c r="N18" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="55"/>
+        <v>130.69306930693071</v>
+      </c>
+      <c r="O18" s="55">
+        <v>147</v>
+      </c>
       <c r="P18" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="46"/>
+        <v>147</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>0.3821</v>
+      </c>
       <c r="R18" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="24"/>
+        <v>86.643990929705211</v>
+      </c>
+      <c r="S18" s="24">
+        <v>0.37790000000000001</v>
+      </c>
       <c r="T18" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="24"/>
+        <v>84.673986107999113</v>
+      </c>
+      <c r="U18" s="24">
+        <v>5.4</v>
+      </c>
       <c r="V18" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>91.525423728813564</v>
       </c>
       <c r="W18" s="24"/>
       <c r="X18" s="24"/>
@@ -10314,36 +10666,50 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="53"/>
+      <c r="J19" s="33">
+        <v>25</v>
+      </c>
+      <c r="K19" s="53">
+        <v>60</v>
+      </c>
       <c r="L19" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="54"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="M19" s="54">
+        <v>91</v>
+      </c>
       <c r="N19" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="55"/>
+        <v>90.099009900990097</v>
+      </c>
+      <c r="O19" s="55">
+        <v>87</v>
+      </c>
       <c r="P19" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="46"/>
+        <v>87</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0.47649999999999998</v>
+      </c>
       <c r="R19" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="24"/>
+        <v>108.04988662131518</v>
+      </c>
+      <c r="S19" s="24">
+        <v>0.48330000000000001</v>
+      </c>
       <c r="T19" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="24"/>
+        <v>108.29038763163791</v>
+      </c>
+      <c r="U19" s="24">
+        <v>6.1</v>
+      </c>
       <c r="V19" s="42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>103.38983050847457</v>
       </c>
       <c r="W19" s="24"/>
       <c r="X19" s="24"/>
@@ -12521,6 +12887,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="K3:L3"/>
@@ -12529,174 +12900,169 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="I33:I66">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="1" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="2" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L66 N4:N66 P4:P66 R4:R66">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="38" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="39" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T66">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="35" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="36" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="37" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V66">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="32" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="33" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="34" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B66">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="29" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="30" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="31" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C66">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="27" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="28" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D66">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:E66">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31 F33:F66">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H31 G33:H66">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J66">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="41" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="42" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Workbook_Model_Testing.xlsx
+++ b/Workbook_Model_Testing.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-27320" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="v3" sheetId="1" r:id="rId1"/>
     <sheet name="v4" sheetId="2" r:id="rId2"/>
     <sheet name="v7" sheetId="3" r:id="rId3"/>
     <sheet name="v8" sheetId="4" r:id="rId4"/>
-    <sheet name="v9" sheetId="5" r:id="rId5"/>
+    <sheet name="v8 length" sheetId="6" r:id="rId5"/>
+    <sheet name="v9" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
   <si>
     <t>t_0_100</t>
   </si>
@@ -376,7 +377,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -587,6 +588,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,20 +641,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -658,7 +665,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="137">
+  <dxfs count="180">
     <dxf>
       <font>
         <color theme="4"/>
@@ -973,6 +980,17 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -981,7 +999,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -991,7 +1020,18 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1001,18 +1041,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1024,17 +1053,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1043,18 +1061,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1066,17 +1073,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1085,18 +1081,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1108,17 +1093,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1347,7 +1321,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1357,7 +1331,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1379,6 +1353,17 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1387,7 +1372,18 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1399,6 +1395,17 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1407,7 +1414,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1417,7 +1424,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1439,17 +1446,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1458,18 +1454,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1481,17 +1466,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1580,7 +1554,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1590,7 +1564,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1610,7 +1584,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1620,7 +1594,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1630,7 +1604,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1640,7 +1614,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1650,7 +1624,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1660,7 +1634,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1670,7 +1644,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1680,7 +1654,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1690,7 +1664,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1700,7 +1674,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1710,7 +1684,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1720,7 +1694,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1730,7 +1704,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1740,7 +1714,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1750,7 +1724,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1760,7 +1734,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1770,7 +1744,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1780,7 +1754,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1790,7 +1764,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1810,7 +1784,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1820,7 +1794,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1830,6 +1804,96 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -1842,6 +1906,379 @@
       <font>
         <strike val="0"/>
         <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -2207,10 +2644,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="73"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
@@ -2927,17 +3364,17 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="75"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="77"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -3992,20 +4429,20 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="76"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="15"/>
       <c r="K1" s="35"/>
       <c r="L1" s="16"/>
@@ -4047,22 +4484,22 @@
       <c r="I2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82" t="s">
+      <c r="J2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="75" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="75"/>
+      <c r="Q2" s="83"/>
       <c r="R2" s="34"/>
       <c r="S2" s="24"/>
       <c r="T2" s="26" t="s">
@@ -4106,22 +4543,22 @@
       <c r="I3" s="28">
         <v>25</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="87">
         <v>42</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80">
+      <c r="K3" s="88"/>
+      <c r="L3" s="88">
         <v>46</v>
       </c>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80">
+      <c r="M3" s="88"/>
+      <c r="N3" s="88">
         <v>55</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="78">
+      <c r="O3" s="88"/>
+      <c r="P3" s="86">
         <v>0.28554000000000002</v>
       </c>
-      <c r="Q3" s="78"/>
+      <c r="Q3" s="86"/>
       <c r="R3" s="39"/>
       <c r="S3" s="24" t="s">
         <v>12</v>
@@ -5478,13 +5915,13 @@
     <mergeCell ref="N3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K19 M4:M19 O4:O19 Q4:Q19">
-    <cfRule type="cellIs" dxfId="136" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="2" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5496,9 +5933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5508,18 +5945,18 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="76"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="15"/>
       <c r="K1" s="35"/>
       <c r="L1" s="16"/>
@@ -5564,30 +6001,30 @@
       <c r="I2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82" t="s">
+      <c r="J2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="75" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="82" t="s">
+      <c r="S2" s="83"/>
+      <c r="T2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="82"/>
+      <c r="U2" s="90"/>
       <c r="V2" s="24"/>
       <c r="W2" s="37" t="s">
         <v>0</v>
@@ -5633,30 +6070,30 @@
       <c r="I3" s="28">
         <v>25</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="87">
         <v>29</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80">
+      <c r="K3" s="88"/>
+      <c r="L3" s="88">
         <v>41</v>
       </c>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80">
+      <c r="M3" s="88"/>
+      <c r="N3" s="88">
         <v>55</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="78">
+      <c r="O3" s="88"/>
+      <c r="P3" s="86">
         <v>0.44667000000000001</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78">
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86">
         <v>0.44850000000000001</v>
       </c>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78">
+      <c r="S3" s="86"/>
+      <c r="T3" s="86">
         <v>11.9</v>
       </c>
-      <c r="U3" s="78"/>
+      <c r="U3" s="86"/>
       <c r="V3" s="24" t="s">
         <v>12</v>
       </c>
@@ -8138,42 +8575,42 @@
         <v>73</v>
       </c>
       <c r="K40" s="40">
-        <f t="shared" ref="K40:K56" si="6">J40/$J$3*100</f>
+        <f t="shared" ref="K40:K41" si="6">J40/$J$3*100</f>
         <v>251.72413793103448</v>
       </c>
       <c r="L40" s="16">
         <v>97</v>
       </c>
       <c r="M40" s="41">
-        <f t="shared" ref="M40:M56" si="7">L40/$L$3*100</f>
+        <f t="shared" ref="M40:M41" si="7">L40/$L$3*100</f>
         <v>236.58536585365852</v>
       </c>
       <c r="N40" s="16">
         <v>101</v>
       </c>
       <c r="O40" s="41">
-        <f t="shared" ref="O40:O56" si="8">N40/$N$3*100</f>
+        <f t="shared" ref="O40:O41" si="8">N40/$N$3*100</f>
         <v>183.63636363636365</v>
       </c>
       <c r="P40" s="16">
         <v>0.28050000000000003</v>
       </c>
       <c r="Q40" s="42">
-        <f t="shared" ref="Q40:Q56" si="9">P40/$P$3*100</f>
+        <f t="shared" ref="Q40:Q41" si="9">P40/$P$3*100</f>
         <v>62.798038820605818</v>
       </c>
       <c r="R40" s="24">
         <v>0.28289999999999998</v>
       </c>
       <c r="S40" s="42">
-        <f t="shared" ref="S40:S56" si="10">R40/$R$3*100</f>
+        <f t="shared" ref="S40:S41" si="10">R40/$R$3*100</f>
         <v>63.076923076923073</v>
       </c>
       <c r="T40" s="24">
         <v>7.5</v>
       </c>
       <c r="U40" s="42">
-        <f t="shared" ref="U40:U56" si="11">T40/$T$3*100</f>
+        <f t="shared" ref="U40:U41" si="11">T40/$T$3*100</f>
         <v>63.02521008403361</v>
       </c>
     </row>
@@ -8242,7 +8679,7 @@
         <v>83.193277310924373</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="88" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="71" t="s">
         <v>3</v>
       </c>
@@ -8270,46 +8707,46 @@
       <c r="I42" s="71">
         <v>18</v>
       </c>
-      <c r="J42" s="79">
+      <c r="J42" s="87">
         <v>71</v>
       </c>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80">
+      <c r="K42" s="88"/>
+      <c r="L42" s="88">
         <v>92</v>
       </c>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80">
+      <c r="M42" s="88"/>
+      <c r="N42" s="88">
         <v>98</v>
       </c>
-      <c r="O42" s="80"/>
-      <c r="P42" s="78">
+      <c r="O42" s="88"/>
+      <c r="P42" s="86">
         <v>0.2102</v>
       </c>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78">
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86">
         <v>0.21260000000000001</v>
       </c>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78">
+      <c r="S42" s="86"/>
+      <c r="T42" s="86">
         <v>9.9</v>
       </c>
-      <c r="U42" s="78"/>
-      <c r="V42" s="83" t="s">
+      <c r="U42" s="86"/>
+      <c r="V42" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="W42" s="84">
+      <c r="W42" s="73">
         <v>26.9</v>
       </c>
-      <c r="X42" s="85">
+      <c r="X42" s="74">
         <v>20.100000000000001</v>
       </c>
-      <c r="Y42" s="85">
+      <c r="Y42" s="74">
         <v>13.7</v>
       </c>
-      <c r="Z42" s="86">
+      <c r="Z42" s="75">
         <v>0.23</v>
       </c>
-      <c r="AA42" s="87">
+      <c r="AA42" s="76">
         <v>34</v>
       </c>
     </row>
@@ -8742,82 +9179,118 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="F50" s="33">
+        <v>0.2</v>
+      </c>
       <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="H50" s="33">
+        <v>3</v>
+      </c>
       <c r="I50" s="33"/>
-      <c r="J50" s="15"/>
+      <c r="J50" s="15">
+        <v>88</v>
+      </c>
       <c r="K50" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="16"/>
+        <v>123.94366197183098</v>
+      </c>
+      <c r="L50" s="16">
+        <v>104</v>
+      </c>
       <c r="M50" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="16"/>
+        <v>113.04347826086956</v>
+      </c>
+      <c r="N50" s="16">
+        <v>107</v>
+      </c>
       <c r="O50" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="16"/>
+        <v>109.18367346938776</v>
+      </c>
+      <c r="P50" s="16">
+        <v>0.31040000000000001</v>
+      </c>
       <c r="Q50" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="24"/>
+        <v>147.66888677450046</v>
+      </c>
+      <c r="R50" s="24">
+        <v>0.31759999999999999</v>
+      </c>
       <c r="S50" s="42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="24"/>
+        <v>149.3885230479774</v>
+      </c>
+      <c r="T50" s="24">
+        <v>6.6</v>
+      </c>
       <c r="U50" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>47</v>
       </c>
-      <c r="B51" s="64"/>
+      <c r="B51" s="64">
+        <v>0.02</v>
+      </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
+      <c r="E51" s="33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F51" s="33">
+        <v>0.22</v>
+      </c>
       <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="H51" s="33">
+        <v>3</v>
+      </c>
       <c r="I51" s="33"/>
-      <c r="J51" s="15"/>
+      <c r="J51" s="15">
+        <v>91</v>
+      </c>
       <c r="K51" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="16"/>
+        <v>128.16901408450704</v>
+      </c>
+      <c r="L51" s="16">
+        <v>100</v>
+      </c>
       <c r="M51" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="16"/>
+        <v>108.69565217391303</v>
+      </c>
+      <c r="N51" s="16">
+        <v>101</v>
+      </c>
       <c r="O51" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="16"/>
+        <v>103.0612244897959</v>
+      </c>
+      <c r="P51" s="16">
+        <v>0.31950000000000001</v>
+      </c>
       <c r="Q51" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="24"/>
+        <v>151.99809705042816</v>
+      </c>
+      <c r="R51" s="24">
+        <v>0.32819999999999999</v>
+      </c>
       <c r="S51" s="42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="24"/>
+        <v>154.37441204139228</v>
+      </c>
+      <c r="T51" s="24">
+        <v>6.1</v>
+      </c>
       <c r="U51" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>61.616161616161612</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -8830,37 +9303,51 @@
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="H52" s="33">
+        <v>2</v>
+      </c>
       <c r="I52" s="33"/>
-      <c r="J52" s="15"/>
+      <c r="J52" s="15">
+        <v>91</v>
+      </c>
       <c r="K52" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="16"/>
+        <v>128.16901408450704</v>
+      </c>
+      <c r="L52" s="16">
+        <v>100</v>
+      </c>
       <c r="M52" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="16"/>
+        <v>108.69565217391303</v>
+      </c>
+      <c r="N52" s="16">
+        <v>100</v>
+      </c>
       <c r="O52" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="16"/>
+        <v>102.04081632653062</v>
+      </c>
+      <c r="P52" s="16">
+        <v>0.30890000000000001</v>
+      </c>
       <c r="Q52" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="24"/>
+        <v>146.95528068506184</v>
+      </c>
+      <c r="R52" s="24">
+        <v>0.3175</v>
+      </c>
       <c r="S52" s="42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="24"/>
+        <v>149.34148635936029</v>
+      </c>
+      <c r="T52" s="24">
+        <v>6.3</v>
+      </c>
       <c r="U52" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>63.636363636363633</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -8873,37 +9360,51 @@
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="H53" s="33">
+        <v>1</v>
+      </c>
       <c r="I53" s="33"/>
-      <c r="J53" s="15"/>
+      <c r="J53" s="15">
+        <v>91</v>
+      </c>
       <c r="K53" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="16"/>
+        <v>128.16901408450704</v>
+      </c>
+      <c r="L53" s="16">
+        <v>100</v>
+      </c>
       <c r="M53" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="16"/>
+        <v>108.69565217391303</v>
+      </c>
+      <c r="N53" s="16">
+        <v>101</v>
+      </c>
       <c r="O53" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="16"/>
+        <v>103.0612244897959</v>
+      </c>
+      <c r="P53" s="16">
+        <v>0.29809999999999998</v>
+      </c>
       <c r="Q53" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="24"/>
+        <v>141.81731684110369</v>
+      </c>
+      <c r="R53" s="24">
+        <v>0.30649999999999999</v>
+      </c>
       <c r="S53" s="42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="24"/>
+        <v>144.16745061147694</v>
+      </c>
+      <c r="T53" s="24">
+        <v>6.4</v>
+      </c>
       <c r="U53" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>64.646464646464651</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -8917,36 +9418,50 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="15"/>
+      <c r="I54" s="33">
+        <v>15</v>
+      </c>
+      <c r="J54" s="15">
+        <v>100</v>
+      </c>
       <c r="K54" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="16"/>
+        <v>140.8450704225352</v>
+      </c>
+      <c r="L54" s="16">
+        <v>113</v>
+      </c>
       <c r="M54" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="16"/>
+        <v>122.82608695652173</v>
+      </c>
+      <c r="N54" s="16">
+        <v>116</v>
+      </c>
       <c r="O54" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="16"/>
+        <v>118.36734693877551</v>
+      </c>
+      <c r="P54" s="16">
+        <v>0.26960000000000001</v>
+      </c>
       <c r="Q54" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="24"/>
+        <v>128.25880114176977</v>
+      </c>
+      <c r="R54" s="24">
+        <v>0.27560000000000001</v>
+      </c>
       <c r="S54" s="42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="24"/>
+        <v>129.63311382878646</v>
+      </c>
+      <c r="T54" s="24">
+        <v>6.3</v>
+      </c>
       <c r="U54" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>63.636363636363633</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -8960,36 +9475,50 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="15"/>
+      <c r="I55" s="33">
+        <v>10</v>
+      </c>
+      <c r="J55" s="15">
+        <v>115</v>
+      </c>
       <c r="K55" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="16"/>
+        <v>161.97183098591549</v>
+      </c>
+      <c r="L55" s="16">
+        <v>135</v>
+      </c>
       <c r="M55" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="16"/>
+        <v>146.73913043478262</v>
+      </c>
+      <c r="N55" s="16">
+        <v>151</v>
+      </c>
       <c r="O55" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="16"/>
+        <v>154.08163265306123</v>
+      </c>
+      <c r="P55" s="16">
+        <v>0.22889999999999999</v>
+      </c>
       <c r="Q55" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="24"/>
+        <v>108.89628924833492</v>
+      </c>
+      <c r="R55" s="24">
+        <v>0.22839999999999999</v>
+      </c>
       <c r="S55" s="42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="24"/>
+        <v>107.43179680150516</v>
+      </c>
+      <c r="T55" s="24">
+        <v>6.2</v>
+      </c>
       <c r="U55" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>62.62626262626263</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -8997,42 +9526,56 @@
         <v>52</v>
       </c>
       <c r="B56" s="64"/>
-      <c r="C56" s="33"/>
+      <c r="C56" s="33">
+        <v>10</v>
+      </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="33"/>
-      <c r="J56" s="15"/>
+      <c r="J56" s="15">
+        <v>111</v>
+      </c>
       <c r="K56" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="16"/>
+        <v>156.33802816901408</v>
+      </c>
+      <c r="L56" s="16">
+        <v>142</v>
+      </c>
       <c r="M56" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="16"/>
+        <v>154.34782608695653</v>
+      </c>
+      <c r="N56" s="16">
+        <v>150</v>
+      </c>
       <c r="O56" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="16"/>
+        <v>153.0612244897959</v>
+      </c>
+      <c r="P56" s="16">
+        <v>0.1484</v>
+      </c>
       <c r="Q56" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="24"/>
+        <v>70.599429115128459</v>
+      </c>
+      <c r="R56" s="24">
+        <v>0.14949999999999999</v>
+      </c>
       <c r="S56" s="42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="24"/>
+        <v>70.319849482596425</v>
+      </c>
+      <c r="T56" s="24">
+        <v>8</v>
+      </c>
       <c r="U56" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>80.808080808080803</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -9046,79 +9589,119 @@
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="15"/>
+      <c r="I57" s="33">
+        <v>15</v>
+      </c>
+      <c r="J57" s="15">
+        <v>97</v>
+      </c>
       <c r="K57" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="16"/>
+        <v>136.61971830985914</v>
+      </c>
+      <c r="L57" s="16">
+        <v>109</v>
+      </c>
       <c r="M57" s="41">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="16"/>
+        <f>L57/$L$42*100</f>
+        <v>118.4782608695652</v>
+      </c>
+      <c r="N57" s="16">
+        <v>115</v>
+      </c>
       <c r="O57" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="16"/>
+        <v>117.34693877551021</v>
+      </c>
+      <c r="P57" s="16">
+        <v>0.17599999999999999</v>
+      </c>
       <c r="Q57" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="24"/>
+        <v>83.729781160799234</v>
+      </c>
+      <c r="R57" s="24">
+        <v>0.1812</v>
+      </c>
       <c r="S57" s="42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="24"/>
+        <v>85.230479774223895</v>
+      </c>
+      <c r="T57" s="24">
+        <v>8.1</v>
+      </c>
       <c r="U57" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>81.818181818181813</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>54</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
+      <c r="B58" s="64">
+        <v>0.02</v>
+      </c>
+      <c r="C58" s="33">
+        <v>10</v>
+      </c>
+      <c r="D58" s="33">
+        <v>8</v>
+      </c>
+      <c r="E58" s="33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F58" s="33">
+        <v>0.22</v>
+      </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="15"/>
+      <c r="H58" s="33">
+        <v>1</v>
+      </c>
+      <c r="I58" s="33">
+        <v>17</v>
+      </c>
+      <c r="J58" s="15">
+        <v>93</v>
+      </c>
       <c r="K58" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="16"/>
+        <v>130.98591549295776</v>
+      </c>
+      <c r="L58" s="16">
+        <v>103</v>
+      </c>
       <c r="M58" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="16"/>
+        <v>111.95652173913044</v>
+      </c>
+      <c r="N58" s="16">
+        <v>107</v>
+      </c>
       <c r="O58" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="16"/>
+        <v>109.18367346938776</v>
+      </c>
+      <c r="P58" s="16">
+        <v>0.1845</v>
+      </c>
       <c r="Q58" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="24"/>
+        <v>87.773549000951476</v>
+      </c>
+      <c r="R58" s="24">
+        <v>0.19059999999999999</v>
+      </c>
       <c r="S58" s="42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="24"/>
+        <v>89.651928504233297</v>
+      </c>
+      <c r="T58" s="24">
+        <v>8.1</v>
+      </c>
       <c r="U58" s="42">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>81.818181818181813</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -9488,226 +10071,226 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="T2:U2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K4:K41 M4:M41 O4:O41 Q4:Q41 K43:K66 M43:M66 O43:O66 Q43:Q66">
-    <cfRule type="cellIs" dxfId="133" priority="55" operator="greaterThan">
+  <conditionalFormatting sqref="K4:K41 M4:M41 O4:O41 Q4:Q41 M43:M66 O43:O66 Q43:Q66 K43:K66">
+    <cfRule type="cellIs" dxfId="136" priority="55" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="56" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="57" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S41 S43:S66">
-    <cfRule type="cellIs" dxfId="130" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="52" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="53" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="54" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U41 U43:U66">
-    <cfRule type="cellIs" dxfId="127" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="49" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="50" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="51" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B41 B43:B48 B50:B66">
-    <cfRule type="cellIs" dxfId="124" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="46" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="47" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="48" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C41 C43:C48 C50:C66">
-    <cfRule type="cellIs" dxfId="121" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="44" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="45" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41 D43:D48 D50:D66">
-    <cfRule type="cellIs" dxfId="119" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="42" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="43" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:E41 E43:E48 E50:E66">
-    <cfRule type="cellIs" dxfId="117" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="40" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="41" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31 F33:F41 F43:F48 F50:F66">
-    <cfRule type="cellIs" dxfId="115" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="38" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="39" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31 G33:G41 G43:G48 G50:G66">
-    <cfRule type="cellIs" dxfId="113" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="36" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="37" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41 H43:H48 H50:H66">
-    <cfRule type="cellIs" dxfId="111" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="34" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="35" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41 I43:I48 I50:I66">
-    <cfRule type="cellIs" dxfId="109" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="32" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="33" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="107" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="30" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="31" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="105" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="28" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="29" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="103" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="26" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="27" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="101" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="24" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="25" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="99" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="22" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="23" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="97" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="20" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="21" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="95" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="18" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="19" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="15" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="16" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="17" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="13" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="14" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="7" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="8" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="3" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="4" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9717,6 +10300,2164 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="90"/>
+      <c r="O2" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="83"/>
+      <c r="S2" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="90"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="28">
+        <v>10</v>
+      </c>
+      <c r="D3" s="28">
+        <v>8</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="28">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28">
+        <v>17</v>
+      </c>
+      <c r="I3" s="87">
+        <v>93</v>
+      </c>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88">
+        <v>103</v>
+      </c>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88">
+        <v>107</v>
+      </c>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88">
+        <v>0.1845</v>
+      </c>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88">
+        <v>8.1</v>
+      </c>
+      <c r="T3" s="88"/>
+      <c r="U3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="31">
+        <v>26.9</v>
+      </c>
+      <c r="W3" s="32">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="X3" s="32">
+        <v>13.7</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="Z3" s="65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4" s="33">
+        <v>10</v>
+      </c>
+      <c r="D4" s="33">
+        <v>8</v>
+      </c>
+      <c r="E4" s="33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0.22</v>
+      </c>
+      <c r="G4" s="33">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3">
+        <v>84</v>
+      </c>
+      <c r="J4" s="40">
+        <f>I4/$I$3*100</f>
+        <v>90.322580645161281</v>
+      </c>
+      <c r="K4" s="2">
+        <v>99</v>
+      </c>
+      <c r="L4" s="41">
+        <f>K4/$K$3*100</f>
+        <v>96.116504854368941</v>
+      </c>
+      <c r="M4" s="2">
+        <v>106</v>
+      </c>
+      <c r="N4" s="41">
+        <f>M4/$M$3*100</f>
+        <v>99.065420560747668</v>
+      </c>
+      <c r="O4" s="46">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="P4" s="42">
+        <f>O4/$O$3*100</f>
+        <v>62.926829268292686</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0.1205</v>
+      </c>
+      <c r="R4" s="42">
+        <f>Q4/$Q$3*100</f>
+        <v>63.221406086044077</v>
+      </c>
+      <c r="S4" s="24">
+        <v>8.1</v>
+      </c>
+      <c r="T4" s="42">
+        <f>S4/$S$3*100</f>
+        <v>100</v>
+      </c>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="3">
+        <v>83</v>
+      </c>
+      <c r="J5" s="40">
+        <f t="shared" ref="J5:J41" si="0">I5/$I$3*100</f>
+        <v>89.247311827956992</v>
+      </c>
+      <c r="K5" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" s="41">
+        <f t="shared" ref="L5:L41" si="1">K5/$K$3*100</f>
+        <v>96.116504854368941</v>
+      </c>
+      <c r="M5" s="2">
+        <v>106</v>
+      </c>
+      <c r="N5" s="41">
+        <f t="shared" ref="N5:N41" si="2">M5/$M$3*100</f>
+        <v>99.065420560747668</v>
+      </c>
+      <c r="O5" s="46">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="P5" s="42">
+        <f t="shared" ref="P5:P41" si="3">O5/$O$3*100</f>
+        <v>48.888888888888893</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="R5" s="42">
+        <f t="shared" ref="R5:R41" si="4">Q5/$Q$3*100</f>
+        <v>49.213011542497377</v>
+      </c>
+      <c r="S5" s="24">
+        <v>8.1</v>
+      </c>
+      <c r="T5" s="42">
+        <f t="shared" ref="T5:T41" si="5">S5/$S$3*100</f>
+        <v>100</v>
+      </c>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="40">
+        <f>I6/$I$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="46"/>
+      <c r="P6" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="46"/>
+      <c r="P7" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="43"/>
+      <c r="N8" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="47"/>
+      <c r="P8" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="46"/>
+      <c r="P9" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="24"/>
+      <c r="T11" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
+        <v>9</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="47"/>
+      <c r="P12" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="24"/>
+      <c r="T12" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="46"/>
+      <c r="P13" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="24"/>
+      <c r="T13" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>11</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="46"/>
+      <c r="P14" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="24"/>
+      <c r="T14" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="46"/>
+      <c r="P15" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="24"/>
+      <c r="T15" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>13</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="43"/>
+      <c r="N16" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="51"/>
+      <c r="P16" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="24"/>
+      <c r="T16" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>14</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="54"/>
+      <c r="N17" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="52"/>
+      <c r="P17" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="24"/>
+      <c r="T17" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>15</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="54"/>
+      <c r="L18" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="54"/>
+      <c r="N18" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="46"/>
+      <c r="P18" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="24"/>
+      <c r="T18" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="54"/>
+      <c r="L19" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="54"/>
+      <c r="N19" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="46"/>
+      <c r="P19" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="24"/>
+      <c r="T19" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>17</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="24"/>
+      <c r="T20" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>18</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="24"/>
+      <c r="T21" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>19</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="24"/>
+      <c r="T22" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>20</v>
+      </c>
+      <c r="B23" s="64"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="24"/>
+      <c r="T23" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>21</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="24"/>
+      <c r="T24" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>22</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="16"/>
+      <c r="N25" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="24"/>
+      <c r="T25" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="24"/>
+      <c r="T26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>24</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="24"/>
+      <c r="T27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>25</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="24"/>
+      <c r="T28" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>26</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="24"/>
+      <c r="T29" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>27</v>
+      </c>
+      <c r="B30" s="64"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="16"/>
+      <c r="N30" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="24"/>
+      <c r="T30" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>28</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="16"/>
+      <c r="N31" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="24"/>
+      <c r="T31" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>29</v>
+      </c>
+      <c r="B32" s="64"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="16"/>
+      <c r="N32" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="24"/>
+      <c r="T32" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>30</v>
+      </c>
+      <c r="B33" s="64"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="16"/>
+      <c r="N33" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="24"/>
+      <c r="T33" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>31</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="16"/>
+      <c r="N34" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="24"/>
+      <c r="T34" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>32</v>
+      </c>
+      <c r="B35" s="64"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="16"/>
+      <c r="N35" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="24"/>
+      <c r="T35" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>33</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="16"/>
+      <c r="N36" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="24"/>
+      <c r="T36" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>34</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="16"/>
+      <c r="N37" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="24"/>
+      <c r="T37" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>35</v>
+      </c>
+      <c r="B38" s="64"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="16"/>
+      <c r="N38" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="24"/>
+      <c r="T38" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>36</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="16"/>
+      <c r="L39" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="16"/>
+      <c r="N39" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="24"/>
+      <c r="T39" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>37</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="16"/>
+      <c r="N40" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="16"/>
+      <c r="P40" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="24"/>
+      <c r="T40" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>38</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="L41" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="16"/>
+      <c r="N41" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="24"/>
+      <c r="T41" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J4:J41 L4:L41 N4:N41 P4:P41">
+    <cfRule type="cellIs" dxfId="79" priority="38" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="39" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="40" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R41">
+    <cfRule type="cellIs" dxfId="76" priority="35" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="36" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="37" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T41">
+    <cfRule type="cellIs" dxfId="73" priority="32" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="33" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="34" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B41">
+    <cfRule type="cellIs" dxfId="70" priority="29" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="30" operator="lessThan">
+      <formula>"$B$3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="31" operator="lessThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C31 C33:C41">
+    <cfRule type="cellIs" dxfId="67" priority="27" operator="lessThan">
+      <formula>$C$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="28" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D31 D33:D41">
+    <cfRule type="cellIs" dxfId="65" priority="25" operator="lessThan">
+      <formula>$D$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="26" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E31 E33:E41">
+    <cfRule type="cellIs" dxfId="63" priority="23" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F31 F33:F41">
+    <cfRule type="cellIs" dxfId="61" priority="21" operator="lessThan">
+      <formula>$F$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="22" operator="greaterThan">
+      <formula>$F$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G41">
+    <cfRule type="cellIs" dxfId="59" priority="19" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G31">
+    <cfRule type="cellIs" dxfId="57" priority="17" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="18" operator="greaterThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H31 H33:H41">
+    <cfRule type="cellIs" dxfId="55" priority="15" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="lessThan">
+      <formula>$C$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="lessThan">
+      <formula>$D$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThan">
+      <formula>$F$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThan">
+      <formula>$F$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThan">
+      <formula>$G$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+      <formula>$G$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB66"/>
   <sheetViews>
@@ -9728,19 +12469,19 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
       <c r="H1" s="67"/>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="76"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="15"/>
       <c r="L1" s="35"/>
       <c r="M1" s="16"/>
@@ -9788,30 +12529,30 @@
       <c r="J2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82" t="s">
+      <c r="K2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82" t="s">
+      <c r="N2" s="90"/>
+      <c r="O2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="75" t="s">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75" t="s">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="75"/>
-      <c r="U2" s="82" t="s">
+      <c r="T2" s="83"/>
+      <c r="U2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="82"/>
+      <c r="V2" s="90"/>
       <c r="W2" s="24"/>
       <c r="X2" s="68" t="s">
         <v>0</v>
@@ -9860,30 +12601,30 @@
       <c r="J3" s="28">
         <v>18</v>
       </c>
-      <c r="K3" s="79">
+      <c r="K3" s="87">
         <v>70</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80">
+      <c r="L3" s="88"/>
+      <c r="M3" s="88">
         <v>101</v>
       </c>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80">
+      <c r="N3" s="88"/>
+      <c r="O3" s="88">
         <v>100</v>
       </c>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="78">
+      <c r="P3" s="88"/>
+      <c r="Q3" s="86">
         <v>0.441</v>
       </c>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78">
+      <c r="R3" s="86"/>
+      <c r="S3" s="86">
         <v>0.44629999999999997</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78">
+      <c r="T3" s="86"/>
+      <c r="U3" s="86">
         <v>5.9</v>
       </c>
-      <c r="V3" s="78"/>
+      <c r="V3" s="86"/>
       <c r="W3" s="24" t="s">
         <v>12</v>
       </c>
@@ -12903,166 +15644,166 @@
     <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="I33:I66">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L66 N4:N66 P4:P66 R4:R66">
-    <cfRule type="cellIs" dxfId="91" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T66">
-    <cfRule type="cellIs" dxfId="88" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V66">
-    <cfRule type="cellIs" dxfId="85" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B66">
-    <cfRule type="cellIs" dxfId="82" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C66">
-    <cfRule type="cellIs" dxfId="79" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D66">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:E66">
-    <cfRule type="cellIs" dxfId="75" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31 F33:F66">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H31 G33:H66">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J66">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="63" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="61" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="53" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Workbook_Model_Testing.xlsx
+++ b/Workbook_Model_Testing.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="44">
   <si>
     <t>t_0_100</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>L0 = 1.1</t>
+  </si>
+  <si>
+    <t>L0 = 1.2</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -708,6 +711,33 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -732,7 +762,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="295">
+  <dxfs count="292">
     <dxf>
       <font>
         <color theme="4"/>
@@ -3391,27 +3421,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -22010,8 +22019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22506,78 +22515,78 @@
       <c r="AD7" s="24"/>
       <c r="AE7" s="24"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+    <row r="8" spans="1:32" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="98">
         <v>5</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39">
+      <c r="B8" s="106"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75">
         <v>18</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39">
+      <c r="G8" s="75"/>
+      <c r="H8" s="75">
         <v>1.5</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39">
+      <c r="I8" s="75"/>
+      <c r="J8" s="75">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="3">
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="100">
         <v>96</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="101">
         <f t="shared" si="0"/>
         <v>105.4945054945055</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="102">
         <v>107</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="101">
         <f>O8/$O$3*100</f>
         <v>116.30434782608697</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="102">
         <v>109</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="101">
         <f t="shared" si="1"/>
         <v>115.95744680851064</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S8" s="103">
         <v>0.26840000000000003</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="101">
         <f t="shared" si="2"/>
         <v>125.0698974836906</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="72">
         <v>0.27310000000000001</v>
       </c>
-      <c r="V8" s="42">
+      <c r="V8" s="104">
         <f t="shared" si="3"/>
         <v>124.98855835240275</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="72">
         <v>9.9</v>
       </c>
-      <c r="X8" s="42">
+      <c r="X8" s="104">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="42" t="s">
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
@@ -22859,58 +22868,76 @@
       <c r="AD12" s="24"/>
       <c r="AE12" s="24"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+    <row r="13" spans="1:32" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="98">
         <v>10</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="40">
+      <c r="B13" s="99"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75">
+        <v>28</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="100">
+        <v>95</v>
+      </c>
+      <c r="N13" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="41">
+        <v>104.39560439560441</v>
+      </c>
+      <c r="O13" s="102">
+        <v>108</v>
+      </c>
+      <c r="P13" s="101">
         <f>O13/$O$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="46"/>
-      <c r="T13" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="24"/>
-      <c r="V13" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="24"/>
-      <c r="X13" s="42">
+        <v>117.39130434782609</v>
+      </c>
+      <c r="Q13" s="102">
+        <v>108</v>
+      </c>
+      <c r="R13" s="101">
+        <f t="shared" si="1"/>
+        <v>114.89361702127661</v>
+      </c>
+      <c r="S13" s="103">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="T13" s="101">
+        <f t="shared" si="2"/>
+        <v>152.51630941286112</v>
+      </c>
+      <c r="U13" s="72">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="V13" s="104">
+        <f t="shared" si="3"/>
+        <v>151.48741418764303</v>
+      </c>
+      <c r="W13" s="72"/>
+      <c r="X13" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
+      <c r="Y13" s="105">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="Z13" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -22924,7 +22951,9 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="J14" s="33">
+        <v>5.5E-2</v>
+      </c>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="3"/>
@@ -22957,7 +22986,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="97"/>
+      <c r="Y14" s="97">
+        <v>0.99019999999999997</v>
+      </c>
       <c r="Z14" s="42"/>
       <c r="AA14" s="24"/>
       <c r="AB14" s="24"/>
@@ -22977,40 +23008,54 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="J15" s="33">
+        <v>0.06</v>
+      </c>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>101</v>
+      </c>
       <c r="N15" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>110.98901098901099</v>
+      </c>
+      <c r="O15" s="2">
+        <v>116</v>
+      </c>
       <c r="P15" s="41">
         <f>O15/$O$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2"/>
+        <v>126.08695652173914</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>116</v>
+      </c>
       <c r="R15" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="46"/>
+        <v>123.40425531914893</v>
+      </c>
+      <c r="S15" s="46">
+        <v>0.30599999999999999</v>
+      </c>
       <c r="T15" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="24"/>
+        <v>142.59086672879775</v>
+      </c>
+      <c r="U15" s="24">
+        <v>0.30840000000000001</v>
+      </c>
       <c r="V15" s="42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>141.14416475972541</v>
       </c>
       <c r="W15" s="24"/>
       <c r="X15" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="97"/>
+      <c r="Y15" s="97">
+        <v>0.98609999999999998</v>
+      </c>
       <c r="Z15" s="42"/>
       <c r="AA15" s="24"/>
       <c r="AB15" s="24"/>
@@ -23026,44 +23071,58 @@
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39">
+        <v>35</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>99</v>
+      </c>
       <c r="N16" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="43"/>
+        <v>108.79120879120879</v>
+      </c>
+      <c r="O16" s="43">
+        <v>114</v>
+      </c>
       <c r="P16" s="41">
         <f>O16/$O$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="43"/>
+        <v>123.91304347826086</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>113</v>
+      </c>
       <c r="R16" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="51"/>
+        <v>120.21276595744681</v>
+      </c>
+      <c r="S16" s="51">
+        <v>0.33400000000000002</v>
+      </c>
       <c r="T16" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="24"/>
+        <v>155.63839701770738</v>
+      </c>
+      <c r="U16" s="24">
+        <v>0.3362</v>
+      </c>
       <c r="V16" s="42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>153.86727688787184</v>
       </c>
       <c r="W16" s="24"/>
       <c r="X16" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="97"/>
+      <c r="Y16" s="97">
+        <v>0.7651</v>
+      </c>
       <c r="Z16" s="42"/>
       <c r="AA16" s="24"/>
       <c r="AB16" s="24"/>
@@ -23079,44 +23138,58 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="33">
+        <v>45</v>
+      </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>97</v>
+      </c>
       <c r="N17" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>106.5934065934066</v>
+      </c>
+      <c r="O17" s="2">
+        <v>113</v>
+      </c>
       <c r="P17" s="41">
         <f>O17/$O$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2"/>
+        <v>122.82608695652173</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>112</v>
+      </c>
       <c r="R17" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="52"/>
+        <v>119.14893617021276</v>
+      </c>
+      <c r="S17" s="52">
+        <v>0.36109999999999998</v>
+      </c>
       <c r="T17" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="24"/>
+        <v>168.2665424044734</v>
+      </c>
+      <c r="U17" s="24">
+        <v>0.36320000000000002</v>
+      </c>
       <c r="V17" s="42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>166.22425629290618</v>
       </c>
       <c r="W17" s="24"/>
       <c r="X17" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="97"/>
+      <c r="Y17" s="97">
+        <v>0.57199999999999995</v>
+      </c>
       <c r="Z17" s="42"/>
       <c r="AA17" s="24"/>
       <c r="AB17" s="24"/>
@@ -23134,42 +23207,56 @@
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="H18" s="33">
+        <v>1.7</v>
+      </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="53"/>
+      <c r="M18" s="53">
+        <v>94</v>
+      </c>
       <c r="N18" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="54"/>
+        <v>103.29670329670331</v>
+      </c>
+      <c r="O18" s="54">
+        <v>105</v>
+      </c>
       <c r="P18" s="41">
         <f>O18/$O$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="54"/>
+        <v>114.13043478260869</v>
+      </c>
+      <c r="Q18" s="54">
+        <v>105</v>
+      </c>
       <c r="R18" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="46"/>
+        <v>111.70212765957446</v>
+      </c>
+      <c r="S18" s="46">
+        <v>0.35730000000000001</v>
+      </c>
       <c r="T18" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="24"/>
+        <v>166.49580615097855</v>
+      </c>
+      <c r="U18" s="24">
+        <v>0.35859999999999997</v>
+      </c>
       <c r="V18" s="42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>164.11899313501144</v>
       </c>
       <c r="W18" s="24"/>
       <c r="X18" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="97"/>
+      <c r="Y18" s="97">
+        <v>0.495</v>
+      </c>
       <c r="Z18" s="42"/>
       <c r="AA18" s="24"/>
       <c r="AB18" s="24"/>
@@ -23187,42 +23274,58 @@
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="H19" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="33">
+        <v>0.03</v>
+      </c>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="M19" s="53"/>
+      <c r="M19" s="53">
+        <v>102</v>
+      </c>
       <c r="N19" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="54"/>
+        <v>112.08791208791209</v>
+      </c>
+      <c r="O19" s="54">
+        <v>117</v>
+      </c>
       <c r="P19" s="41">
         <f>O19/$O$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="54"/>
+        <v>127.17391304347827</v>
+      </c>
+      <c r="Q19" s="54">
+        <v>113</v>
+      </c>
       <c r="R19" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="46"/>
+        <v>120.21276595744681</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0.44490000000000002</v>
+      </c>
       <c r="T19" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="24"/>
+        <v>207.31593662628143</v>
+      </c>
+      <c r="U19" s="24">
+        <v>0.44469999999999998</v>
+      </c>
       <c r="V19" s="42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>203.52402745995423</v>
       </c>
       <c r="W19" s="24"/>
       <c r="X19" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="97"/>
+      <c r="Y19" s="97">
+        <v>0.41930000000000001</v>
+      </c>
       <c r="Z19" s="42"/>
       <c r="AA19" s="24"/>
       <c r="AB19" s="24"/>
@@ -23240,42 +23343,58 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="H20" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="I20" s="33">
+        <v>0.03</v>
+      </c>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="15"/>
+      <c r="M20" s="15">
+        <v>105</v>
+      </c>
       <c r="N20" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="16"/>
+        <v>115.38461538461537</v>
+      </c>
+      <c r="O20" s="16">
+        <v>127</v>
+      </c>
       <c r="P20" s="41">
         <f>O20/$O$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="16"/>
+        <v>138.04347826086956</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>122</v>
+      </c>
       <c r="R20" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="16"/>
+        <v>129.78723404255319</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0.44009999999999999</v>
+      </c>
       <c r="T20" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="24"/>
+        <v>205.07921714818264</v>
+      </c>
+      <c r="U20" s="24">
+        <v>0.43990000000000001</v>
+      </c>
       <c r="V20" s="42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>201.32723112128147</v>
       </c>
       <c r="W20" s="24"/>
       <c r="X20" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="97"/>
+      <c r="Y20" s="97">
+        <v>0.4022</v>
+      </c>
       <c r="Z20" s="42"/>
       <c r="AA20" s="24"/>
       <c r="AB20" s="24"/>
@@ -23291,44 +23410,60 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="33">
+        <v>35</v>
+      </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="J21" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="15">
+        <v>114</v>
+      </c>
       <c r="N21" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="16"/>
+        <v>125.27472527472527</v>
+      </c>
+      <c r="O21" s="16">
+        <v>135</v>
+      </c>
       <c r="P21" s="41">
         <f>O21/$O$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="16"/>
+        <v>146.73913043478262</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>132</v>
+      </c>
       <c r="R21" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="16"/>
+        <v>140.42553191489361</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0.39419999999999999</v>
+      </c>
       <c r="T21" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="24"/>
+        <v>183.69058713886298</v>
+      </c>
+      <c r="U21" s="24">
+        <v>0.39090000000000003</v>
+      </c>
       <c r="V21" s="42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>178.90160183066365</v>
       </c>
       <c r="W21" s="24"/>
       <c r="X21" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="97"/>
+      <c r="Y21" s="97">
+        <v>0.41139999999999999</v>
+      </c>
       <c r="Z21" s="42"/>
       <c r="AA21" s="24"/>
       <c r="AB21" s="24"/>
@@ -23348,40 +23483,54 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="J22" s="33">
+        <v>5.5E-2</v>
+      </c>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="15"/>
+      <c r="M22" s="15">
+        <v>103</v>
+      </c>
       <c r="N22" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="16"/>
+        <v>113.18681318681318</v>
+      </c>
+      <c r="O22" s="16">
+        <v>125</v>
+      </c>
       <c r="P22" s="41">
         <f>O22/$O$3*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="16"/>
+        <v>135.86956521739131</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>120</v>
+      </c>
       <c r="R22" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="16"/>
+        <v>127.65957446808511</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0.42970000000000003</v>
+      </c>
       <c r="T22" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="24"/>
+        <v>200.23299161230196</v>
+      </c>
+      <c r="U22" s="24">
+        <v>0.43070000000000003</v>
+      </c>
       <c r="V22" s="42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>197.11670480549199</v>
       </c>
       <c r="W22" s="24"/>
       <c r="X22" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="97"/>
+      <c r="Y22" s="97">
+        <v>0.41830000000000001</v>
+      </c>
       <c r="Z22" s="42"/>
       <c r="AA22" s="24"/>
       <c r="AB22" s="24"/>

--- a/Workbook_Model_Testing.xlsx
+++ b/Workbook_Model_Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="v3" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="v11_FT" sheetId="7" r:id="rId7"/>
     <sheet name="v11_ST" sheetId="8" r:id="rId8"/>
     <sheet name="v11_0.8" sheetId="9" r:id="rId9"/>
+    <sheet name="v12" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="44">
   <si>
     <t>t_0_100</t>
   </si>
@@ -426,7 +427,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -666,33 +667,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,6 +712,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -762,7 +769,913 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="292">
+  <dxfs count="388">
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="4"/>
@@ -3807,10 +4720,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
@@ -4511,6 +5424,2623 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="102"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="108"/>
+      <c r="S2" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="101"/>
+      <c r="W2" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="28">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28">
+        <v>40</v>
+      </c>
+      <c r="E3" s="28">
+        <v>30</v>
+      </c>
+      <c r="F3" s="28">
+        <v>50</v>
+      </c>
+      <c r="G3" s="28">
+        <v>40</v>
+      </c>
+      <c r="H3" s="28">
+        <v>1.7</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="J3" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="28">
+        <v>2</v>
+      </c>
+      <c r="L3" s="28">
+        <v>4</v>
+      </c>
+      <c r="M3" s="105">
+        <v>31</v>
+      </c>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106">
+        <v>30</v>
+      </c>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106">
+        <v>30</v>
+      </c>
+      <c r="R3" s="106"/>
+      <c r="S3" s="104">
+        <v>0.3977</v>
+      </c>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104">
+        <v>22.4</v>
+      </c>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="31">
+        <v>26.9</v>
+      </c>
+      <c r="AA3" s="32">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AB3" s="32">
+        <v>13.7</v>
+      </c>
+      <c r="AC3" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="AD3" s="65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="3">
+        <v>22</v>
+      </c>
+      <c r="N4" s="40">
+        <f>M4/$M$3*100</f>
+        <v>70.967741935483872</v>
+      </c>
+      <c r="O4" s="2">
+        <v>27</v>
+      </c>
+      <c r="P4" s="41">
+        <f>O4/$O$3*100</f>
+        <v>90</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>30</v>
+      </c>
+      <c r="R4" s="41">
+        <f>Q4/$Q$3*100</f>
+        <v>100</v>
+      </c>
+      <c r="S4" s="46">
+        <v>0.1084</v>
+      </c>
+      <c r="T4" s="42">
+        <f>S4/$S$3*100</f>
+        <v>27.256726175509176</v>
+      </c>
+      <c r="U4" s="24">
+        <v>0.1135</v>
+      </c>
+      <c r="V4" s="42">
+        <f>U4/$U$3*100</f>
+        <v>28.247884519661525</v>
+      </c>
+      <c r="W4" s="24">
+        <v>71.5</v>
+      </c>
+      <c r="X4" s="42">
+        <f>W4/$W$3*100</f>
+        <v>319.19642857142861</v>
+      </c>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="3">
+        <v>39</v>
+      </c>
+      <c r="N5" s="40">
+        <f t="shared" ref="N5:N41" si="0">M5/$M$3*100</f>
+        <v>125.80645161290323</v>
+      </c>
+      <c r="O5" s="2">
+        <v>36</v>
+      </c>
+      <c r="P5" s="41">
+        <f t="shared" ref="P5:P41" si="1">O5/$O$3*100</f>
+        <v>120</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>31</v>
+      </c>
+      <c r="R5" s="41">
+        <f t="shared" ref="R5:R41" si="2">Q5/$Q$3*100</f>
+        <v>103.33333333333334</v>
+      </c>
+      <c r="S5" s="46">
+        <v>0.57969999999999999</v>
+      </c>
+      <c r="T5" s="42">
+        <f t="shared" ref="T5:T41" si="3">S5/$S$3*100</f>
+        <v>145.76313804375155</v>
+      </c>
+      <c r="U5" s="24">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="V5" s="42">
+        <f t="shared" ref="V5:V41" si="4">U5/$U$3*100</f>
+        <v>145.22150323544051</v>
+      </c>
+      <c r="W5" s="24">
+        <v>13.4</v>
+      </c>
+      <c r="X5" s="42">
+        <f t="shared" ref="X5:X41" si="5">W5/$W$3*100</f>
+        <v>59.821428571428584</v>
+      </c>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="61">
+        <v>20</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="3">
+        <v>28</v>
+      </c>
+      <c r="N6" s="40">
+        <f>M6/$M$3*100</f>
+        <v>90.322580645161281</v>
+      </c>
+      <c r="O6" s="2">
+        <v>29</v>
+      </c>
+      <c r="P6" s="41">
+        <f t="shared" si="1"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>30</v>
+      </c>
+      <c r="R6" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S6" s="46">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="T6" s="41">
+        <f t="shared" si="3"/>
+        <v>51.596680915262759</v>
+      </c>
+      <c r="U6" s="24">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="V6" s="42">
+        <f t="shared" si="4"/>
+        <v>52.165256346441012</v>
+      </c>
+      <c r="W6" s="24">
+        <v>40</v>
+      </c>
+      <c r="X6" s="42">
+        <f t="shared" si="5"/>
+        <v>178.57142857142858</v>
+      </c>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="62">
+        <v>60</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="3">
+        <v>33</v>
+      </c>
+      <c r="N7" s="40">
+        <f t="shared" si="0"/>
+        <v>106.45161290322579</v>
+      </c>
+      <c r="O7" s="2">
+        <v>32</v>
+      </c>
+      <c r="P7" s="41">
+        <f t="shared" si="1"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>30</v>
+      </c>
+      <c r="R7" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="46">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="T7" s="41">
+        <f t="shared" si="3"/>
+        <v>129.39401558964042</v>
+      </c>
+      <c r="U7" s="24">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="V7" s="42">
+        <f t="shared" si="4"/>
+        <v>129.04430064708811</v>
+      </c>
+      <c r="W7" s="24">
+        <v>17</v>
+      </c>
+      <c r="X7" s="42">
+        <f t="shared" si="5"/>
+        <v>75.892857142857153</v>
+      </c>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39">
+        <v>10</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="3">
+        <v>38</v>
+      </c>
+      <c r="N8" s="40">
+        <f t="shared" si="0"/>
+        <v>122.58064516129032</v>
+      </c>
+      <c r="O8" s="43">
+        <v>30</v>
+      </c>
+      <c r="P8" s="41">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>28</v>
+      </c>
+      <c r="R8" s="41">
+        <f t="shared" si="2"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="S8" s="47">
+        <v>0.59350000000000003</v>
+      </c>
+      <c r="T8" s="41">
+        <f t="shared" si="3"/>
+        <v>149.23309026904704</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0.5968</v>
+      </c>
+      <c r="V8" s="42">
+        <f t="shared" si="4"/>
+        <v>148.53160776505726</v>
+      </c>
+      <c r="W8" s="24">
+        <v>14.8</v>
+      </c>
+      <c r="X8" s="42">
+        <f t="shared" si="5"/>
+        <v>66.071428571428584</v>
+      </c>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58">
+        <v>60</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="3">
+        <v>27</v>
+      </c>
+      <c r="N9" s="40">
+        <f t="shared" si="0"/>
+        <v>87.096774193548384</v>
+      </c>
+      <c r="O9" s="2">
+        <v>30</v>
+      </c>
+      <c r="P9" s="41">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>31</v>
+      </c>
+      <c r="R9" s="41">
+        <f t="shared" si="2"/>
+        <v>103.33333333333334</v>
+      </c>
+      <c r="S9" s="46">
+        <v>0.24229999999999999</v>
+      </c>
+      <c r="T9" s="41">
+        <f t="shared" si="3"/>
+        <v>60.92532059341211</v>
+      </c>
+      <c r="U9" s="24">
+        <v>0.2467</v>
+      </c>
+      <c r="V9" s="42">
+        <f t="shared" si="4"/>
+        <v>61.39870582379293</v>
+      </c>
+      <c r="W9" s="24">
+        <v>33.9</v>
+      </c>
+      <c r="X9" s="42">
+        <f t="shared" si="5"/>
+        <v>151.33928571428572</v>
+      </c>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58">
+        <v>20</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="3">
+        <v>30</v>
+      </c>
+      <c r="N10" s="40">
+        <f t="shared" si="0"/>
+        <v>96.774193548387103</v>
+      </c>
+      <c r="O10" s="2">
+        <v>30</v>
+      </c>
+      <c r="P10" s="41">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>32</v>
+      </c>
+      <c r="R10" s="41">
+        <f t="shared" si="2"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="S10" s="46">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="T10" s="41">
+        <f t="shared" si="3"/>
+        <v>46.165451345235105</v>
+      </c>
+      <c r="U10" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="V10" s="42">
+        <f t="shared" si="4"/>
+        <v>47.28720756595321</v>
+      </c>
+      <c r="W10" s="24">
+        <v>41.2</v>
+      </c>
+      <c r="X10" s="42">
+        <f t="shared" si="5"/>
+        <v>183.92857142857147</v>
+      </c>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58">
+        <v>80</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="3">
+        <v>31</v>
+      </c>
+      <c r="N11" s="40">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O11" s="2">
+        <v>31</v>
+      </c>
+      <c r="P11" s="41">
+        <f t="shared" si="1"/>
+        <v>103.33333333333334</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>30</v>
+      </c>
+      <c r="R11" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S11" s="46">
+        <v>0.496</v>
+      </c>
+      <c r="T11" s="41">
+        <f t="shared" si="3"/>
+        <v>124.71712345989438</v>
+      </c>
+      <c r="U11" s="24">
+        <v>0.499</v>
+      </c>
+      <c r="V11" s="42">
+        <f t="shared" si="4"/>
+        <v>124.19113987058239</v>
+      </c>
+      <c r="W11" s="24">
+        <v>18.5</v>
+      </c>
+      <c r="X11" s="42">
+        <f t="shared" si="5"/>
+        <v>82.589285714285722</v>
+      </c>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
+        <v>9</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63">
+        <v>10</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="3">
+        <v>53</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" si="0"/>
+        <v>170.96774193548387</v>
+      </c>
+      <c r="O12" s="43">
+        <v>85</v>
+      </c>
+      <c r="P12" s="41">
+        <f t="shared" si="1"/>
+        <v>283.33333333333337</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>80</v>
+      </c>
+      <c r="R12" s="41">
+        <f t="shared" si="2"/>
+        <v>266.66666666666663</v>
+      </c>
+      <c r="S12" s="47">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="T12" s="41">
+        <f t="shared" si="3"/>
+        <v>153.83454865476489</v>
+      </c>
+      <c r="U12" s="24">
+        <v>0.6149</v>
+      </c>
+      <c r="V12" s="42">
+        <f t="shared" si="4"/>
+        <v>153.03633648581385</v>
+      </c>
+      <c r="W12" s="24">
+        <v>6.2</v>
+      </c>
+      <c r="X12" s="42">
+        <f t="shared" si="5"/>
+        <v>27.678571428571431</v>
+      </c>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33">
+        <v>70</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="3">
+        <v>24</v>
+      </c>
+      <c r="N13" s="40">
+        <f t="shared" si="0"/>
+        <v>77.41935483870968</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+      <c r="P13" s="41">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>28</v>
+      </c>
+      <c r="R13" s="41">
+        <f t="shared" si="2"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="S13" s="46">
+        <v>0.2949</v>
+      </c>
+      <c r="T13" s="41">
+        <f t="shared" si="3"/>
+        <v>74.151370379683186</v>
+      </c>
+      <c r="U13" s="24">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="V13" s="42">
+        <f t="shared" si="4"/>
+        <v>75.087108013937282</v>
+      </c>
+      <c r="W13" s="24">
+        <v>37.1</v>
+      </c>
+      <c r="X13" s="42">
+        <f t="shared" si="5"/>
+        <v>165.62500000000003</v>
+      </c>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>11</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="3">
+        <v>32</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="0"/>
+        <v>103.2258064516129</v>
+      </c>
+      <c r="O14" s="2">
+        <v>35</v>
+      </c>
+      <c r="P14" s="41">
+        <f t="shared" si="1"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>33</v>
+      </c>
+      <c r="R14" s="41">
+        <f t="shared" si="2"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="S14" s="46">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="T14" s="41">
+        <f t="shared" si="3"/>
+        <v>99.773698767915505</v>
+      </c>
+      <c r="U14" s="24">
+        <v>0.4093</v>
+      </c>
+      <c r="V14" s="42">
+        <f t="shared" si="4"/>
+        <v>101.86660029865604</v>
+      </c>
+      <c r="W14" s="24">
+        <v>22.3</v>
+      </c>
+      <c r="X14" s="42">
+        <f t="shared" si="5"/>
+        <v>99.553571428571445</v>
+      </c>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33">
+        <v>2.1</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="3">
+        <v>29</v>
+      </c>
+      <c r="N15" s="40">
+        <f t="shared" si="0"/>
+        <v>93.548387096774192</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+      <c r="P15" s="41">
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>28</v>
+      </c>
+      <c r="R15" s="41">
+        <f t="shared" si="2"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="S15" s="46">
+        <v>0.40110000000000001</v>
+      </c>
+      <c r="T15" s="41">
+        <f t="shared" si="3"/>
+        <v>100.85491576565251</v>
+      </c>
+      <c r="U15" s="24">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="V15" s="42">
+        <f t="shared" si="4"/>
+        <v>100.17421602787458</v>
+      </c>
+      <c r="W15" s="24">
+        <v>22.6</v>
+      </c>
+      <c r="X15" s="42">
+        <f t="shared" si="5"/>
+        <v>100.89285714285717</v>
+      </c>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>13</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="3">
+        <v>35</v>
+      </c>
+      <c r="N16" s="40">
+        <f t="shared" si="0"/>
+        <v>112.90322580645163</v>
+      </c>
+      <c r="O16" s="43">
+        <v>32</v>
+      </c>
+      <c r="P16" s="41">
+        <f t="shared" si="1"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>30</v>
+      </c>
+      <c r="R16" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S16" s="51">
+        <v>0.61280000000000001</v>
+      </c>
+      <c r="T16" s="41">
+        <f t="shared" si="3"/>
+        <v>154.0859944681921</v>
+      </c>
+      <c r="U16" s="24">
+        <v>0.61409999999999998</v>
+      </c>
+      <c r="V16" s="42">
+        <f t="shared" si="4"/>
+        <v>152.8372324539572</v>
+      </c>
+      <c r="W16" s="24">
+        <v>13.8</v>
+      </c>
+      <c r="X16" s="42">
+        <f t="shared" si="5"/>
+        <v>61.607142857142861</v>
+      </c>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>14</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33">
+        <v>0.06</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="3">
+        <v>29</v>
+      </c>
+      <c r="N17" s="40">
+        <f t="shared" si="0"/>
+        <v>93.548387096774192</v>
+      </c>
+      <c r="O17" s="2">
+        <v>28</v>
+      </c>
+      <c r="P17" s="41">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>29</v>
+      </c>
+      <c r="R17" s="41">
+        <f t="shared" si="2"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="S17" s="52">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="T17" s="41">
+        <f t="shared" si="3"/>
+        <v>67.261755091777729</v>
+      </c>
+      <c r="U17" s="24">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="V17" s="42">
+        <f t="shared" si="4"/>
+        <v>67.67048282727724</v>
+      </c>
+      <c r="W17" s="24">
+        <v>31.1</v>
+      </c>
+      <c r="X17" s="42">
+        <f t="shared" si="5"/>
+        <v>138.83928571428572</v>
+      </c>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>15</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="53">
+        <v>24</v>
+      </c>
+      <c r="N18" s="40">
+        <f t="shared" si="0"/>
+        <v>77.41935483870968</v>
+      </c>
+      <c r="O18" s="54">
+        <v>24</v>
+      </c>
+      <c r="P18" s="41">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="Q18" s="54">
+        <v>21</v>
+      </c>
+      <c r="R18" s="42">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="S18" s="46">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="T18" s="41">
+        <f t="shared" si="3"/>
+        <v>128.33794317324617</v>
+      </c>
+      <c r="U18" s="24">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="V18" s="42">
+        <f t="shared" si="4"/>
+        <v>128.02389248382281</v>
+      </c>
+      <c r="W18" s="24">
+        <v>22.8</v>
+      </c>
+      <c r="X18" s="42">
+        <f t="shared" si="5"/>
+        <v>101.78571428571431</v>
+      </c>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="53">
+        <v>37</v>
+      </c>
+      <c r="N19" s="40">
+        <f t="shared" si="0"/>
+        <v>119.35483870967742</v>
+      </c>
+      <c r="O19" s="54">
+        <v>41</v>
+      </c>
+      <c r="P19" s="41">
+        <f t="shared" si="1"/>
+        <v>136.66666666666666</v>
+      </c>
+      <c r="Q19" s="54">
+        <v>55</v>
+      </c>
+      <c r="R19" s="42">
+        <f t="shared" si="2"/>
+        <v>183.33333333333331</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="T19" s="41">
+        <f t="shared" si="3"/>
+        <v>69.751068644707061</v>
+      </c>
+      <c r="U19" s="24">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="V19" s="42">
+        <f t="shared" si="4"/>
+        <v>69.586859133897477</v>
+      </c>
+      <c r="W19" s="24">
+        <v>22.2</v>
+      </c>
+      <c r="X19" s="42">
+        <f t="shared" si="5"/>
+        <v>99.107142857142861</v>
+      </c>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>17</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33">
+        <v>1</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="15">
+        <v>31</v>
+      </c>
+      <c r="N20" s="40">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O20" s="16">
+        <v>28</v>
+      </c>
+      <c r="P20" s="41">
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>28</v>
+      </c>
+      <c r="R20" s="41">
+        <f t="shared" si="2"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="T20" s="42">
+        <f t="shared" si="3"/>
+        <v>77.042997234096049</v>
+      </c>
+      <c r="U20" s="24">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="V20" s="42">
+        <f t="shared" si="4"/>
+        <v>77.849676455948241</v>
+      </c>
+      <c r="W20" s="24">
+        <v>28.8</v>
+      </c>
+      <c r="X20" s="42">
+        <f t="shared" si="5"/>
+        <v>128.57142857142858</v>
+      </c>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>18</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33">
+        <v>3</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="15">
+        <v>30</v>
+      </c>
+      <c r="N21" s="40">
+        <f t="shared" si="0"/>
+        <v>96.774193548387103</v>
+      </c>
+      <c r="O21" s="16">
+        <v>31</v>
+      </c>
+      <c r="P21" s="41">
+        <f t="shared" si="1"/>
+        <v>103.33333333333334</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>30</v>
+      </c>
+      <c r="R21" s="41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="T21" s="42">
+        <f t="shared" si="3"/>
+        <v>109.45436258486296</v>
+      </c>
+      <c r="U21" s="24">
+        <v>0.43740000000000001</v>
+      </c>
+      <c r="V21" s="42">
+        <f t="shared" si="4"/>
+        <v>108.86012941762071</v>
+      </c>
+      <c r="W21" s="24">
+        <v>20.2</v>
+      </c>
+      <c r="X21" s="42">
+        <f t="shared" si="5"/>
+        <v>90.178571428571431</v>
+      </c>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>19</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33">
+        <v>2</v>
+      </c>
+      <c r="M22" s="15">
+        <v>37</v>
+      </c>
+      <c r="N22" s="40">
+        <f t="shared" si="0"/>
+        <v>119.35483870967742</v>
+      </c>
+      <c r="O22" s="16">
+        <v>30</v>
+      </c>
+      <c r="P22" s="41">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>27</v>
+      </c>
+      <c r="R22" s="41">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="T22" s="41">
+        <f t="shared" si="3"/>
+        <v>149.15765652501884</v>
+      </c>
+      <c r="U22" s="24">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="V22" s="42">
+        <f t="shared" si="4"/>
+        <v>148.33250373320058</v>
+      </c>
+      <c r="W22" s="24">
+        <v>15.1</v>
+      </c>
+      <c r="X22" s="42">
+        <f t="shared" si="5"/>
+        <v>67.410714285714292</v>
+      </c>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>20</v>
+      </c>
+      <c r="B23" s="64"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33">
+        <v>8</v>
+      </c>
+      <c r="M23" s="15">
+        <v>26</v>
+      </c>
+      <c r="N23" s="40">
+        <f t="shared" si="0"/>
+        <v>83.870967741935488</v>
+      </c>
+      <c r="O23" s="16">
+        <v>29</v>
+      </c>
+      <c r="P23" s="41">
+        <f t="shared" si="1"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>31</v>
+      </c>
+      <c r="R23" s="41">
+        <f t="shared" si="2"/>
+        <v>103.33333333333334</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0.2041</v>
+      </c>
+      <c r="T23" s="41">
+        <f t="shared" si="3"/>
+        <v>51.320090520492833</v>
+      </c>
+      <c r="U23" s="24">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="V23" s="42">
+        <f t="shared" si="4"/>
+        <v>51.592832254853164</v>
+      </c>
+      <c r="W23" s="24">
+        <v>38</v>
+      </c>
+      <c r="X23" s="42">
+        <f t="shared" si="5"/>
+        <v>169.64285714285717</v>
+      </c>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>21</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="16"/>
+      <c r="T24" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="24"/>
+      <c r="V24" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="24"/>
+      <c r="X24" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>22</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="24"/>
+      <c r="V25" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="24"/>
+      <c r="X25" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="24"/>
+      <c r="V26" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="24"/>
+      <c r="X26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>24</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="24"/>
+      <c r="V27" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="24"/>
+      <c r="X27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>25</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="24"/>
+      <c r="V28" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="24"/>
+      <c r="X28" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>26</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="16"/>
+      <c r="T29" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="24"/>
+      <c r="V29" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="24"/>
+      <c r="X29" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>27</v>
+      </c>
+      <c r="B30" s="64"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="16"/>
+      <c r="T30" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="24"/>
+      <c r="V30" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="24"/>
+      <c r="X30" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>28</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="24"/>
+      <c r="V31" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="24"/>
+      <c r="X31" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>29</v>
+      </c>
+      <c r="B32" s="64"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="16"/>
+      <c r="T32" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="24"/>
+      <c r="V32" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="24"/>
+      <c r="X32" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>30</v>
+      </c>
+      <c r="B33" s="64"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="16"/>
+      <c r="T33" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="24"/>
+      <c r="V33" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="24"/>
+      <c r="X33" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>31</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="16"/>
+      <c r="T34" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="24"/>
+      <c r="V34" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="24"/>
+      <c r="X34" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>32</v>
+      </c>
+      <c r="B35" s="64"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="16"/>
+      <c r="T35" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="24"/>
+      <c r="V35" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="24"/>
+      <c r="X35" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>33</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="16"/>
+      <c r="T36" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="24"/>
+      <c r="V36" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="24"/>
+      <c r="X36" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>34</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="16"/>
+      <c r="T37" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="24"/>
+      <c r="V37" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="24"/>
+      <c r="X37" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>35</v>
+      </c>
+      <c r="B38" s="64"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="16"/>
+      <c r="T38" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="24"/>
+      <c r="V38" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="24"/>
+      <c r="X38" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>36</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="16"/>
+      <c r="T39" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="24"/>
+      <c r="V39" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="24"/>
+      <c r="X39" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>37</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="16"/>
+      <c r="P40" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="16"/>
+      <c r="T40" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="24"/>
+      <c r="V40" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="24"/>
+      <c r="X40" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>38</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="16"/>
+      <c r="T41" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="24"/>
+      <c r="V41" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="24"/>
+      <c r="X41" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N4:N41 P4:P41 R4:R41 T4:T41">
+    <cfRule type="cellIs" dxfId="95" priority="46" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="47" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="48" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4:V41">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="44" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="45" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X41">
+    <cfRule type="cellIs" dxfId="83" priority="40" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="41" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="42" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C41">
+    <cfRule type="cellIs" dxfId="77" priority="37" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="38" operator="lessThan">
+      <formula>"$B$3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="39" operator="lessThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D31 D33:D41">
+    <cfRule type="cellIs" dxfId="71" priority="35" operator="lessThan">
+      <formula>$D$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="36" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E31 E33:G41">
+    <cfRule type="cellIs" dxfId="67" priority="33" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="34" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H31 H33:H41">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I31 I33:I41">
+    <cfRule type="cellIs" dxfId="59" priority="29" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="30" operator="greaterThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J31 J33:J41">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="lessThan">
+      <formula>$J$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="greaterThan">
+      <formula>$J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K31 K33:K41">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="lessThan">
+      <formula>$K$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="greaterThan">
+      <formula>$K$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L31 L33:L41">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="lessThan">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="greaterThan">
+      <formula>$L$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="lessThan">
+      <formula>$D$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="39" priority="19" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="lessThan">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="lessThan">
+      <formula>$I$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="greaterThan">
+      <formula>$I$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThan">
+      <formula>$J$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="greaterThan">
+      <formula>$J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+      <formula>$K$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+      <formula>$K$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+      <formula>$L$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F31">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G31">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4527,17 +8057,17 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
+      <c r="C1" s="101"/>
       <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="88"/>
+      <c r="F1" s="103"/>
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -5592,20 +9122,20 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="87"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="15"/>
       <c r="K1" s="35"/>
       <c r="L1" s="16"/>
@@ -5647,22 +9177,22 @@
       <c r="I2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93" t="s">
+      <c r="J2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93" t="s">
+      <c r="M2" s="108"/>
+      <c r="N2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="86" t="s">
+      <c r="O2" s="108"/>
+      <c r="P2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="86"/>
+      <c r="Q2" s="101"/>
       <c r="R2" s="34"/>
       <c r="S2" s="24"/>
       <c r="T2" s="26" t="s">
@@ -5706,22 +9236,22 @@
       <c r="I3" s="28">
         <v>25</v>
       </c>
-      <c r="J3" s="90">
+      <c r="J3" s="105">
         <v>42</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106">
         <v>46</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91">
+      <c r="M3" s="106"/>
+      <c r="N3" s="106">
         <v>55</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="89">
+      <c r="O3" s="106"/>
+      <c r="P3" s="104">
         <v>0.28554000000000002</v>
       </c>
-      <c r="Q3" s="89"/>
+      <c r="Q3" s="104"/>
       <c r="R3" s="39"/>
       <c r="S3" s="24" t="s">
         <v>12</v>
@@ -7078,13 +10608,13 @@
     <mergeCell ref="N3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K19 M4:M19 O4:O19 Q4:Q19">
-    <cfRule type="cellIs" dxfId="291" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="386" priority="2" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="385" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7108,18 +10638,18 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="87"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="15"/>
       <c r="K1" s="35"/>
       <c r="L1" s="16"/>
@@ -7164,30 +10694,30 @@
       <c r="I2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93" t="s">
+      <c r="J2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93" t="s">
+      <c r="M2" s="108"/>
+      <c r="N2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="86" t="s">
+      <c r="O2" s="108"/>
+      <c r="P2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86" t="s">
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="86"/>
-      <c r="T2" s="93" t="s">
+      <c r="S2" s="101"/>
+      <c r="T2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="93"/>
+      <c r="U2" s="108"/>
       <c r="V2" s="24"/>
       <c r="W2" s="37" t="s">
         <v>0</v>
@@ -7233,30 +10763,30 @@
       <c r="I3" s="28">
         <v>25</v>
       </c>
-      <c r="J3" s="90">
+      <c r="J3" s="105">
         <v>29</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106">
         <v>41</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91">
+      <c r="M3" s="106"/>
+      <c r="N3" s="106">
         <v>55</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="89">
+      <c r="O3" s="106"/>
+      <c r="P3" s="104">
         <v>0.44667000000000001</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89">
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104">
         <v>0.44850000000000001</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89">
+      <c r="S3" s="104"/>
+      <c r="T3" s="104">
         <v>11.9</v>
       </c>
-      <c r="U3" s="89"/>
+      <c r="U3" s="104"/>
       <c r="V3" s="24" t="s">
         <v>12</v>
       </c>
@@ -9870,30 +13400,30 @@
       <c r="I42" s="71">
         <v>18</v>
       </c>
-      <c r="J42" s="90">
+      <c r="J42" s="105">
         <v>71</v>
       </c>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91">
+      <c r="K42" s="106"/>
+      <c r="L42" s="106">
         <v>92</v>
       </c>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91">
+      <c r="M42" s="106"/>
+      <c r="N42" s="106">
         <v>98</v>
       </c>
-      <c r="O42" s="91"/>
-      <c r="P42" s="89">
+      <c r="O42" s="106"/>
+      <c r="P42" s="104">
         <v>0.2102</v>
       </c>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="89">
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104">
         <v>0.21260000000000001</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89">
+      <c r="S42" s="104"/>
+      <c r="T42" s="104">
         <v>9.9</v>
       </c>
-      <c r="U42" s="89"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72" t="s">
         <v>12</v>
       </c>
@@ -11213,11 +14743,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="P2:Q2"/>
@@ -11227,233 +14758,232 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K41 M4:M41 O4:O41 Q4:Q41 M43:M66 O43:O66 Q43:Q66 K43:K66">
-    <cfRule type="cellIs" dxfId="288" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="55" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="383" priority="56" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="382" priority="57" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S41 S43:S66">
-    <cfRule type="cellIs" dxfId="285" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="381" priority="52" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="380" priority="53" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="379" priority="54" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U41 U43:U66">
-    <cfRule type="cellIs" dxfId="282" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="378" priority="49" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="377" priority="50" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="376" priority="51" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B41 B43:B48 B50:B66">
-    <cfRule type="cellIs" dxfId="279" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="46" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="374" priority="47" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="373" priority="48" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C41 C43:C48 C50:C66">
-    <cfRule type="cellIs" dxfId="276" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="372" priority="44" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="45" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41 D43:D48 D50:D66">
-    <cfRule type="cellIs" dxfId="274" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="370" priority="42" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="43" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:E41 E43:E48 E50:E66">
-    <cfRule type="cellIs" dxfId="272" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="368" priority="40" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="367" priority="41" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31 F33:F41 F43:F48 F50:F66">
-    <cfRule type="cellIs" dxfId="270" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="366" priority="38" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="39" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31 G33:G41 G43:G48 G50:G66">
-    <cfRule type="cellIs" dxfId="268" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="364" priority="36" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="37" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41 H43:H48 H50:H66">
-    <cfRule type="cellIs" dxfId="266" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="362" priority="34" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="361" priority="35" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41 I43:I48 I50:I66">
-    <cfRule type="cellIs" dxfId="264" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="360" priority="32" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="359" priority="33" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="262" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="358" priority="30" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="31" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="260" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="356" priority="28" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="355" priority="29" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="258" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="354" priority="26" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="27" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="256" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="352" priority="24" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="25" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="254" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="350" priority="22" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="349" priority="23" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="252" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="348" priority="20" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="347" priority="21" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="250" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="18" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="345" priority="19" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="248" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="344" priority="15" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="16" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="17" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="245" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="13" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="340" priority="14" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="243" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="11" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="338" priority="12" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="241" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="239" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="7" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="334" priority="8" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="237" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="5" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="6" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="235" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="3" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="4" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="233" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="1" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="2" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11474,17 +15004,17 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="87"/>
+      <c r="H1" s="102"/>
       <c r="I1" s="15"/>
       <c r="J1" s="35"/>
       <c r="K1" s="16"/>
@@ -11526,30 +15056,30 @@
       <c r="H2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93" t="s">
+      <c r="I2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93" t="s">
+      <c r="L2" s="108"/>
+      <c r="M2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="86" t="s">
+      <c r="N2" s="108"/>
+      <c r="O2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86" t="s">
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="93" t="s">
+      <c r="R2" s="101"/>
+      <c r="S2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="93"/>
+      <c r="T2" s="108"/>
       <c r="U2" s="24"/>
       <c r="V2" s="78" t="s">
         <v>0</v>
@@ -11592,30 +15122,30 @@
       <c r="H3" s="28">
         <v>17</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="105">
         <v>93</v>
       </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91">
+      <c r="J3" s="106"/>
+      <c r="K3" s="106">
         <v>103</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91">
+      <c r="L3" s="106"/>
+      <c r="M3" s="106">
         <v>107</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91">
+      <c r="N3" s="106"/>
+      <c r="O3" s="106">
         <v>0.1845</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91">
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106">
         <v>0.19059999999999999</v>
       </c>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91">
+      <c r="R3" s="106"/>
+      <c r="S3" s="106">
         <v>8.1</v>
       </c>
-      <c r="T3" s="91"/>
+      <c r="T3" s="106"/>
       <c r="U3" s="24" t="s">
         <v>12</v>
       </c>
@@ -13453,11 +16983,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="I3:J3"/>
@@ -13467,152 +16992,157 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J41 L4:L41 N4:N41 P4:P41">
-    <cfRule type="cellIs" dxfId="231" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="38" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="39" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="325" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R41">
-    <cfRule type="cellIs" dxfId="228" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="35" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="36" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="322" priority="37" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T41">
-    <cfRule type="cellIs" dxfId="225" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="32" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="33" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="319" priority="34" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B41">
-    <cfRule type="cellIs" dxfId="222" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="29" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="30" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="31" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C41">
-    <cfRule type="cellIs" dxfId="219" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="27" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="28" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41">
-    <cfRule type="cellIs" dxfId="217" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:E41">
-    <cfRule type="cellIs" dxfId="215" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="310" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31 F33:F41">
-    <cfRule type="cellIs" dxfId="213" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="21" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="22" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G41">
-    <cfRule type="cellIs" dxfId="211" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="19" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="20" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="209" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="17" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="18" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41">
-    <cfRule type="cellIs" dxfId="207" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="15" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="302" priority="16" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="205" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="13" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="14" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="203" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="11" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="298" priority="12" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="201" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="199" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="7" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="8" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="197" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="3" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="292" priority="4" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="195" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="1" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="2" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13632,19 +17162,19 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="67"/>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="87"/>
+      <c r="J1" s="102"/>
       <c r="K1" s="15"/>
       <c r="L1" s="35"/>
       <c r="M1" s="16"/>
@@ -13692,30 +17222,30 @@
       <c r="J2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93" t="s">
+      <c r="K2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93" t="s">
+      <c r="N2" s="108"/>
+      <c r="O2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="86" t="s">
+      <c r="P2" s="108"/>
+      <c r="Q2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86" t="s">
+      <c r="R2" s="101"/>
+      <c r="S2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="93" t="s">
+      <c r="T2" s="101"/>
+      <c r="U2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="93"/>
+      <c r="V2" s="108"/>
       <c r="W2" s="24"/>
       <c r="X2" s="68" t="s">
         <v>0</v>
@@ -13764,30 +17294,30 @@
       <c r="J3" s="28">
         <v>18</v>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="105">
         <v>70</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91">
+      <c r="L3" s="106"/>
+      <c r="M3" s="106">
         <v>101</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91">
+      <c r="N3" s="106"/>
+      <c r="O3" s="106">
         <v>100</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="89">
+      <c r="P3" s="106"/>
+      <c r="Q3" s="104">
         <v>0.441</v>
       </c>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89">
+      <c r="R3" s="104"/>
+      <c r="S3" s="104">
         <v>0.44629999999999997</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89">
+      <c r="T3" s="104"/>
+      <c r="U3" s="104">
         <v>5.9</v>
       </c>
-      <c r="V3" s="89"/>
+      <c r="V3" s="104"/>
       <c r="W3" s="24" t="s">
         <v>12</v>
       </c>
@@ -16791,6 +20321,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="K3:L3"/>
@@ -16800,173 +20335,168 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="I33:I66">
-    <cfRule type="cellIs" dxfId="193" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="1" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="2" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L66 N4:N66 P4:P66 R4:R66">
-    <cfRule type="cellIs" dxfId="191" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="38" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="39" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T66">
-    <cfRule type="cellIs" dxfId="188" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="35" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="36" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="37" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V66">
-    <cfRule type="cellIs" dxfId="185" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="32" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="33" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="34" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B66">
-    <cfRule type="cellIs" dxfId="182" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="29" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="30" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="31" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C66">
-    <cfRule type="cellIs" dxfId="179" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="27" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="274" priority="28" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D66">
-    <cfRule type="cellIs" dxfId="177" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:E66">
-    <cfRule type="cellIs" dxfId="175" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31 F33:F66">
-    <cfRule type="cellIs" dxfId="173" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="21" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="22" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H31 G33:H66">
-    <cfRule type="cellIs" dxfId="171" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="19" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="20" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31">
-    <cfRule type="cellIs" dxfId="169" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="17" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="18" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J66">
-    <cfRule type="cellIs" dxfId="167" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="15" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="16" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="165" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="13" operator="lessThan">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="14" operator="greaterThan">
       <formula>$C$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="163" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="11" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="12" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="161" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="159" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="7" operator="lessThan">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="8" operator="greaterThan">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="cellIs" dxfId="157" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="5" operator="lessThan">
       <formula>$G$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="6" operator="greaterThan">
       <formula>$G$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="155" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="3" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="4" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="153" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="41" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="42" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16978,29 +20508,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="87"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="15"/>
       <c r="N1" s="35"/>
       <c r="O1" s="16"/>
@@ -17054,30 +20584,30 @@
       <c r="L2" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93" t="s">
+      <c r="M2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93" t="s">
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="86" t="s">
+      <c r="R2" s="108"/>
+      <c r="S2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86" t="s">
+      <c r="T2" s="101"/>
+      <c r="U2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="86"/>
-      <c r="W2" s="93" t="s">
+      <c r="V2" s="101"/>
+      <c r="W2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="93"/>
+      <c r="X2" s="108"/>
       <c r="Y2" s="24"/>
       <c r="Z2" s="81" t="s">
         <v>0</v>
@@ -17100,28 +20630,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="29">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="28">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="28">
         <v>30</v>
       </c>
       <c r="F3" s="28">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G3" s="28">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" s="28">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I3" s="28">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J3" s="28">
         <v>0.02</v>
@@ -17132,30 +20662,30 @@
       <c r="L3" s="28">
         <v>4</v>
       </c>
-      <c r="M3" s="90">
+      <c r="M3" s="105">
         <v>31</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91">
+      <c r="N3" s="106"/>
+      <c r="O3" s="106">
         <v>30</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91">
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106">
         <v>30</v>
       </c>
-      <c r="R3" s="91"/>
-      <c r="S3" s="89">
+      <c r="R3" s="106"/>
+      <c r="S3" s="104">
         <v>0.3977</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89">
+      <c r="T3" s="104"/>
+      <c r="U3" s="104">
         <v>0.40179999999999999</v>
       </c>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89">
+      <c r="V3" s="104"/>
+      <c r="W3" s="104">
         <v>22.4</v>
       </c>
-      <c r="X3" s="89"/>
+      <c r="X3" s="104"/>
       <c r="Y3" s="24" t="s">
         <v>12</v>
       </c>
@@ -17182,7 +20712,7 @@
       <c r="B4" s="57">
         <v>1E-3</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -17247,7 +20777,7 @@
       <c r="B5" s="59">
         <v>0.01</v>
       </c>
-      <c r="C5" s="95"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -19384,6 +22914,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="M3:N3"/>
@@ -19392,198 +22927,193 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:N41 P4:P41 R4:R41 T4:T41">
-    <cfRule type="cellIs" dxfId="151" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="46" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="47" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="48" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V41">
-    <cfRule type="cellIs" dxfId="148" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="43" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="44" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="45" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X41">
-    <cfRule type="cellIs" dxfId="145" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="40" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="41" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="42" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C41">
-    <cfRule type="cellIs" dxfId="142" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="37" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="38" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="39" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41">
-    <cfRule type="cellIs" dxfId="139" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="35" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="36" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:G41">
-    <cfRule type="cellIs" dxfId="137" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="33" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="34" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41">
-    <cfRule type="cellIs" dxfId="135" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="31" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="32" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41">
-    <cfRule type="cellIs" dxfId="133" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="29" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="30" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J41">
-    <cfRule type="cellIs" dxfId="131" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="27" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="28" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K31 K33:K41">
-    <cfRule type="cellIs" dxfId="129" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="25" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="26" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="127" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="23" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="24" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="125" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="21" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="22" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="123" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="19" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="20" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="121" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="18" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="119" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="15" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="16" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="117" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="13" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="14" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="115" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="11" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="12" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="113" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="9" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="10" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31">
-    <cfRule type="cellIs" dxfId="111" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="7" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="8" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="109" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="5" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="6" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="3" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="4" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="1" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="2" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19603,21 +23133,21 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="87"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="15"/>
       <c r="N1" s="35"/>
       <c r="O1" s="16"/>
@@ -19671,30 +23201,30 @@
       <c r="L2" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93" t="s">
+      <c r="M2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93" t="s">
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="86" t="s">
+      <c r="R2" s="108"/>
+      <c r="S2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86" t="s">
+      <c r="T2" s="101"/>
+      <c r="U2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="86"/>
-      <c r="W2" s="93" t="s">
+      <c r="V2" s="101"/>
+      <c r="W2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="93"/>
+      <c r="X2" s="108"/>
       <c r="Y2" s="24"/>
       <c r="Z2" s="81" t="s">
         <v>0</v>
@@ -19749,30 +23279,30 @@
       <c r="L3" s="28">
         <v>7</v>
       </c>
-      <c r="M3" s="90">
+      <c r="M3" s="105">
         <v>91</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91">
+      <c r="N3" s="106"/>
+      <c r="O3" s="106">
         <v>92</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91">
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106">
         <v>94</v>
       </c>
-      <c r="R3" s="91"/>
-      <c r="S3" s="89">
+      <c r="R3" s="106"/>
+      <c r="S3" s="104">
         <v>0.21460000000000001</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89">
+      <c r="T3" s="104"/>
+      <c r="U3" s="104">
         <v>0.2185</v>
       </c>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89">
+      <c r="V3" s="104"/>
+      <c r="W3" s="104">
         <v>10.3</v>
       </c>
-      <c r="X3" s="89"/>
+      <c r="X3" s="104"/>
       <c r="Y3" s="24" t="s">
         <v>12</v>
       </c>
@@ -19820,7 +23350,7 @@
         <v>101</v>
       </c>
       <c r="P4" s="41">
-        <f>O4/$O$3*100</f>
+        <f t="shared" ref="P4:P41" si="0">O4/$O$3*100</f>
         <v>109.78260869565217</v>
       </c>
       <c r="Q4" s="2">
@@ -19878,42 +23408,42 @@
         <v>88</v>
       </c>
       <c r="N5" s="40">
-        <f t="shared" ref="N5:N41" si="0">M5/$M$3*100</f>
+        <f t="shared" ref="N5:N41" si="1">M5/$M$3*100</f>
         <v>96.703296703296701</v>
       </c>
       <c r="O5" s="2">
         <v>92</v>
       </c>
       <c r="P5" s="41">
-        <f>O5/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="Q5" s="2">
         <v>96</v>
       </c>
       <c r="R5" s="41">
-        <f t="shared" ref="R5:R41" si="1">Q5/$Q$3*100</f>
+        <f t="shared" ref="R5:R41" si="2">Q5/$Q$3*100</f>
         <v>102.12765957446808</v>
       </c>
       <c r="S5" s="46">
         <v>0.19070000000000001</v>
       </c>
       <c r="T5" s="42">
-        <f t="shared" ref="T5:T41" si="2">S5/$S$3*100</f>
+        <f t="shared" ref="T5:T41" si="3">S5/$S$3*100</f>
         <v>88.863000931966454</v>
       </c>
       <c r="U5" s="24">
         <v>0.1946</v>
       </c>
       <c r="V5" s="42">
-        <f t="shared" ref="V5:V41" si="3">U5/$U$3*100</f>
+        <f t="shared" ref="V5:V41" si="4">U5/$U$3*100</f>
         <v>89.061784897025163</v>
       </c>
       <c r="W5" s="24">
         <v>11.1</v>
       </c>
       <c r="X5" s="42">
-        <f t="shared" ref="X5:X41" si="4">W5/$W$3*100</f>
+        <f t="shared" ref="X5:X41" si="5">W5/$W$3*100</f>
         <v>107.76699029126213</v>
       </c>
       <c r="Y5" s="24"/>
@@ -19950,35 +23480,35 @@
         <v>93</v>
       </c>
       <c r="P6" s="41">
-        <f>O6/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>101.08695652173914</v>
       </c>
       <c r="Q6" s="2">
         <v>91</v>
       </c>
       <c r="R6" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.808510638297875</v>
       </c>
       <c r="S6" s="46">
         <v>0.2432</v>
       </c>
       <c r="T6" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113.32712022367195</v>
       </c>
       <c r="U6" s="24">
         <v>0.24690000000000001</v>
       </c>
       <c r="V6" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112.99771167048056</v>
       </c>
       <c r="W6" s="24">
         <v>9.5</v>
       </c>
       <c r="X6" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92.233009708737853</v>
       </c>
       <c r="Y6" s="24"/>
@@ -20008,42 +23538,42 @@
         <v>93</v>
       </c>
       <c r="N7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102.19780219780219</v>
       </c>
       <c r="O7" s="2">
         <v>100</v>
       </c>
       <c r="P7" s="41">
-        <f>O7/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>108.69565217391303</v>
       </c>
       <c r="Q7" s="2">
         <v>102</v>
       </c>
       <c r="R7" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108.51063829787233</v>
       </c>
       <c r="S7" s="46">
         <v>0.2354</v>
       </c>
       <c r="T7" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109.6924510717614</v>
       </c>
       <c r="U7" s="24">
         <v>0.24010000000000001</v>
       </c>
       <c r="V7" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109.88558352402747</v>
       </c>
       <c r="W7" s="24">
         <v>10.3</v>
       </c>
       <c r="X7" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="Y7" s="24"/>
@@ -20073,42 +23603,42 @@
         <v>91</v>
       </c>
       <c r="N8" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O8" s="43">
         <v>92</v>
       </c>
       <c r="P8" s="41">
-        <f>O8/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="Q8" s="43">
         <v>94</v>
       </c>
       <c r="R8" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="S8" s="47">
         <v>0.21460000000000001</v>
       </c>
       <c r="T8" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="U8" s="24">
         <v>0.2185</v>
       </c>
       <c r="V8" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="W8" s="24">
         <v>9.9</v>
       </c>
       <c r="X8" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96.116504854368941</v>
       </c>
       <c r="Y8" s="24"/>
@@ -20134,32 +23664,32 @@
       <c r="L9" s="58"/>
       <c r="M9" s="3"/>
       <c r="N9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="41">
-        <f>O9/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="46"/>
       <c r="T9" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="24"/>
       <c r="V9" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W9" s="24"/>
       <c r="X9" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y9" s="24"/>
@@ -20185,32 +23715,32 @@
       <c r="L10" s="58"/>
       <c r="M10" s="3"/>
       <c r="N10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="41">
-        <f>O10/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S10" s="46"/>
       <c r="T10" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U10" s="24"/>
       <c r="V10" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W10" s="24"/>
       <c r="X10" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y10" s="24"/>
@@ -20236,32 +23766,32 @@
       <c r="L11" s="58"/>
       <c r="M11" s="3"/>
       <c r="N11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="41">
-        <f>O11/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11" s="46"/>
       <c r="T11" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U11" s="24"/>
       <c r="V11" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="24"/>
       <c r="X11" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y11" s="24"/>
@@ -20287,32 +23817,32 @@
       <c r="L12" s="63"/>
       <c r="M12" s="3"/>
       <c r="N12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O12" s="43"/>
       <c r="P12" s="41">
-        <f>O12/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12" s="43"/>
       <c r="R12" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12" s="47"/>
       <c r="T12" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U12" s="24"/>
       <c r="V12" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W12" s="24"/>
       <c r="X12" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y12" s="24"/>
@@ -20338,32 +23868,32 @@
       <c r="L13" s="33"/>
       <c r="M13" s="3"/>
       <c r="N13" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="41">
-        <f>O13/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13" s="46"/>
       <c r="T13" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13" s="24"/>
       <c r="V13" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W13" s="24"/>
       <c r="X13" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y13" s="24"/>
@@ -20389,32 +23919,32 @@
       <c r="L14" s="33"/>
       <c r="M14" s="3"/>
       <c r="N14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="41">
-        <f>O14/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="46"/>
       <c r="T14" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W14" s="24"/>
       <c r="X14" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y14" s="24"/>
@@ -20440,32 +23970,32 @@
       <c r="L15" s="33"/>
       <c r="M15" s="3"/>
       <c r="N15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="41">
-        <f>O15/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15" s="46"/>
       <c r="T15" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15" s="24"/>
       <c r="V15" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15" s="24"/>
       <c r="X15" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y15" s="24"/>
@@ -20491,32 +24021,32 @@
       <c r="L16" s="39"/>
       <c r="M16" s="3"/>
       <c r="N16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O16" s="43"/>
       <c r="P16" s="41">
-        <f>O16/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q16" s="43"/>
       <c r="R16" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S16" s="51"/>
       <c r="T16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="24"/>
       <c r="V16" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W16" s="24"/>
       <c r="X16" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y16" s="24"/>
@@ -20542,32 +24072,32 @@
       <c r="L17" s="33"/>
       <c r="M17" s="3"/>
       <c r="N17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="41">
-        <f>O17/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S17" s="52"/>
       <c r="T17" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U17" s="24"/>
       <c r="V17" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W17" s="24"/>
       <c r="X17" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y17" s="24"/>
@@ -20593,32 +24123,32 @@
       <c r="L18" s="33"/>
       <c r="M18" s="53"/>
       <c r="N18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O18" s="54"/>
       <c r="P18" s="41">
-        <f>O18/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q18" s="54"/>
       <c r="R18" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S18" s="46"/>
       <c r="T18" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U18" s="24"/>
       <c r="V18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W18" s="24"/>
       <c r="X18" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y18" s="24"/>
@@ -20644,32 +24174,32 @@
       <c r="L19" s="33"/>
       <c r="M19" s="53"/>
       <c r="N19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O19" s="54"/>
       <c r="P19" s="41">
-        <f>O19/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q19" s="54"/>
       <c r="R19" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S19" s="46"/>
       <c r="T19" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U19" s="24"/>
       <c r="V19" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W19" s="24"/>
       <c r="X19" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y19" s="24"/>
@@ -20695,32 +24225,32 @@
       <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="41">
-        <f>O20/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S20" s="16"/>
       <c r="T20" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U20" s="24"/>
       <c r="V20" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W20" s="24"/>
       <c r="X20" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y20" s="24"/>
@@ -20746,32 +24276,32 @@
       <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O21" s="16"/>
       <c r="P21" s="41">
-        <f>O21/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U21" s="24"/>
       <c r="V21" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W21" s="24"/>
       <c r="X21" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y21" s="24"/>
@@ -20797,32 +24327,32 @@
       <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O22" s="16"/>
       <c r="P22" s="41">
-        <f>O22/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S22" s="16"/>
       <c r="T22" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U22" s="24"/>
       <c r="V22" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W22" s="24"/>
       <c r="X22" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y22" s="24"/>
@@ -20848,32 +24378,32 @@
       <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="41">
-        <f>O23/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S23" s="16"/>
       <c r="T23" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U23" s="24"/>
       <c r="V23" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W23" s="24"/>
       <c r="X23" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y23" s="24"/>
@@ -20899,32 +24429,32 @@
       <c r="L24" s="33"/>
       <c r="M24" s="15"/>
       <c r="N24" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="41">
-        <f>O24/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U24" s="24"/>
       <c r="V24" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W24" s="24"/>
       <c r="X24" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y24" s="24"/>
@@ -20950,32 +24480,32 @@
       <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="41">
-        <f>O25/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S25" s="16"/>
       <c r="T25" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U25" s="24"/>
       <c r="V25" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W25" s="24"/>
       <c r="X25" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y25" s="24"/>
@@ -21001,32 +24531,32 @@
       <c r="L26" s="33"/>
       <c r="M26" s="15"/>
       <c r="N26" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="41">
-        <f>O26/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S26" s="16"/>
       <c r="T26" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W26" s="24"/>
       <c r="X26" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y26" s="24"/>
@@ -21052,32 +24582,32 @@
       <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="41">
-        <f>O27/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U27" s="24"/>
       <c r="V27" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y27" s="24"/>
@@ -21103,32 +24633,32 @@
       <c r="L28" s="33"/>
       <c r="M28" s="15"/>
       <c r="N28" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="41">
-        <f>O28/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U28" s="24"/>
       <c r="V28" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W28" s="24"/>
       <c r="X28" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y28" s="24"/>
@@ -21154,32 +24684,32 @@
       <c r="L29" s="33"/>
       <c r="M29" s="15"/>
       <c r="N29" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="41">
-        <f>O29/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U29" s="24"/>
       <c r="V29" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W29" s="24"/>
       <c r="X29" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y29" s="24"/>
@@ -21205,32 +24735,32 @@
       <c r="L30" s="33"/>
       <c r="M30" s="15"/>
       <c r="N30" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="41">
-        <f>O30/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S30" s="16"/>
       <c r="T30" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U30" s="24"/>
       <c r="V30" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W30" s="24"/>
       <c r="X30" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y30" s="24"/>
@@ -21256,32 +24786,32 @@
       <c r="L31" s="33"/>
       <c r="M31" s="15"/>
       <c r="N31" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="41">
-        <f>O31/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U31" s="24"/>
       <c r="V31" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W31" s="24"/>
       <c r="X31" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y31" s="24"/>
@@ -21307,32 +24837,32 @@
       <c r="L32" s="33"/>
       <c r="M32" s="15"/>
       <c r="N32" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="41">
-        <f>O32/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U32" s="24"/>
       <c r="V32" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W32" s="24"/>
       <c r="X32" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y32" s="24"/>
@@ -21358,32 +24888,32 @@
       <c r="L33" s="33"/>
       <c r="M33" s="15"/>
       <c r="N33" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="41">
-        <f>O33/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U33" s="24"/>
       <c r="V33" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W33" s="24"/>
       <c r="X33" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y33" s="24"/>
@@ -21409,32 +24939,32 @@
       <c r="L34" s="33"/>
       <c r="M34" s="15"/>
       <c r="N34" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="41">
-        <f>O34/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q34" s="16"/>
       <c r="R34" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U34" s="24"/>
       <c r="V34" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W34" s="24"/>
       <c r="X34" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y34" s="24"/>
@@ -21460,32 +24990,32 @@
       <c r="L35" s="33"/>
       <c r="M35" s="15"/>
       <c r="N35" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O35" s="16"/>
       <c r="P35" s="41">
-        <f>O35/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U35" s="24"/>
       <c r="V35" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W35" s="24"/>
       <c r="X35" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y35" s="24"/>
@@ -21511,32 +25041,32 @@
       <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O36" s="16"/>
       <c r="P36" s="41">
-        <f>O36/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S36" s="16"/>
       <c r="T36" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U36" s="24"/>
       <c r="V36" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W36" s="24"/>
       <c r="X36" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y36" s="24"/>
@@ -21562,32 +25092,32 @@
       <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O37" s="16"/>
       <c r="P37" s="41">
-        <f>O37/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U37" s="24"/>
       <c r="V37" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W37" s="24"/>
       <c r="X37" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y37" s="24"/>
@@ -21613,32 +25143,32 @@
       <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O38" s="16"/>
       <c r="P38" s="41">
-        <f>O38/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S38" s="16"/>
       <c r="T38" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W38" s="24"/>
       <c r="X38" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y38" s="24"/>
@@ -21664,32 +25194,32 @@
       <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O39" s="16"/>
       <c r="P39" s="41">
-        <f>O39/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S39" s="16"/>
       <c r="T39" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U39" s="24"/>
       <c r="V39" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W39" s="24"/>
       <c r="X39" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y39" s="24"/>
@@ -21715,32 +25245,32 @@
       <c r="L40" s="33"/>
       <c r="M40" s="15"/>
       <c r="N40" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O40" s="16"/>
       <c r="P40" s="41">
-        <f>O40/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S40" s="16"/>
       <c r="T40" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U40" s="24"/>
       <c r="V40" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W40" s="24"/>
       <c r="X40" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -21761,37 +25291,42 @@
       <c r="L41" s="33"/>
       <c r="M41" s="15"/>
       <c r="N41" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O41" s="16"/>
       <c r="P41" s="41">
-        <f>O41/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S41" s="16"/>
       <c r="T41" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U41" s="24"/>
       <c r="V41" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W41" s="24"/>
       <c r="X41" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="M3:N3"/>
@@ -21800,214 +25335,209 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:N41 R4:R41 T4:T41 P4:P41">
-    <cfRule type="cellIs" dxfId="103" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="50" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="51" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="52" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V41">
-    <cfRule type="cellIs" dxfId="100" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="47" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="48" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="49" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X41">
-    <cfRule type="cellIs" dxfId="97" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="44" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="45" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="46" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B41">
-    <cfRule type="cellIs" dxfId="94" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="41" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="42" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="43" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41">
-    <cfRule type="cellIs" dxfId="91" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="39" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="40" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:G41">
-    <cfRule type="cellIs" dxfId="89" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="37" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="38" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41">
-    <cfRule type="cellIs" dxfId="87" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="35" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="36" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41">
-    <cfRule type="cellIs" dxfId="85" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="33" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="34" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J41">
-    <cfRule type="cellIs" dxfId="83" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="31" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="32" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K31 K33:K41">
-    <cfRule type="cellIs" dxfId="81" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="29" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="30" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="79" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="27" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="28" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="75" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="21" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="22" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="19" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="20" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="17" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="18" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="15" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="16" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="13" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="14" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31">
-    <cfRule type="cellIs" dxfId="63" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="11" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="12" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="61" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="7" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="8" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="5" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="6" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C41">
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="3" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="4" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="1" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="2" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22019,7 +25549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -22030,21 +25560,21 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="87"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="15"/>
       <c r="N1" s="35"/>
       <c r="O1" s="16"/>
@@ -22100,34 +25630,34 @@
       <c r="L2" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93" t="s">
+      <c r="M2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93" t="s">
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="86" t="s">
+      <c r="R2" s="108"/>
+      <c r="S2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86" t="s">
+      <c r="T2" s="101"/>
+      <c r="U2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="86"/>
-      <c r="W2" s="93" t="s">
+      <c r="V2" s="101"/>
+      <c r="W2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="93"/>
+      <c r="X2" s="108"/>
       <c r="Y2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="86" t="s">
+      <c r="Z2" s="101" t="s">
         <v>35</v>
       </c>
       <c r="AA2" s="24"/>
@@ -22184,32 +25714,32 @@
       <c r="L3" s="28">
         <v>7</v>
       </c>
-      <c r="M3" s="90">
+      <c r="M3" s="105">
         <v>91</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91">
+      <c r="N3" s="106"/>
+      <c r="O3" s="106">
         <v>92</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91">
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106">
         <v>94</v>
       </c>
-      <c r="R3" s="91"/>
-      <c r="S3" s="89">
+      <c r="R3" s="106"/>
+      <c r="S3" s="104">
         <v>0.21460000000000001</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89">
+      <c r="T3" s="104"/>
+      <c r="U3" s="104">
         <v>0.2185</v>
       </c>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89">
+      <c r="V3" s="104"/>
+      <c r="W3" s="104">
         <v>9.9</v>
       </c>
-      <c r="X3" s="89"/>
+      <c r="X3" s="104"/>
       <c r="Y3" s="30"/>
-      <c r="Z3" s="93"/>
+      <c r="Z3" s="108"/>
       <c r="AA3" s="24" t="s">
         <v>12</v>
       </c>
@@ -22259,7 +25789,7 @@
         <v>83</v>
       </c>
       <c r="P4" s="41">
-        <f>O4/$O$3*100</f>
+        <f t="shared" ref="P4:P41" si="0">O4/$O$3*100</f>
         <v>90.217391304347828</v>
       </c>
       <c r="Q4" s="2">
@@ -22290,8 +25820,8 @@
         <f>W4/$W$3*100</f>
         <v>100</v>
       </c>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="96" t="s">
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="87" t="s">
         <v>36</v>
       </c>
       <c r="AA4" s="24"/>
@@ -22323,45 +25853,45 @@
         <v>98</v>
       </c>
       <c r="N5" s="40">
-        <f t="shared" ref="N5:N41" si="0">M5/$M$3*100</f>
+        <f t="shared" ref="N5:N41" si="1">M5/$M$3*100</f>
         <v>107.69230769230769</v>
       </c>
       <c r="O5" s="2">
         <v>89</v>
       </c>
       <c r="P5" s="41">
-        <f>O5/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>96.739130434782609</v>
       </c>
       <c r="Q5" s="2">
         <v>93</v>
       </c>
       <c r="R5" s="41">
-        <f t="shared" ref="R5:R41" si="1">Q5/$Q$3*100</f>
+        <f t="shared" ref="R5:R41" si="2">Q5/$Q$3*100</f>
         <v>98.936170212765958</v>
       </c>
       <c r="S5" s="46">
         <v>5.33E-2</v>
       </c>
       <c r="T5" s="42">
-        <f t="shared" ref="T5:T41" si="2">S5/$S$3*100</f>
+        <f t="shared" ref="T5:T41" si="3">S5/$S$3*100</f>
         <v>24.83690587138863</v>
       </c>
       <c r="U5" s="24">
         <v>5.7099999999999998E-2</v>
       </c>
       <c r="V5" s="42">
-        <f t="shared" ref="V5:V41" si="3">U5/$U$3*100</f>
+        <f t="shared" ref="V5:V41" si="4">U5/$U$3*100</f>
         <v>26.132723112128147</v>
       </c>
       <c r="W5" s="24">
         <v>9.9</v>
       </c>
       <c r="X5" s="42">
-        <f t="shared" ref="X5:X41" si="4">W5/$W$3*100</f>
+        <f t="shared" ref="X5:X41" si="5">W5/$W$3*100</f>
         <v>100</v>
       </c>
-      <c r="Y5" s="97"/>
+      <c r="Y5" s="88"/>
       <c r="Z5" s="42" t="s">
         <v>37</v>
       </c>
@@ -22401,38 +25931,38 @@
         <v>76</v>
       </c>
       <c r="P6" s="41">
-        <f>O6/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>82.608695652173907</v>
       </c>
       <c r="Q6" s="2">
         <v>78</v>
       </c>
       <c r="R6" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82.978723404255319</v>
       </c>
       <c r="S6" s="46">
         <v>3.9E-2</v>
       </c>
       <c r="T6" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.173345759552657</v>
       </c>
       <c r="U6" s="24">
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="V6" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.71853546910755</v>
       </c>
       <c r="W6" s="24">
         <v>9.9</v>
       </c>
       <c r="X6" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="Y6" s="97"/>
+      <c r="Y6" s="88"/>
       <c r="Z6" s="42" t="s">
         <v>36</v>
       </c>
@@ -22467,45 +25997,45 @@
         <v>89</v>
       </c>
       <c r="N7" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.802197802197796</v>
       </c>
       <c r="O7" s="2">
         <v>84</v>
       </c>
       <c r="P7" s="41">
-        <f>O7/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>91.304347826086953</v>
       </c>
       <c r="Q7" s="2">
         <v>86</v>
       </c>
       <c r="R7" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.489361702127653</v>
       </c>
       <c r="S7" s="46">
         <v>0.10150000000000001</v>
       </c>
       <c r="T7" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.297297297297298</v>
       </c>
       <c r="U7" s="24">
         <v>0.1046</v>
       </c>
       <c r="V7" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47.871853546910756</v>
       </c>
       <c r="W7" s="24">
         <v>9.9</v>
       </c>
       <c r="X7" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="Y7" s="97"/>
+      <c r="Y7" s="88"/>
       <c r="Z7" s="42" t="s">
         <v>38</v>
       </c>
@@ -22516,10 +26046,10 @@
       <c r="AE7" s="24"/>
     </row>
     <row r="8" spans="1:32" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98">
+      <c r="A8" s="89">
         <v>5</v>
       </c>
-      <c r="B8" s="106"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="75"/>
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
@@ -22536,50 +26066,50 @@
       </c>
       <c r="K8" s="75"/>
       <c r="L8" s="75"/>
-      <c r="M8" s="100">
+      <c r="M8" s="91">
         <v>96</v>
       </c>
-      <c r="N8" s="101">
-        <f t="shared" si="0"/>
+      <c r="N8" s="92">
+        <f t="shared" si="1"/>
         <v>105.4945054945055</v>
       </c>
-      <c r="O8" s="102">
+      <c r="O8" s="93">
         <v>107</v>
       </c>
-      <c r="P8" s="101">
-        <f>O8/$O$3*100</f>
+      <c r="P8" s="92">
+        <f t="shared" si="0"/>
         <v>116.30434782608697</v>
       </c>
-      <c r="Q8" s="102">
+      <c r="Q8" s="93">
         <v>109</v>
       </c>
-      <c r="R8" s="101">
-        <f t="shared" si="1"/>
+      <c r="R8" s="92">
+        <f t="shared" si="2"/>
         <v>115.95744680851064</v>
       </c>
-      <c r="S8" s="103">
+      <c r="S8" s="94">
         <v>0.26840000000000003</v>
       </c>
-      <c r="T8" s="101">
-        <f t="shared" si="2"/>
+      <c r="T8" s="92">
+        <f t="shared" si="3"/>
         <v>125.0698974836906</v>
       </c>
       <c r="U8" s="72">
         <v>0.27310000000000001</v>
       </c>
-      <c r="V8" s="104">
-        <f t="shared" si="3"/>
+      <c r="V8" s="95">
+        <f t="shared" si="4"/>
         <v>124.98855835240275</v>
       </c>
       <c r="W8" s="72">
         <v>9.9</v>
       </c>
-      <c r="X8" s="104">
-        <f t="shared" si="4"/>
+      <c r="X8" s="95">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="104" t="s">
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="95" t="s">
         <v>39</v>
       </c>
       <c r="AA8" s="72"/>
@@ -22609,45 +26139,45 @@
         <v>95</v>
       </c>
       <c r="N9" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104.39560439560441</v>
       </c>
       <c r="O9" s="2">
         <v>107</v>
       </c>
       <c r="P9" s="41">
-        <f>O9/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>116.30434782608697</v>
       </c>
       <c r="Q9" s="2">
         <v>108</v>
       </c>
       <c r="R9" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114.89361702127661</v>
       </c>
       <c r="S9" s="46">
         <v>0.27739999999999998</v>
       </c>
       <c r="T9" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129.26374650512579</v>
       </c>
       <c r="U9" s="24">
         <v>0.28210000000000002</v>
       </c>
       <c r="V9" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129.10755148741418</v>
       </c>
       <c r="W9" s="24">
         <v>9.9</v>
       </c>
       <c r="X9" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="Y9" s="97"/>
+      <c r="Y9" s="88"/>
       <c r="Z9" s="42" t="s">
         <v>39</v>
       </c>
@@ -22680,45 +26210,45 @@
         <v>91</v>
       </c>
       <c r="N10" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O10" s="2">
         <v>98</v>
       </c>
       <c r="P10" s="41">
-        <f>O10/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>106.5217391304348</v>
       </c>
       <c r="Q10" s="2">
         <v>97</v>
       </c>
       <c r="R10" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103.19148936170212</v>
       </c>
       <c r="S10" s="46">
         <v>0.28620000000000001</v>
       </c>
       <c r="T10" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133.36439888164026</v>
       </c>
       <c r="U10" s="24">
         <v>0.28970000000000001</v>
       </c>
       <c r="V10" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>132.5858123569794</v>
       </c>
       <c r="W10" s="24">
         <v>9.9</v>
       </c>
       <c r="X10" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="Y10" s="97"/>
+      <c r="Y10" s="88"/>
       <c r="Z10" s="42" t="s">
         <v>40</v>
       </c>
@@ -22749,45 +26279,45 @@
         <v>91</v>
       </c>
       <c r="N11" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O11" s="2">
         <v>97</v>
       </c>
       <c r="P11" s="41">
-        <f>O11/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>105.43478260869566</v>
       </c>
       <c r="Q11" s="2">
         <v>97</v>
       </c>
       <c r="R11" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103.19148936170212</v>
       </c>
       <c r="S11" s="46">
         <v>0.30170000000000002</v>
       </c>
       <c r="T11" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140.58713886300094</v>
       </c>
       <c r="U11" s="24">
         <v>0.30509999999999998</v>
       </c>
       <c r="V11" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139.63386727688786</v>
       </c>
       <c r="W11" s="24">
         <v>9.9</v>
       </c>
       <c r="X11" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="Y11" s="97">
+      <c r="Y11" s="88">
         <v>0.40010000000000001</v>
       </c>
       <c r="Z11" s="42" t="s">
@@ -22820,45 +26350,45 @@
         <v>94</v>
       </c>
       <c r="N12" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103.29670329670331</v>
       </c>
       <c r="O12" s="43">
         <v>101</v>
       </c>
       <c r="P12" s="41">
-        <f>O12/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>109.78260869565217</v>
       </c>
       <c r="Q12" s="43">
         <v>101</v>
       </c>
       <c r="R12" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107.44680851063831</v>
       </c>
       <c r="S12" s="47">
         <v>0.29070000000000001</v>
       </c>
       <c r="T12" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135.46132339235788</v>
       </c>
       <c r="U12" s="24">
         <v>0.29370000000000002</v>
       </c>
       <c r="V12" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>134.41647597254004</v>
       </c>
       <c r="W12" s="24">
         <v>9.9</v>
       </c>
       <c r="X12" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="Y12" s="97">
+      <c r="Y12" s="88">
         <v>0.3952</v>
       </c>
       <c r="Z12" s="42"/>
@@ -22869,10 +26399,10 @@
       <c r="AE12" s="24"/>
     </row>
     <row r="13" spans="1:32" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="98">
+      <c r="A13" s="89">
         <v>10</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="75"/>
       <c r="D13" s="75"/>
       <c r="E13" s="75"/>
@@ -22887,50 +26417,50 @@
       <c r="J13" s="75"/>
       <c r="K13" s="75"/>
       <c r="L13" s="75"/>
-      <c r="M13" s="100">
+      <c r="M13" s="91">
         <v>95</v>
       </c>
-      <c r="N13" s="101">
-        <f t="shared" si="0"/>
+      <c r="N13" s="92">
+        <f t="shared" si="1"/>
         <v>104.39560439560441</v>
       </c>
-      <c r="O13" s="102">
+      <c r="O13" s="93">
         <v>108</v>
       </c>
-      <c r="P13" s="101">
-        <f>O13/$O$3*100</f>
+      <c r="P13" s="92">
+        <f t="shared" si="0"/>
         <v>117.39130434782609</v>
       </c>
-      <c r="Q13" s="102">
+      <c r="Q13" s="93">
         <v>108</v>
       </c>
-      <c r="R13" s="101">
-        <f t="shared" si="1"/>
+      <c r="R13" s="92">
+        <f t="shared" si="2"/>
         <v>114.89361702127661</v>
       </c>
-      <c r="S13" s="103">
+      <c r="S13" s="94">
         <v>0.32729999999999998</v>
       </c>
-      <c r="T13" s="101">
-        <f t="shared" si="2"/>
+      <c r="T13" s="92">
+        <f t="shared" si="3"/>
         <v>152.51630941286112</v>
       </c>
       <c r="U13" s="72">
         <v>0.33100000000000002</v>
       </c>
-      <c r="V13" s="104">
-        <f t="shared" si="3"/>
+      <c r="V13" s="95">
+        <f t="shared" si="4"/>
         <v>151.48741418764303</v>
       </c>
       <c r="W13" s="72"/>
-      <c r="X13" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="105">
+      <c r="X13" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="96">
         <v>0.99509999999999998</v>
       </c>
-      <c r="Z13" s="104" t="s">
+      <c r="Z13" s="95" t="s">
         <v>43</v>
       </c>
       <c r="AA13" s="72"/>
@@ -22958,35 +26488,35 @@
       <c r="L14" s="33"/>
       <c r="M14" s="3"/>
       <c r="N14" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="41">
-        <f>O14/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="46"/>
       <c r="T14" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14" s="24"/>
       <c r="V14" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W14" s="24"/>
       <c r="X14" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="88">
         <v>0.99019999999999997</v>
       </c>
       <c r="Z14" s="42"/>
@@ -23017,43 +26547,43 @@
         <v>101</v>
       </c>
       <c r="N15" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110.98901098901099</v>
       </c>
       <c r="O15" s="2">
         <v>116</v>
       </c>
       <c r="P15" s="41">
-        <f>O15/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>126.08695652173914</v>
       </c>
       <c r="Q15" s="2">
         <v>116</v>
       </c>
       <c r="R15" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123.40425531914893</v>
       </c>
       <c r="S15" s="46">
         <v>0.30599999999999999</v>
       </c>
       <c r="T15" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142.59086672879775</v>
       </c>
       <c r="U15" s="24">
         <v>0.30840000000000001</v>
       </c>
       <c r="V15" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141.14416475972541</v>
       </c>
       <c r="W15" s="24"/>
       <c r="X15" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="88">
         <v>0.98609999999999998</v>
       </c>
       <c r="Z15" s="42"/>
@@ -23084,43 +26614,43 @@
         <v>99</v>
       </c>
       <c r="N16" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108.79120879120879</v>
       </c>
       <c r="O16" s="43">
         <v>114</v>
       </c>
       <c r="P16" s="41">
-        <f>O16/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>123.91304347826086</v>
       </c>
       <c r="Q16" s="43">
         <v>113</v>
       </c>
       <c r="R16" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120.21276595744681</v>
       </c>
       <c r="S16" s="51">
         <v>0.33400000000000002</v>
       </c>
       <c r="T16" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155.63839701770738</v>
       </c>
       <c r="U16" s="24">
         <v>0.3362</v>
       </c>
       <c r="V16" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.86727688787184</v>
       </c>
       <c r="W16" s="24"/>
       <c r="X16" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="88">
         <v>0.7651</v>
       </c>
       <c r="Z16" s="42"/>
@@ -23151,43 +26681,43 @@
         <v>97</v>
       </c>
       <c r="N17" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106.5934065934066</v>
       </c>
       <c r="O17" s="2">
         <v>113</v>
       </c>
       <c r="P17" s="41">
-        <f>O17/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>122.82608695652173</v>
       </c>
       <c r="Q17" s="2">
         <v>112</v>
       </c>
       <c r="R17" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.14893617021276</v>
       </c>
       <c r="S17" s="52">
         <v>0.36109999999999998</v>
       </c>
       <c r="T17" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168.2665424044734</v>
       </c>
       <c r="U17" s="24">
         <v>0.36320000000000002</v>
       </c>
       <c r="V17" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>166.22425629290618</v>
       </c>
       <c r="W17" s="24"/>
       <c r="X17" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="88">
         <v>0.57199999999999995</v>
       </c>
       <c r="Z17" s="42"/>
@@ -23218,43 +26748,43 @@
         <v>94</v>
       </c>
       <c r="N18" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103.29670329670331</v>
       </c>
       <c r="O18" s="54">
         <v>105</v>
       </c>
       <c r="P18" s="41">
-        <f>O18/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>114.13043478260869</v>
       </c>
       <c r="Q18" s="54">
         <v>105</v>
       </c>
       <c r="R18" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111.70212765957446</v>
       </c>
       <c r="S18" s="46">
         <v>0.35730000000000001</v>
       </c>
       <c r="T18" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166.49580615097855</v>
       </c>
       <c r="U18" s="24">
         <v>0.35859999999999997</v>
       </c>
       <c r="V18" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>164.11899313501144</v>
       </c>
       <c r="W18" s="24"/>
       <c r="X18" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="88">
         <v>0.495</v>
       </c>
       <c r="Z18" s="42"/>
@@ -23287,43 +26817,43 @@
         <v>102</v>
       </c>
       <c r="N19" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.08791208791209</v>
       </c>
       <c r="O19" s="54">
         <v>117</v>
       </c>
       <c r="P19" s="41">
-        <f>O19/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>127.17391304347827</v>
       </c>
       <c r="Q19" s="54">
         <v>113</v>
       </c>
       <c r="R19" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120.21276595744681</v>
       </c>
       <c r="S19" s="46">
         <v>0.44490000000000002</v>
       </c>
       <c r="T19" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>207.31593662628143</v>
       </c>
       <c r="U19" s="24">
         <v>0.44469999999999998</v>
       </c>
       <c r="V19" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>203.52402745995423</v>
       </c>
       <c r="W19" s="24"/>
       <c r="X19" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="88">
         <v>0.41930000000000001</v>
       </c>
       <c r="Z19" s="42"/>
@@ -23356,43 +26886,43 @@
         <v>105</v>
       </c>
       <c r="N20" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115.38461538461537</v>
       </c>
       <c r="O20" s="16">
         <v>127</v>
       </c>
       <c r="P20" s="41">
-        <f>O20/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>138.04347826086956</v>
       </c>
       <c r="Q20" s="16">
         <v>122</v>
       </c>
       <c r="R20" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129.78723404255319</v>
       </c>
       <c r="S20" s="16">
         <v>0.44009999999999999</v>
       </c>
       <c r="T20" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>205.07921714818264</v>
       </c>
       <c r="U20" s="24">
         <v>0.43990000000000001</v>
       </c>
       <c r="V20" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201.32723112128147</v>
       </c>
       <c r="W20" s="24"/>
       <c r="X20" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="88">
         <v>0.4022</v>
       </c>
       <c r="Z20" s="42"/>
@@ -23425,43 +26955,43 @@
         <v>114</v>
       </c>
       <c r="N21" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125.27472527472527</v>
       </c>
       <c r="O21" s="16">
         <v>135</v>
       </c>
       <c r="P21" s="41">
-        <f>O21/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>146.73913043478262</v>
       </c>
       <c r="Q21" s="16">
         <v>132</v>
       </c>
       <c r="R21" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140.42553191489361</v>
       </c>
       <c r="S21" s="16">
         <v>0.39419999999999999</v>
       </c>
       <c r="T21" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>183.69058713886298</v>
       </c>
       <c r="U21" s="24">
         <v>0.39090000000000003</v>
       </c>
       <c r="V21" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>178.90160183066365</v>
       </c>
       <c r="W21" s="24"/>
       <c r="X21" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="88">
         <v>0.41139999999999999</v>
       </c>
       <c r="Z21" s="42"/>
@@ -23492,43 +27022,43 @@
         <v>103</v>
       </c>
       <c r="N22" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113.18681318681318</v>
       </c>
       <c r="O22" s="16">
         <v>125</v>
       </c>
       <c r="P22" s="41">
-        <f>O22/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>135.86956521739131</v>
       </c>
       <c r="Q22" s="16">
         <v>120</v>
       </c>
       <c r="R22" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127.65957446808511</v>
       </c>
       <c r="S22" s="16">
         <v>0.42970000000000003</v>
       </c>
       <c r="T22" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200.23299161230196</v>
       </c>
       <c r="U22" s="24">
         <v>0.43070000000000003</v>
       </c>
       <c r="V22" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197.11670480549199</v>
       </c>
       <c r="W22" s="24"/>
       <c r="X22" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="88">
         <v>0.41830000000000001</v>
       </c>
       <c r="Z22" s="42"/>
@@ -23555,35 +27085,35 @@
       <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="41">
-        <f>O23/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S23" s="16"/>
       <c r="T23" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U23" s="24"/>
       <c r="V23" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W23" s="24"/>
       <c r="X23" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="88"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="24"/>
       <c r="AB23" s="24"/>
@@ -23608,35 +27138,35 @@
       <c r="L24" s="33"/>
       <c r="M24" s="15"/>
       <c r="N24" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="41">
-        <f>O24/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S24" s="16"/>
       <c r="T24" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U24" s="24"/>
       <c r="V24" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W24" s="24"/>
       <c r="X24" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="88"/>
       <c r="Z24" s="42"/>
       <c r="AA24" s="24"/>
       <c r="AB24" s="24"/>
@@ -23661,35 +27191,35 @@
       <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="41">
-        <f>O25/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S25" s="16"/>
       <c r="T25" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U25" s="24"/>
       <c r="V25" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W25" s="24"/>
       <c r="X25" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="88"/>
       <c r="Z25" s="42"/>
       <c r="AA25" s="24"/>
       <c r="AB25" s="24"/>
@@ -23714,35 +27244,35 @@
       <c r="L26" s="33"/>
       <c r="M26" s="15"/>
       <c r="N26" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="41">
-        <f>O26/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S26" s="16"/>
       <c r="T26" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U26" s="24"/>
       <c r="V26" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W26" s="24"/>
       <c r="X26" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="88"/>
       <c r="Z26" s="42"/>
       <c r="AA26" s="24"/>
       <c r="AB26" s="24"/>
@@ -23767,35 +27297,35 @@
       <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="41">
-        <f>O27/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U27" s="24"/>
       <c r="V27" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="88"/>
       <c r="Z27" s="42"/>
       <c r="AA27" s="24"/>
       <c r="AB27" s="24"/>
@@ -23820,35 +27350,35 @@
       <c r="L28" s="33"/>
       <c r="M28" s="15"/>
       <c r="N28" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="41">
-        <f>O28/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U28" s="24"/>
       <c r="V28" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W28" s="24"/>
       <c r="X28" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="88"/>
       <c r="Z28" s="42"/>
       <c r="AA28" s="24"/>
       <c r="AB28" s="24"/>
@@ -23873,35 +27403,35 @@
       <c r="L29" s="33"/>
       <c r="M29" s="15"/>
       <c r="N29" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="41">
-        <f>O29/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U29" s="24"/>
       <c r="V29" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W29" s="24"/>
       <c r="X29" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="88"/>
       <c r="Z29" s="42"/>
       <c r="AA29" s="24"/>
       <c r="AB29" s="24"/>
@@ -23926,35 +27456,35 @@
       <c r="L30" s="33"/>
       <c r="M30" s="15"/>
       <c r="N30" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="41">
-        <f>O30/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S30" s="16"/>
       <c r="T30" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U30" s="24"/>
       <c r="V30" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W30" s="24"/>
       <c r="X30" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="88"/>
       <c r="Z30" s="42"/>
       <c r="AA30" s="24"/>
       <c r="AB30" s="24"/>
@@ -23979,35 +27509,35 @@
       <c r="L31" s="33"/>
       <c r="M31" s="15"/>
       <c r="N31" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="41">
-        <f>O31/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U31" s="24"/>
       <c r="V31" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W31" s="24"/>
       <c r="X31" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="88"/>
       <c r="Z31" s="42"/>
       <c r="AA31" s="24"/>
       <c r="AB31" s="24"/>
@@ -24032,35 +27562,35 @@
       <c r="L32" s="33"/>
       <c r="M32" s="15"/>
       <c r="N32" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="41">
-        <f>O32/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U32" s="24"/>
       <c r="V32" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W32" s="24"/>
       <c r="X32" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="88"/>
       <c r="Z32" s="42"/>
       <c r="AA32" s="24"/>
       <c r="AB32" s="24"/>
@@ -24085,35 +27615,35 @@
       <c r="L33" s="33"/>
       <c r="M33" s="15"/>
       <c r="N33" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="41">
-        <f>O33/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U33" s="24"/>
       <c r="V33" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W33" s="24"/>
       <c r="X33" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="88"/>
       <c r="Z33" s="42"/>
       <c r="AA33" s="24"/>
       <c r="AB33" s="24"/>
@@ -24138,35 +27668,35 @@
       <c r="L34" s="33"/>
       <c r="M34" s="15"/>
       <c r="N34" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="41">
-        <f>O34/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q34" s="16"/>
       <c r="R34" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U34" s="24"/>
       <c r="V34" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W34" s="24"/>
       <c r="X34" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="88"/>
       <c r="Z34" s="42"/>
       <c r="AA34" s="24"/>
       <c r="AB34" s="24"/>
@@ -24191,35 +27721,35 @@
       <c r="L35" s="33"/>
       <c r="M35" s="15"/>
       <c r="N35" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O35" s="16"/>
       <c r="P35" s="41">
-        <f>O35/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U35" s="24"/>
       <c r="V35" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W35" s="24"/>
       <c r="X35" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="88"/>
       <c r="Z35" s="42"/>
       <c r="AA35" s="24"/>
       <c r="AB35" s="24"/>
@@ -24244,35 +27774,35 @@
       <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O36" s="16"/>
       <c r="P36" s="41">
-        <f>O36/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S36" s="16"/>
       <c r="T36" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U36" s="24"/>
       <c r="V36" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W36" s="24"/>
       <c r="X36" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="88"/>
       <c r="Z36" s="42"/>
       <c r="AA36" s="24"/>
       <c r="AB36" s="24"/>
@@ -24297,35 +27827,35 @@
       <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O37" s="16"/>
       <c r="P37" s="41">
-        <f>O37/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U37" s="24"/>
       <c r="V37" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W37" s="24"/>
       <c r="X37" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="88"/>
       <c r="Z37" s="42"/>
       <c r="AA37" s="24"/>
       <c r="AB37" s="24"/>
@@ -24350,35 +27880,35 @@
       <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O38" s="16"/>
       <c r="P38" s="41">
-        <f>O38/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S38" s="16"/>
       <c r="T38" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W38" s="24"/>
       <c r="X38" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="88"/>
       <c r="Z38" s="42"/>
       <c r="AA38" s="24"/>
       <c r="AB38" s="24"/>
@@ -24403,35 +27933,35 @@
       <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O39" s="16"/>
       <c r="P39" s="41">
-        <f>O39/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S39" s="16"/>
       <c r="T39" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U39" s="24"/>
       <c r="V39" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W39" s="24"/>
       <c r="X39" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="88"/>
       <c r="Z39" s="42"/>
       <c r="AA39" s="24"/>
       <c r="AB39" s="24"/>
@@ -24456,35 +27986,35 @@
       <c r="L40" s="33"/>
       <c r="M40" s="15"/>
       <c r="N40" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O40" s="16"/>
       <c r="P40" s="41">
-        <f>O40/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S40" s="16"/>
       <c r="T40" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U40" s="24"/>
       <c r="V40" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W40" s="24"/>
       <c r="X40" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="88"/>
       <c r="Z40" s="42"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
@@ -24504,39 +28034,44 @@
       <c r="L41" s="33"/>
       <c r="M41" s="15"/>
       <c r="N41" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O41" s="16"/>
       <c r="P41" s="41">
-        <f>O41/$O$3*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S41" s="16"/>
       <c r="T41" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U41" s="24"/>
       <c r="V41" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W41" s="24"/>
       <c r="X41" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="97"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="88"/>
       <c r="Z41" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
@@ -24546,214 +28081,209 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:N41 R4:R41 T4:T41 P4:P41">
-    <cfRule type="cellIs" dxfId="51" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="50" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="51" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="52" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V41">
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="47" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="48" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="49" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:Z41">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="44" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="45" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="46" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B41">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="41" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="42" operator="lessThan">
       <formula>"$B$3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="43" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D31 D33:D41">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="39" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="40" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E31 E33:G41">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="37" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="38" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31 H33:H41">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="35" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="36" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I31 I33:I41">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="33" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="34" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J31 J33:J41">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="31" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="32" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K31 K33:K41">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="29" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="30" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L31 L33:L41">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="27" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="28" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="25" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="26" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="23" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="24" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="21" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="22" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="19" operator="lessThan">
       <formula>$I$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="20" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="17" operator="lessThan">
       <formula>$J$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="18" operator="greaterThan">
       <formula>$J$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="15" operator="lessThan">
       <formula>$K$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="16" operator="greaterThan">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="13" operator="lessThan">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="greaterThan">
       <formula>$L$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F31">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="11" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="12" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="9" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="10" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="7" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="8" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="5" operator="lessThan">
       <formula>$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="6" operator="greaterThan">
       <formula>$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C41">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="lessThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
